--- a/src/static/xlsx/request_api_xlsx.xlsx
+++ b/src/static/xlsx/request_api_xlsx.xlsx
@@ -541,22 +541,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>88709.54</t>
+          <t>86088.26</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-3.64</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-7.81</t>
+          <t>-10.92</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -566,14 +566,14 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1758438401019.50</t>
+          <t>1706478340092.30</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>62778105235.49168</v>
+        <v>28159809802.12032</v>
       </c>
       <c r="M2" t="n">
-        <v>40151931430.89339</v>
+        <v>64699111624.634</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -617,39 +617,39 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2486.18</t>
+          <t>2217.77</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-7.98</t>
+          <t>-18.80</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.028033</t>
+          <t>0.025761</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>299518720049.55</t>
+          <t>267182175211.36</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>26038369493.74695</v>
+        <v>12609476660.83847</v>
       </c>
       <c r="M3" t="n">
-        <v>21834401814.25671</v>
+        <v>25851470999.43269</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -694,34 +694,34 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.000011</t>
+          <t>0.000012</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>139467951122.61</t>
+          <t>139628790780.13</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>113536417806.1143</v>
+        <v>48343756455.16911</v>
       </c>
       <c r="M4" t="n">
-        <v>80149327960.22444</v>
+        <v>108084632161.3491</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -761,39 +761,39 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-11.73</t>
+          <t>-15.37</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.000026</t>
+          <t>0.000025</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>132699233637.75</t>
+          <t>126312211601.17</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>9296078504.386011</v>
+        <v>2376676905.650386</v>
       </c>
       <c r="M5" t="n">
-        <v>5821131473.152644</v>
+        <v>6323852416.539459</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -837,39 +837,39 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>627.72</t>
+          <t>607.56</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-4.84</t>
+          <t>-7.48</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.007078</t>
+          <t>0.007057</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>104704546680.67</t>
+          <t>101341933565.80</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1459892629.691728</v>
+        <v>836980912.9430822</v>
       </c>
       <c r="M6" t="n">
-        <v>1040626180.120329</v>
+        <v>1163750270.76043</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -913,39 +913,39 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>142.96</t>
+          <t>144.35</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>-2.03</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>-15.80</t>
+          <t>-16.81</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0.001612</t>
+          <t>0.001677</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>69566945802.92</t>
+          <t>70243792043.36</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>6962253244.397834</v>
+        <v>2693189934.61445</v>
       </c>
       <c r="M7" t="n">
-        <v>6365412396.197077</v>
+        <v>6681501841.427094</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -990,34 +990,34 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0.000011</t>
+          <t>0.000012</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>52254706986.22</t>
+          <t>52205698039.77</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>10886195371.7664</v>
+        <v>3973074246.993354</v>
       </c>
       <c r="M8" t="n">
-        <v>7385292103.42786</v>
+        <v>10137374891.40893</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -1057,22 +1057,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.210241</t>
+          <t>0.206669</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-17.14</t>
+          <t>-15.23</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1082,14 +1082,14 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>31113414074.20</t>
+          <t>30584760498.03</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2669870423.089471</v>
+        <v>1041614699.434581</v>
       </c>
       <c r="M9" t="n">
-        <v>2052614541.740975</v>
+        <v>2287511789.483696</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1129,22 +1129,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.681019</t>
+          <t>0.659645</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-0.30</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>-0.54</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>-13.50</t>
+          <t>-14.12</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1154,14 +1154,14 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>23958403161.51</t>
+          <t>23206447074.92</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>938608878.1796052</v>
+        <v>432996397.5163512</v>
       </c>
       <c r="M10" t="n">
-        <v>759293401.1600485</v>
+        <v>853913302.1428521</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1205,39 +1205,39 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2482.54</t>
+          <t>2211.95</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-0.48</t>
+          <t>-1.06</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>-7.99</t>
+          <t>-18.72</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0.027992</t>
+          <t>0.025694</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>22889479015.19</t>
+          <t>20394582639.86</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>164999435.9083014</v>
+        <v>80808633.66380316</v>
       </c>
       <c r="M11" t="n">
-        <v>95995568.67531131</v>
+        <v>236978249.8353245</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1281,22 +1281,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.227575</t>
+          <t>0.233347</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-5.06</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>-3.95</t>
+          <t>-1.39</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1306,14 +1306,14 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>19602156778.23</t>
+          <t>20099329952.94</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1590627794.138416</v>
+        <v>705810854.0785588</v>
       </c>
       <c r="M12" t="n">
-        <v>1072483060.131522</v>
+        <v>1227934420.52748</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1353,39 +1353,39 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>88590.09</t>
+          <t>85905.96</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>-3.73</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>-7.89</t>
+          <t>-11.03</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0.998895</t>
+          <t>0.997874</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>11739427809.07</t>
+          <t>11383742297.48</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>255763328.0423338</v>
+        <v>104170901.674234</v>
       </c>
       <c r="M13" t="n">
-        <v>144180182.2103471</v>
+        <v>285510618.637274</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1402,22 +1402,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2751</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LINK</t>
+          <t>XLM</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ChainLink</t>
+          <t>Stellar</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>stellar</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -1425,75 +1425,75 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>15.26</t>
+          <t>0.314876</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>9.52</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>-16.21</t>
+          <t>-4.55</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0.000172</t>
+          <t>0.000004</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>9736434717.69</t>
+          <t>9632582594.48</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>853192891.2947638</v>
+        <v>228152634.865246</v>
       </c>
       <c r="M14" t="n">
-        <v>613687012.8243953</v>
+        <v>226274255.96625</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>638099970.00</t>
+          <t>30591655494.00</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1000000000</t>
+          <t>104303927518</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>1000000000</t>
+          <t>104303927518</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>44883</t>
+          <t>48555</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AVAX</t>
+          <t>HBAR</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Avalanche</t>
+          <t>Hedera Hashgraph</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>avalanche</t>
+          <t>hedera-hashgraph</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -1501,75 +1501,75 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>21.95</t>
+          <t>0.250277</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>16.01</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>-2.23</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>-8.77</t>
+          <t>16.24</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>0.000248</t>
+          <t>0.000003</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>9036255758.90</t>
+          <t>9577473195.19</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>726490486.7619833</v>
+        <v>892338687.4965506</v>
       </c>
       <c r="M15" t="n">
-        <v>490839840.8794943</v>
+        <v>471170921.7671959</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>411588573.00</t>
+          <t>38267523240.00</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>449924873.17709</t>
+          <t>50000000000</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>715748719</t>
+          <t>50000000000</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>54683</t>
+          <t>2751</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TON</t>
+          <t>LINK</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>TON Coin</t>
+          <t>ChainLink</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>toncoin</t>
+          <t>chainlink</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1577,75 +1577,75 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>14.75</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>-0.54</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>-0.75</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>-3.58</t>
+          <t>-16.32</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0.000040</t>
+          <t>0.000171</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>9024624971.44</t>
+          <t>9408952098.52</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>147298290.4185859</v>
+        <v>257010764.6126331</v>
       </c>
       <c r="M16" t="n">
-        <v>121687921.5644301</v>
+        <v>497503900.4501958</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2539507711.00</t>
+          <t>638099970.00</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>5047558528</t>
+          <t>1000000000</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>5047558528</t>
+          <t>1000000000</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>XLM</t>
+          <t>LTC</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Stellar</t>
+          <t>Litecoin</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>stellar</t>
+          <t>litecoin</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1653,75 +1653,75 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.294104</t>
+          <t>124.24</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>-1.67</t>
+          <t>-2.39</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>-10.12</t>
+          <t>-2.87</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0.000003</t>
+          <t>0.001443</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>8997117450.35</t>
+          <t>9375212604.33</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>367954356.3348981</v>
+        <v>960178405.3863466</v>
       </c>
       <c r="M17" t="n">
-        <v>256690517.3390442</v>
+        <v>2011925889.210726</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>30591655494.00</t>
+          <t>75462162.00</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>104303927518</t>
+          <t>84000000</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>104303927518</t>
+          <t>84000000</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>93845</t>
+          <t>33833</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SUI</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Sui</t>
+          <t>UNUS SED LEO</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>sui</t>
+          <t>unus-sed-leo</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1729,75 +1729,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>9.71</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>-5.01</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0.000034</t>
+          <t>0.000113</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>8964107511.51</t>
+          <t>8976579941.00</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1656324904.92747</v>
+        <v>5109927.510414234</v>
       </c>
       <c r="M18" t="n">
-        <v>1171497731.571506</v>
+        <v>9500516.707927285</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>3009569341.00</t>
+          <t>924240811.00</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>10000000000</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>10000000000</t>
-        </is>
-      </c>
+          <t>985239504</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>44883</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LTC</t>
+          <t>AVAX</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Litecoin</t>
+          <t>Avalanche</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>litecoin</t>
+          <t>avalanche</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1805,75 +1801,75 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>115.81</t>
+          <t>21.79</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>-2.44</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>-8.89</t>
+          <t>-14.35</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0.001306</t>
+          <t>0.000253</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>8739155100.55</t>
+          <t>8969133986.21</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1509029731.922514</v>
+        <v>194936668.1147092</v>
       </c>
       <c r="M19" t="n">
-        <v>1364491605.457477</v>
+        <v>612126200.2605352</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>75462162.00</t>
+          <t>411588573.00</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>84000000</t>
+          <t>449924873.17709</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>84000000</t>
+          <t>715748719</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2753</t>
+          <t>93845</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CNX</t>
+          <t>SUI</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Cryptonex</t>
+          <t>Sui</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>cryptonex</t>
+          <t>sui</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1881,75 +1877,75 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>45.21</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>-3.74</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>-7.88</t>
+          <t>-15.77</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0.000510</t>
+          <t>0.000033</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>8545539848.39</t>
+          <t>8493233559.74</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>17632511.12979697</v>
+        <v>489994288.1164039</v>
       </c>
       <c r="M20" t="n">
-        <v>10916066.5001838</v>
+        <v>1052399205.657681</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>188997901.00</t>
+          <t>3009569341.00</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>188997901</t>
+          <t>10000000000</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>210000000</t>
+          <t>10000000000</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>33833</t>
+          <t>54683</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>TON</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>UNUS SED LEO</t>
+          <t>TON Coin</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>unus-sed-leo</t>
+          <t>toncoin</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1957,71 +1953,75 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>9.22</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>-5.68</t>
+          <t>-9.22</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>0.000104</t>
+          <t>0.000039</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>8520854078.47</t>
+          <t>8420859106.15</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>11660589.71532836</v>
+        <v>61751995.50100564</v>
       </c>
       <c r="M21" t="n">
-        <v>15123733.75473576</v>
+        <v>167471109.1867238</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>924240811.00</t>
+          <t>2539507711.00</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>985239504</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr"/>
+          <t>5047558528</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>5047558528</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>32610</t>
+          <t>2753</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>WETH</t>
+          <t>CNX</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>WETH</t>
+          <t>Cryptonex</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>weth</t>
+          <t>cryptonex</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -2029,51 +2029,55 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2484.33</t>
+          <t>43.90</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>-0.48</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>-8.15</t>
+          <t>-10.88</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0.028012</t>
+          <t>0.000510</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>8385393705.29</t>
+          <t>8296062864.40</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>94175955.56170087</v>
+        <v>6679976.216</v>
       </c>
       <c r="M22" t="n">
-        <v>72175770.34932445</v>
+        <v>21329765.761</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>3375317.00</t>
+          <t>188997901.00</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>3375317.5926469</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr"/>
+          <t>188997901</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>210000000</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2106,34 +2110,34 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>-2.54</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>-8.50</t>
+          <t>-11.68</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>1.59E-10</t>
+          <t>1.58E-10</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>8328371908.90</t>
+          <t>8023987169.96</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>27887123.47456529</v>
+        <v>35958774.71457723</v>
       </c>
       <c r="M23" t="n">
-        <v>27556435.4978455</v>
+        <v>26759753.83787145</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2150,22 +2154,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>48555</t>
+          <t>32610</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>HBAR</t>
+          <t>WETH</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Hedera Hashgraph</t>
+          <t>WETH</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>hedera-hashgraph</t>
+          <t>weth</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -2173,55 +2177,51 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.197388</t>
+          <t>2209.68</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>-1.80</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>-0.56</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>-4.03</t>
+          <t>-19.15</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>0.000002</t>
+          <t>0.025667</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>7553542377.24</t>
+          <t>7458379577.31</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>517359980.0054082</v>
+        <v>37097910.13012112</v>
       </c>
       <c r="M24" t="n">
-        <v>555431188.9858087</v>
+        <v>79121934.38772047</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>38267523240.00</t>
+          <t>3375317.00</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>50000000000</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>50000000000</t>
-        </is>
-      </c>
+          <t>3375317.5926469</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2249,39 +2249,39 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>-1.71</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>-2.51</t>
+          <t>-8.68</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>0.000053</t>
+          <t>0.000054</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>6503070610.27</t>
+          <t>6480965975.73</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>386929610.5658528</v>
+        <v>144490567.9308006</v>
       </c>
       <c r="M25" t="n">
-        <v>254870200.1444685</v>
+        <v>348203474.6786463</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2325,39 +2325,39 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>7.60</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>-6.09</t>
+          <t>-0.49</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>-0.44</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0.000087</t>
+          <t>0.000088</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>6451686694.02</t>
+          <t>6364879923.62</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>230791451.1280521</v>
+        <v>63222972.67357698</v>
       </c>
       <c r="M26" t="n">
-        <v>370885184.8816501</v>
+        <v>156497767.6330754</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2378,22 +2378,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>67117</t>
+          <t>2321</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BGB</t>
+          <t>BCH</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Bitget Token</t>
+          <t>Bitcoin Cash</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>bitget-token</t>
+          <t>bitcoin-cash</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -2401,75 +2401,75 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>311.19</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>-6.34</t>
+          <t>-1.65</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>-13.97</t>
+          <t>-2.55</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>0.000049</t>
+          <t>0.003615</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>6077320115.13</t>
+          <t>6170027850.23</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>405586847.0601158</v>
+        <v>226979968.9480859</v>
       </c>
       <c r="M27" t="n">
-        <v>426069044.3102225</v>
+        <v>481237559.0596728</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>1400001000.00</t>
+          <t>19827462.00</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2000000000</t>
+          <t>19827462</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>2000000000</t>
+          <t>21000000</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2321</t>
+          <t>67117</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BCH</t>
+          <t>BGB</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Bitcoin Cash</t>
+          <t>Bitget Token</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>bitcoin-cash</t>
+          <t>bitget-token</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -2477,53 +2477,53 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>292.82</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>-8.26</t>
+          <t>-18.85</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0.003302</t>
+          <t>0.000047</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>5805885518.35</t>
+          <t>5699437626.58</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>477883515.8175261</v>
+        <v>284238366.7955062</v>
       </c>
       <c r="M28" t="n">
-        <v>402338200.1139535</v>
+        <v>391305138.4457467</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>19827462.00</t>
+          <t>1400001000.00</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>19827462</t>
+          <t>2000000000</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>21000000</t>
+          <t>2000000000</t>
         </is>
       </c>
     </row>
@@ -2558,34 +2558,34 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>0.000011</t>
+          <t>0.000012</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>5368694903.32</t>
+          <t>5366643029.90</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>161417594.0919731</v>
+        <v>17947434.8378693</v>
       </c>
       <c r="M29" t="n">
-        <v>233890223.1845627</v>
+        <v>158014466.9923522</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2625,39 +2625,39 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>8.30</t>
+          <t>7.48</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>-13.96</t>
+          <t>-15.80</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>0.000094</t>
+          <t>0.000087</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>4983003696.75</t>
+          <t>4493502598.17</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>337404393.9501454</v>
+        <v>92084687.02067743</v>
       </c>
       <c r="M30" t="n">
-        <v>188624886.8943373</v>
+        <v>240421353.9978057</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2701,39 +2701,39 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2641.32</t>
+          <t>2354.00</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>-0.44</t>
+          <t>-1.12</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>-7.91</t>
+          <t>-18.83</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>0.029782</t>
+          <t>0.027344</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>4938281223.11</t>
+          <t>4401090145.37</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>22043895.8925981</v>
+        <v>10480240.79721375</v>
       </c>
       <c r="M31" t="n">
-        <v>15171556.22226787</v>
+        <v>26893725.22728808</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2777,22 +2777,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2802,14 +2802,14 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>4237740859.21</t>
+          <t>4219839846.01</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>3134771.596543491</v>
+        <v>2299257.303872966</v>
       </c>
       <c r="M32" t="n">
-        <v>2753915.955076813</v>
+        <v>3095067.708294098</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2849,39 +2849,39 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>215.57</t>
+          <t>223.21</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>-5.45</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>-7.09</t>
+          <t>-4.32</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>0.002431</t>
+          <t>0.002593</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>3976544947.41</t>
+          <t>4117471805.99</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>59153414.80690285</v>
+        <v>59583136.76797803</v>
       </c>
       <c r="M33" t="n">
-        <v>57851252.67767727</v>
+        <v>85927113.59345905</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2921,39 +2921,39 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>-1.07</t>
+          <t>5.62</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>-0.52</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>-5.94</t>
+          <t>-9.59</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>0.000034</t>
+          <t>0.000038</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>3515757917.20</t>
+          <t>3834896247.48</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>283797379.6624315</v>
+        <v>158606292.856294</v>
       </c>
       <c r="M34" t="n">
-        <v>196551588.6601056</v>
+        <v>241481427.4218713</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2974,22 +2974,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>93841</t>
+          <t>111341</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>APT</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Pepe</t>
+          <t>Aptos</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>pepe</t>
+          <t>aptos</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -2997,75 +2997,75 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0.000008</t>
+          <t>6.28</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>5.97</t>
+          <t>-3.15</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>-13.75</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>9.32E-11</t>
+          <t>0.000073</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>3478241975.21</t>
+          <t>3597573468.29</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>12248085.10815389</v>
+        <v>149729635.2004203</v>
       </c>
       <c r="M35" t="n">
-        <v>9682249.936889362</v>
+        <v>288725257.5788797</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>420689899999990.00</t>
+          <t>572963346.00</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>420689899999994</t>
+          <t>1137599205.7185</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>420690000000000</t>
+          <t>1137599205.7185</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>111341</t>
+          <t>121611</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>APT</t>
+          <t>ONDO</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Aptos</t>
+          <t>Ondo</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>aptos</t>
+          <t>ondo-finance</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -3073,75 +3073,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>5.58</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>-0.71</t>
+          <t>-13.62</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>0.000063</t>
+          <t>0.000012</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>3196675978.07</t>
+          <t>3214320235.73</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>249407117.2262504</v>
+        <v>129349101.4552709</v>
       </c>
       <c r="M36" t="n">
-        <v>178600508.6353307</v>
+        <v>214228744.687687</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>572963346.00</t>
+          <t>3159107529.00</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>1137599205.7185</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>1137599205.7185</t>
-        </is>
-      </c>
+          <t>10000000000</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>121611</t>
+          <t>93841</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ONDO</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Ondo</t>
+          <t>Pepe</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>ondo-finance</t>
+          <t>pepe</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -3149,71 +3145,75 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.993445</t>
+          <t>0.000008</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>-4.04</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>-17.32</t>
+          <t>-19.73</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>0.000011</t>
+          <t>8.83E-11</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>3138398202.91</t>
+          <t>3199302258.41</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>423501338.7100883</v>
+        <v>9522211.029824261</v>
       </c>
       <c r="M37" t="n">
-        <v>326866478.7194396</v>
+        <v>9909360.334274277</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>3159107529.00</t>
+          <t>420689899999990.00</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>10000000000</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr"/>
+          <t>420689899999994</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>420690000000000</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>121619</t>
+          <t>46018</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TAO</t>
+          <t>AAVE</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Bittensor</t>
+          <t>Aave</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>bittensor</t>
+          <t>aave</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -3221,75 +3221,75 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>374.81</t>
+          <t>194.00</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>-6.41</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>-20.74</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>0.004226</t>
+          <t>0.002254</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>3079116491.70</t>
+          <t>2917903405.75</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>359847742.1561485</v>
+        <v>149212141.3786229</v>
       </c>
       <c r="M38" t="n">
-        <v>291680080.0046582</v>
+        <v>292635866.1478145</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>8215232.00</t>
+          <t>15040465.00</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>8215232</t>
+          <t>16000000</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>21000000</t>
+          <t>16000000</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>46018</t>
+          <t>118</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>AAVE</t>
+          <t>ETC</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Aave</t>
+          <t>Ethereum Classic</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum-classic</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -3297,75 +3297,75 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>204.32</t>
+          <t>19.08</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>-1.66</t>
+          <t>-2.44</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>-20.26</t>
+          <t>-6.58</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>0.002304</t>
+          <t>0.000222</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>3073107843.10</t>
+          <t>2866296858.05</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>394082672.3274751</v>
+        <v>312210433.9259414</v>
       </c>
       <c r="M39" t="n">
-        <v>250413563.3191813</v>
+        <v>420809757.9456008</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>15040465.00</t>
+          <t>150239230.00</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>16000000</t>
+          <t>210700000</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>16000000</t>
+          <t>210700000</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>121619</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ETC</t>
+          <t>TAO</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Ethereum Classic</t>
+          <t>Bittensor</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>ethereum-classic</t>
+          <t>bittensor</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -3373,53 +3373,53 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>18.91</t>
+          <t>335.66</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>-7.25</t>
+          <t>-23.14</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>0.000213</t>
+          <t>0.003899</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>2840930306.26</t>
+          <t>2757493667.00</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>424604703.738921</v>
+        <v>87655281.2295</v>
       </c>
       <c r="M40" t="n">
-        <v>367864687.2192243</v>
+        <v>208048507.7943209</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>150239230.00</t>
+          <t>8215232.00</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>210700000</t>
+          <t>8215232</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>210700000</t>
+          <t>21000000</t>
         </is>
       </c>
     </row>
@@ -3449,39 +3449,39 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>46.24</t>
+          <t>45.45</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>-1.08</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>-6.66</t>
+          <t>-7.67</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>0.000521</t>
+          <t>0.000528</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>2774610805.19</t>
+          <t>2727121471.77</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>13113819.7249344</v>
+        <v>5239621.493463419</v>
       </c>
       <c r="M41" t="n">
-        <v>8794896.29096544</v>
+        <v>13864932.43473926</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3521,22 +3521,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0.802234</t>
+          <t>0.744175</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>-3.36</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>-27.92</t>
+          <t>-19.80</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3546,14 +3546,14 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>2699272112.86</t>
+          <t>2503919760.96</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>65955947.76944903</v>
+        <v>55021461.19070532</v>
       </c>
       <c r="M42" t="n">
-        <v>44617564.27373946</v>
+        <v>84889708.62853038</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3574,22 +3574,22 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>44035</t>
+          <t>2741</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TKX</t>
+          <t>VET</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Tokenize Xchange</t>
+          <t>VeChain</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>tokenize-xchange</t>
+          <t>vechain</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -3597,75 +3597,75 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>31.79</t>
+          <t>0.028376</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>-6.52</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>-1.15</t>
+          <t>-11.52</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>0.000358</t>
+          <t>3.30E-7</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>2542944221.12</t>
+          <t>2298026707.55</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1619571.738020488</v>
+        <v>32170232.40352285</v>
       </c>
       <c r="M43" t="n">
-        <v>2894044.236540763</v>
+        <v>59129332.97284835</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>79995999.00</t>
+          <t>80985041177.00</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>100000000</t>
+          <t>85985041177</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>100000000</t>
+          <t>86712634466</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>70485</t>
+          <t>34406</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>KAS</t>
+          <t>ALGO</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Kaspa</t>
+          <t>Algorand</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>kaspa</t>
+          <t>algorand</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -3673,75 +3673,75 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0.091691</t>
+          <t>0.252220</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>-1.08</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>-1.04</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>-10.34</t>
+          <t>-5.56</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>0.000001</t>
+          <t>0.000003</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>2347634739.00</t>
+          <t>2106713099.06</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>95993101.65085083</v>
+        <v>96389414.18790355</v>
       </c>
       <c r="M44" t="n">
-        <v>69546294.22926092</v>
+        <v>122466812.7687857</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>25603737127.00</t>
+          <t>8352675037.00</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>25603737127.745</t>
+          <t>10000000000</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>28704026601</t>
+          <t>10000000000</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2741</t>
+          <t>136105</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>VET</t>
+          <t>TIA</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>VeChain</t>
+          <t>Celestia</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>vechain</t>
+          <t>celestia</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -3749,75 +3749,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0.028697</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>-0.52</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>-11.30</t>
+          <t>8.58</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>3.24E-7</t>
+          <t>0.000048</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>2324010245.28</t>
+          <t>2089022767.93</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>77531533.51252688</v>
+        <v>119397594.9744963</v>
       </c>
       <c r="M45" t="n">
-        <v>51723143.6989354</v>
+        <v>173593658.3277695</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>80985041177.00</t>
+          <t>503429575.00</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>85985041177</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>86712634466</t>
-        </is>
-      </c>
+          <t>1098534575.3421</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>33644</t>
+          <t>70485</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FTM</t>
+          <t>KAS</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Fantom</t>
+          <t>Kaspa</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>fantom</t>
+          <t>kaspa</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -3825,75 +3821,75 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0.728207</t>
+          <t>0.079417</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>-2.02</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>24.50</t>
+          <t>-20.69</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>0.000008</t>
+          <t>9.23E-7</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>2041625979.59</t>
+          <t>2033384335.15</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>10188348.65047444</v>
+        <v>56077654.15992295</v>
       </c>
       <c r="M46" t="n">
-        <v>8603774.151325908</v>
+        <v>112696924.6277395</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2803634835.00</t>
+          <t>25603737127.00</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>3175000000</t>
+          <t>25603737127.745</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>3175000000</t>
+          <t>28704026601</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>100423</t>
+          <t>32607</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>FDUSD</t>
+          <t>FIL</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>First Digital USD</t>
+          <t>Filecoin</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>first-digital-usd</t>
+          <t>filecoin</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -3901,48 +3897,48 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0.999637</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>-4.02</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>0.000011</t>
+          <t>0.000038</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>1956556373.47</t>
+          <t>2003117279.33</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>11613467352.13325</v>
+        <v>91317937.70206037</v>
       </c>
       <c r="M47" t="n">
-        <v>9251739343.679098</v>
+        <v>211892663.4580522</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>1957266894.00</t>
+          <t>619372473.00</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>1957266894.62</t>
+          <t>1959703254</t>
         </is>
       </c>
       <c r="P47" t="inlineStr"/>
@@ -3950,22 +3946,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>32607</t>
+          <t>33644</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>FIL</t>
+          <t>FTM</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Filecoin</t>
+          <t>Fantom</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>filecoin</t>
+          <t>fantom</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -3973,71 +3969,75 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>0.712336</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>-0.30</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>-4.31</t>
+          <t>-18.73</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>0.000036</t>
+          <t>0.000008</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>1952666691.58</t>
+          <t>1997129852.88</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>236013028.8026663</v>
+        <v>2951061.17342726</v>
       </c>
       <c r="M48" t="n">
-        <v>197646889.3495685</v>
+        <v>3334661.052022161</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>619372473.00</t>
+          <t>2803634835.00</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>1959703254</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr"/>
+          <t>3175000000</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>3175000000</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>34406</t>
+          <t>135601</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ALGO</t>
+          <t>RENDER</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Algorand</t>
+          <t>Render</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>algorand</t>
+          <t>render</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -4045,75 +4045,75 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0.232060</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>-0.58</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>-12.12</t>
+          <t>-11.24</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>0.000003</t>
+          <t>0.000044</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>1938321452.68</t>
+          <t>1964596203.83</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>120546069.0445247</v>
+        <v>47135840.84999552</v>
       </c>
       <c r="M49" t="n">
-        <v>113102816.4600137</v>
+        <v>100584830.2477937</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>8352675037.00</t>
+          <t>517697726.00</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>10000000000</t>
+          <t>532457899.96759</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>10000000000</t>
+          <t>644168762</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>135601</t>
+          <t>100423</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>RENDER</t>
+          <t>FDUSD</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Render</t>
+          <t>First Digital USD</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>render</t>
+          <t>first-digital-usd</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -4121,75 +4121,71 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>0.998648</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>-12.74</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>0.000041</t>
+          <t>0.000012</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>1884537661.94</t>
+          <t>1954620389.55</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>134995502.4732551</v>
+        <v>5432011174.486232</v>
       </c>
       <c r="M50" t="n">
-        <v>141875435.1496415</v>
+        <v>11106726688.86718</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>517697726.00</t>
+          <t>1957266894.00</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>532457899.96759</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>644168762</t>
-        </is>
-      </c>
+          <t>1957266894.62</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>136105</t>
+          <t>33830</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TIA</t>
+          <t>ATOM</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Celestia</t>
+          <t>Cosmos</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>celestia</t>
+          <t>cosmos</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -4197,48 +4193,48 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>11.88</t>
+          <t>-3.48</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>15.65</t>
+          <t>-7.20</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>0.000041</t>
+          <t>0.000052</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>1814563697.85</t>
+          <t>1756201449.10</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>139510682.4441121</v>
+        <v>62003664.47561895</v>
       </c>
       <c r="M51" t="n">
-        <v>83785769.27932216</v>
+        <v>145927623.2023301</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>503429575.00</t>
+          <t>390934204.00</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>1098534575.3421</t>
+          <t>390934204</t>
         </is>
       </c>
       <c r="P51" t="inlineStr"/>
@@ -4269,22 +4265,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0.418680</t>
+          <t>0.417077</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>-1.44</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>-10.85</t>
+          <t>-13.43</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -4294,14 +4290,14 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>1762688463.78</t>
+          <t>1755940245.08</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>205496228.489116</v>
+        <v>90387222.50280456</v>
       </c>
       <c r="M52" t="n">
-        <v>191180430.9823008</v>
+        <v>218316627.5429642</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4318,22 +4314,22 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>33830</t>
+          <t>33718</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ATOM</t>
+          <t>FET</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>Fetch.ai</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>cosmos</t>
+          <t>fetch</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -4341,71 +4337,75 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>0.639907</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>-2.19</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>-3.67</t>
+          <t>-18.70</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>0.000050</t>
+          <t>0.000007</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>1739481698.92</t>
+          <t>1557610996.96</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>195312868.2951806</v>
+        <v>68293275.87270245</v>
       </c>
       <c r="M53" t="n">
-        <v>146337709.3370778</v>
+        <v>126734759.3921492</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>390934204.00</t>
+          <t>2434122159.00</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>390934204</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr"/>
+          <t>2714493896.672</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>2719493897</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>33718</t>
+          <t>12377</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>FET</t>
+          <t>MKR</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Fetch.ai</t>
+          <t>Maker</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>fetch</t>
+          <t>maker</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -4413,75 +4413,75 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0.662494</t>
+          <t>1646.82</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>-0.30</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>-10.59</t>
+          <t>9.78</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>0.000007</t>
+          <t>0.019129</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>1612592419.90</t>
+          <t>1469350959.77</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>173404276.1321137</v>
+        <v>336167366.4714825</v>
       </c>
       <c r="M54" t="n">
-        <v>123331017.2546397</v>
+        <v>789433272.8306295</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>2434122159.00</t>
+          <t>892234.00</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2714493896.672</t>
+          <t>918875</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>2719493897</t>
+          <t>1005577</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>12377</t>
+          <t>46183</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MKR</t>
+          <t>INJ</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Maker</t>
+          <t>Injective Protocol</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>maker</t>
+          <t>injective-protocol</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -4489,75 +4489,75 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1660.01</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>19.50</t>
+          <t>-2.20</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>47.91</t>
+          <t>-14.68</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>0.018717</t>
+          <t>0.000151</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>1481120124.66</t>
+          <t>1262977266.80</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>536732343.797508</v>
+        <v>64125234.79634497</v>
       </c>
       <c r="M55" t="n">
-        <v>397854482.2355877</v>
+        <v>117193997.5224545</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>892234.00</t>
+          <t>97152222.00</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>918875</t>
+          <t>100000000</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>1005577</t>
+          <t>100000000</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>46183</t>
+          <t>70497</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>INJ</t>
+          <t>OP</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Injective Protocol</t>
+          <t>Optimism</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>injective-protocol</t>
+          <t>optimism</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -4565,75 +4565,75 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>13.54</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>-1.72</t>
+          <t>-3.30</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>-4.03</t>
+          <t>-6.89</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>0.000153</t>
+          <t>0.000012</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>1315209965.86</t>
+          <t>1236432307.83</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>114816522.9238036</v>
+        <v>113676601.2182404</v>
       </c>
       <c r="M56" t="n">
-        <v>108143606.002215</v>
+        <v>212274583.2431045</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>97152222.00</t>
+          <t>1187596466.00</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>100000000</t>
+          <t>4294967296</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>100000000</t>
+          <t>4294967296</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>70497</t>
+          <t>48569</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>OP</t>
+          <t>STX</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Optimism</t>
+          <t>Stacks</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>optimism</t>
+          <t>stacks</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -4641,75 +4641,75 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.808415</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>6.03</t>
+          <t>-2.28</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>-3.17</t>
+          <t>-11.74</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>0.000012</t>
+          <t>0.000009</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>1269316277.37</t>
+          <t>1218940371.79</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>271346661.9837441</v>
+        <v>31374628.87981597</v>
       </c>
       <c r="M57" t="n">
-        <v>204794528.9888831</v>
+        <v>57059215.56191859</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>1187596466.00</t>
+          <t>1507814826.00</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>4294967296</t>
+          <t>1507814826.8363</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>4294967296</t>
+          <t>1818000000</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>46981</t>
+          <t>126763</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>LDO</t>
+          <t>ENA</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Lido DAO</t>
+          <t>Ethena</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>lido-dao</t>
+          <t>ethena</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -4717,75 +4717,75 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>0.399808</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>-2.70</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>-24.87</t>
+          <t>-10.53</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>0.000016</t>
+          <t>0.000005</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>1252539244.43</t>
+          <t>1212543537.43</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>165091335.8795604</v>
+        <v>119097949.766732</v>
       </c>
       <c r="M58" t="n">
-        <v>144877283.0338995</v>
+        <v>246950496.0704569</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>896046961.00</t>
+          <t>3032812500.00</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>1000000000</t>
+          <t>15000000000</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>1000000000</t>
+          <t>15000000000</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>126763</t>
+          <t>121593</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ENA</t>
+          <t>IMX</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Ethena</t>
+          <t>Immutable</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>ethena</t>
+          <t>immutable-x</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -4793,75 +4793,75 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0.409719</t>
+          <t>0.691379</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>11.40</t>
+          <t>-3.72</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>-4.55</t>
+          <t>-4.06</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>0.000005</t>
+          <t>0.000008</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>1242602151.43</t>
+          <t>1205626618.83</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>335697982.2127929</v>
+        <v>20454858.54782896</v>
       </c>
       <c r="M59" t="n">
-        <v>238947663.3153488</v>
+        <v>45849275.96976542</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>3032812500.00</t>
+          <t>1743800322.00</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>15000000000</t>
+          <t>2000000000</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>15000000000</t>
+          <t>2000000000</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>121593</t>
+          <t>32360</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>IMX</t>
+          <t>THETA</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Immutable</t>
+          <t>Theta Token</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>immutable-x</t>
+          <t>theta-token</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -4869,75 +4869,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0.701083</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>12.40</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>-6.91</t>
+          <t>-13.44</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>0.000008</t>
+          <t>0.000014</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>1222548950.45</t>
+          <t>1164378081.70</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>50450410.01161838</v>
+        <v>13199887.61227017</v>
       </c>
       <c r="M60" t="n">
-        <v>37310773.52199187</v>
+        <v>27595307.49215449</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>1743800322.00</t>
+          <t>1000000000.00</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2000000000</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>2000000000</t>
-        </is>
-      </c>
+          <t>1000000000</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>33085</t>
+          <t>48561</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>QNT</t>
+          <t>GRT</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Quant</t>
+          <t>The Graph</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>quant</t>
+          <t>the-graph</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -4945,75 +4941,71 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>98.78</t>
+          <t>0.118693</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>12.84</t>
+          <t>-1.50</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>-0.54</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>-14.65</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>0.001114</t>
+          <t>0.000001</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>1192510992.52</t>
+          <t>1133343608.57</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>208326707.4330212</v>
+        <v>30017717.94146723</v>
       </c>
       <c r="M61" t="n">
-        <v>69012280.13430679</v>
+        <v>69416732.14884615</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>12072738.00</t>
+          <t>9548531509.00</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>45467000</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>45467000</t>
-        </is>
-      </c>
+          <t>10800262823</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>48569</t>
+          <t>144321</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>STX</t>
+          <t>BNSOL</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Stacks</t>
+          <t>Binance Staked SOL</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>stacks</t>
+          <t>binance-staked-sol</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -5021,75 +5013,71 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0.786667</t>
+          <t>149.30</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>-2.23</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>-11.28</t>
+          <t>-16.82</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>0.000009</t>
+          <t>0.001734</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>1186148543.13</t>
+          <t>1129518400.40</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>68685050.11597314</v>
+        <v>5758904.259300001</v>
       </c>
       <c r="M62" t="n">
-        <v>60512057.16977821</v>
+        <v>10424223.3918</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>1507814826.00</t>
+          <t>7565428.00</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>1507814826.8363</t>
-        </is>
-      </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>1818000000</t>
-        </is>
-      </c>
+          <t>7565428.9394815</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>100427</t>
+          <t>46981</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>SEI</t>
+          <t>LDO</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Sei</t>
+          <t>Lido DAO</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>sei</t>
+          <t>lido-dao</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -5097,75 +5085,75 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0.277833</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>-1.74</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>23.76</t>
+          <t>-26.01</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>0.000003</t>
+          <t>0.000014</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>1169058792.34</t>
+          <t>1116348960.10</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>295193772.6193879</v>
+        <v>70355113.42449029</v>
       </c>
       <c r="M63" t="n">
-        <v>289193721.2412445</v>
+        <v>147103538.0363961</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>4207777777.00</t>
+          <t>896046961.00</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>10000000000</t>
+          <t>1000000000</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>10000000000</t>
+          <t>1000000000</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>32360</t>
+          <t>33085</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>THETA</t>
+          <t>QNT</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Theta Token</t>
+          <t>Quant</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>theta-token</t>
+          <t>quant</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -5173,71 +5161,75 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>91.57</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>-4.51</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>-0.30</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>-8.82</t>
+          <t>-4.47</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>0.000013</t>
+          <t>0.001064</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>1164635095.62</t>
+          <t>1105495825.72</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>31470978.46581549</v>
+        <v>37688354.89587101</v>
       </c>
       <c r="M64" t="n">
-        <v>30625213.13209188</v>
+        <v>76262533.92866211</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>1000000000.00</t>
+          <t>12072738.00</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>1000000000</t>
-        </is>
-      </c>
-      <c r="P64" t="inlineStr"/>
+          <t>45467000</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>45467000</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>48561</t>
+          <t>100427</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>GRT</t>
+          <t>SEI</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>The Graph</t>
+          <t>Sei</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>the-graph</t>
+          <t>sei</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -5245,51 +5237,55 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0.121079</t>
+          <t>0.248600</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>-9.86</t>
+          <t>-11.06</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>0.000001</t>
+          <t>0.000003</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>1156128965.41</t>
+          <t>1046055139.42</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>68469817.42794378</v>
+        <v>79062734.72373296</v>
       </c>
       <c r="M65" t="n">
-        <v>43887144.47263414</v>
+        <v>147695518.5222281</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>9548531509.00</t>
+          <t>4207777777.00</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>10800262823</t>
-        </is>
-      </c>
-      <c r="P65" t="inlineStr"/>
+          <t>10000000000</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>10000000000</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5317,39 +5313,39 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>20.01</t>
+          <t>18.14</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>6.08</t>
+          <t>-1.99</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>12.32</t>
+          <t>-3.19</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>0.000226</t>
+          <t>0.000211</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>1142479421.86</t>
+          <t>1036098545.84</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>12076339.9368142</v>
+        <v>5354715.51411526</v>
       </c>
       <c r="M66" t="n">
-        <v>7134057.753649305</v>
+        <v>9548525.347201508</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5370,22 +5366,22 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>113497</t>
+          <t>32408</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>METH</t>
+          <t>XDCE</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Mantle Staked Ether</t>
+          <t>XinFin Network</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>mantle-staked-ether</t>
+          <t>xinfin-network</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -5393,75 +5389,75 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2630.19</t>
+          <t>0.080409</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>-7.93</t>
+          <t>-7.43</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>0.029657</t>
+          <t>9.34E-7</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>1136896362.73</t>
+          <t>985309514.48</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2948914.068044738</v>
+        <v>23767919.89351515</v>
       </c>
       <c r="M67" t="n">
-        <v>2669883.522661542</v>
+        <v>29314994.90640373</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>432249.00</t>
+          <t>12253720803.00</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>444017</t>
+          <t>12253720803.1</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>520969</t>
+          <t>37629974945</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>144321</t>
+          <t>84965</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BNSOL</t>
+          <t>FLR</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Binance Staked SOL</t>
+          <t>Flare</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>binance-staked-sol</t>
+          <t>flare</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -5469,48 +5465,48 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>148.00</t>
+          <t>0.017096</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>-15.23</t>
+          <t>-14.12</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>0.001669</t>
+          <t>1.99E-7</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>1119683344.00</t>
+          <t>948325791.28</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>18202927.74</v>
+        <v>8755376.230282994</v>
       </c>
       <c r="M68" t="n">
-        <v>27430433.426</v>
+        <v>11305324.93133894</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>7565428.00</t>
+          <t>55469579762.00</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>7565428.9394815</t>
+          <t>102867561202.53</t>
         </is>
       </c>
       <c r="P68" t="inlineStr"/>
@@ -5518,22 +5514,22 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>82537</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>KCS</t>
+          <t>BONK</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>KuCoin Shares</t>
+          <t>Bonk</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>kucoin-shares</t>
+          <t>bonk</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -5541,71 +5537,75 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>12.11</t>
+          <t>0.000014</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>-0.97</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>-14.61</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>0.000137</t>
+          <t>1.57E-10</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>1074516015.77</t>
+          <t>940957760.13</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>7328061.912210194</v>
+        <v>21371251.56247853</v>
       </c>
       <c r="M69" t="n">
-        <v>2653461.732295299</v>
+        <v>18982433.54956298</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>88745681.00</t>
+          <t>69474461693558.00</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>170118637</t>
-        </is>
-      </c>
-      <c r="P69" t="inlineStr"/>
+          <t>93526183276778</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>93863283342446</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>32408</t>
+          <t>2679</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>XDCE</t>
+          <t>EOS</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>XinFin Network</t>
+          <t>EOS</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>xinfin-network</t>
+          <t>eos</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -5613,75 +5613,71 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0.080304</t>
+          <t>0.561394</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>-13.36</t>
+          <t>-10.89</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>9.05E-7</t>
+          <t>0.000007</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>984020483.10</t>
+          <t>863605989.20</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>21083794.46697612</v>
+        <v>55771343.06698791</v>
       </c>
       <c r="M70" t="n">
-        <v>20304436.46586248</v>
+        <v>121767330.0267657</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>12253720803.00</t>
+          <t>1538323158.00</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>12253720803.1</t>
-        </is>
-      </c>
-      <c r="P70" t="inlineStr">
-        <is>
-          <t>37629974945</t>
-        </is>
-      </c>
+          <t>2100000000</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>112093</t>
+          <t>48039</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ZBU</t>
+          <t>JASMY</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Zeebu</t>
+          <t>JasmyCoin</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>zeebu</t>
+          <t>jasmycoin</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -5689,75 +5685,75 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>0.017834</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>-2.78</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>-1.63</t>
+          <t>-16.23</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>0.000043</t>
+          <t>2.07E-7</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>976333940.24</t>
+          <t>863539468.23</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>1254993.233919101</v>
+        <v>13101321.32966259</v>
       </c>
       <c r="M71" t="n">
-        <v>499366.6458819599</v>
+        <v>30499750.03554424</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>258970840.00</t>
+          <t>48419999999.00</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2675785350</t>
+          <t>50000000000</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>5000000000</t>
+          <t>50000000000</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>84965</t>
+          <t>32373</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>FLR</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Flare</t>
+          <t>Telcoin</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>flare</t>
+          <t>telcoin</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -5765,71 +5761,75 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0.017320</t>
+          <t>0.008803</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>-1.80</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>-14.68</t>
+          <t>-15.81</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>1.95E-7</t>
+          <t>1.02E-7</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>960741888.56</t>
+          <t>808649772.13</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>17211688.46494385</v>
+        <v>2246728.582604348</v>
       </c>
       <c r="M72" t="n">
-        <v>14192896.21928899</v>
+        <v>4836264.500856693</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>55469579762.00</t>
+          <t>91860083810.00</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>102867561202.53</t>
-        </is>
-      </c>
-      <c r="P72" t="inlineStr"/>
+          <t>100000000000</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>100000000000</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>82537</t>
+          <t>3682</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>BONK</t>
+          <t>XTZ</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Bonk</t>
+          <t>Tezos</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>bonk</t>
+          <t>tezos</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -5837,17 +5837,17 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0.000013</t>
+          <t>0.761116</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>-1.07</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5857,55 +5857,51 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>1.52E-10</t>
+          <t>0.000009</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>935215059.38</t>
+          <t>778441264.20</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>14120996.82435516</v>
+        <v>16819880.4491889</v>
       </c>
       <c r="M73" t="n">
-        <v>15264290.08567711</v>
+        <v>32367901.51993453</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>69474461693558.00</t>
+          <t>1022763201.00</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>93526183276778</t>
-        </is>
-      </c>
-      <c r="P73" t="inlineStr">
-        <is>
-          <t>93863283342446</t>
-        </is>
-      </c>
+          <t>1043176571.6524</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>48039</t>
+          <t>45161</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>JASMY</t>
+          <t>SAND</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>JasmyCoin</t>
+          <t>The Sandbox</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>jasmycoin</t>
+          <t>the-sandbox</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -5913,75 +5909,75 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0.018677</t>
+          <t>0.317166</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>-0.64</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>-12.64</t>
+          <t>-11.26</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>2.11E-7</t>
+          <t>0.000004</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>904316417.55</t>
+          <t>770985941.14</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>44055731.29377302</v>
+        <v>46041029.35255188</v>
       </c>
       <c r="M74" t="n">
-        <v>34896223.95775955</v>
+        <v>107991471.4985367</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>48419999999.00</t>
+          <t>2430857126.00</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>50000000000</t>
+          <t>3000000000</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>50000000000</t>
+          <t>3000000000</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2679</t>
+          <t>51947</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>EOS</t>
+          <t>FLOKI</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>EOS</t>
+          <t>Floki Inu</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>eos</t>
+          <t>floki-inu</t>
         </is>
       </c>
       <c r="E75" t="n">
@@ -5989,48 +5985,48 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0.560978</t>
+          <t>0.000080</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>-2.35</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>-9.06</t>
+          <t>-14.84</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>0.000006</t>
+          <t>9.32E-10</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>862965106.68</t>
+          <t>770303653.41</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>141979503.5796416</v>
+        <v>64462011.82013498</v>
       </c>
       <c r="M75" t="n">
-        <v>108046700.1296983</v>
+        <v>57493297.29653516</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>1538323158.00</t>
+          <t>9601002749536.00</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2100000000</t>
+          <t>10000000000000</t>
         </is>
       </c>
       <c r="P75" t="inlineStr"/>
@@ -6038,22 +6034,22 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>56821</t>
+          <t>69801</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ENS</t>
+          <t>USDD</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Ethereum Name Service</t>
+          <t>USDD</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>ethereum-name-service</t>
+          <t>usdd</t>
         </is>
       </c>
       <c r="E76" t="n">
@@ -6061,75 +6057,71 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>23.01</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>-2.27</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>-14.35</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>0.000259</t>
+          <t>0.000012</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>810068387.21</t>
+          <t>751111568.09</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>129055516.5012726</v>
+        <v>19846959.47936498</v>
       </c>
       <c r="M76" t="n">
-        <v>117460227.6050993</v>
+        <v>22740598.10284214</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>35211736.00</t>
+          <t>750411392.00</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>100000000</t>
-        </is>
-      </c>
-      <c r="P76" t="inlineStr">
-        <is>
-          <t>100000000</t>
-        </is>
-      </c>
+          <t>754185915</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>32373</t>
+          <t>56821</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>ENS</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Telcoin</t>
+          <t>Ethereum Name Service</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>telcoin</t>
+          <t>ethereum-name-service</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -6137,75 +6129,75 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0.008804</t>
+          <t>21.26</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>-6.86</t>
+          <t>-1.91</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>-11.94</t>
+          <t>-21.59</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>9.93E-8</t>
+          <t>0.000247</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>808701240.47</t>
+          <t>748732252.45</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>13909732.32905169</v>
+        <v>44145574.73799839</v>
       </c>
       <c r="M77" t="n">
-        <v>6449693.358415807</v>
+        <v>100356062.0713879</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>91860083810.00</t>
+          <t>35211736.00</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>100000000000</t>
+          <t>100000000</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>100000000000</t>
+          <t>100000000</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>51947</t>
+          <t>111347</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>FLOKI</t>
+          <t>PYTH</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Floki Inu</t>
+          <t>Pyth Network</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>floki-inu</t>
+          <t>pyth-network</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -6213,71 +6205,75 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0.000083</t>
+          <t>0.203281</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>-2.99</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>-10.91</t>
+          <t>-14.94</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>9.40E-10</t>
+          <t>0.000002</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>800098416.36</t>
+          <t>736890756.38</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>52160020.07718066</v>
+        <v>18932395.48458813</v>
       </c>
       <c r="M78" t="n">
-        <v>66990902.8700747</v>
+        <v>47246333.91215177</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>9601002749536.00</t>
+          <t>3624988786.00</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>10000000000000</t>
-        </is>
-      </c>
-      <c r="P78" t="inlineStr"/>
+          <t>9999988786.4386</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>10000000000</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>32604</t>
+          <t>48589</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>NEXO</t>
+          <t>FLOW</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Nexo</t>
+          <t>Flow</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>nexo</t>
+          <t>flow</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -6285,75 +6281,71 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>0.472362</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>-1.32</t>
+          <t>-2.30</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>-7.31</t>
+          <t>-10.09</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>0.000014</t>
+          <t>0.000005</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>798230954.27</t>
+          <t>734493029.75</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>13516198.17680253</v>
+        <v>17851781.86272672</v>
       </c>
       <c r="M79" t="n">
-        <v>8027191.424689452</v>
+        <v>33516318.0124649</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>646145839.00</t>
+          <t>1554936091.00</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>1000000000</t>
-        </is>
-      </c>
-      <c r="P79" t="inlineStr">
-        <is>
-          <t>1000000000</t>
-        </is>
-      </c>
+          <t>1554936091.074</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>3682</t>
+          <t>32604</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>XTZ</t>
+          <t>NEXO</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Tezos</t>
+          <t>Nexo</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>tezos</t>
+          <t>nexo</t>
         </is>
       </c>
       <c r="E80" t="n">
@@ -6361,71 +6353,75 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0.778035</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>-0.65</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>-10.12</t>
+          <t>-15.60</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>0.000009</t>
+          <t>0.000013</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>795745506.93</t>
+          <t>732250800.47</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>39490409.25021935</v>
+        <v>6936250.572300397</v>
       </c>
       <c r="M80" t="n">
-        <v>32200347.12220047</v>
+        <v>21712356.34957428</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>1022763201.00</t>
+          <t>646145839.00</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>1043176571.6524</t>
-        </is>
-      </c>
-      <c r="P80" t="inlineStr"/>
+          <t>1000000000</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>1000000000</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>111347</t>
+          <t>45577</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>PYTH</t>
+          <t>GALA</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Pyth Network</t>
+          <t>Gala</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>pyth-network</t>
+          <t>gala</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -6433,53 +6429,53 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0.212028</t>
+          <t>0.019637</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>-2.02</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>-15.05</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>0.000002</t>
+          <t>2.28E-7</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>768600828.20</t>
+          <t>723316509.73</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>58065957.5864172</v>
+        <v>56403191.92505123</v>
       </c>
       <c r="M81" t="n">
-        <v>57350509.45120541</v>
+        <v>113475473.9772369</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>3624988786.00</t>
+          <t>36833584283.00</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>9999988786.4386</t>
+          <t>38857744419.886</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>10000000000</t>
+          <t>50000000000</t>
         </is>
       </c>
     </row>
@@ -6509,22 +6505,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0.129578</t>
+          <t>0.119788</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>-2.74</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>-7.67</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -6534,14 +6530,14 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>768240934.96</t>
+          <t>710197964.27</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>29773835.47687704</v>
+        <v>11680479.19306941</v>
       </c>
       <c r="M82" t="n">
-        <v>26106292.16412361</v>
+        <v>23545360.74776836</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6558,22 +6554,22 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>69801</t>
+          <t>42855</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>USDD</t>
+          <t>XAUT</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>USDD</t>
+          <t>Tether Gold</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>usdd</t>
+          <t>tether-gold</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -6581,48 +6577,48 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0.999842</t>
+          <t>2857.28</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-2.77</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>0.000011</t>
+          <t>0.033190</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>750292565.64</t>
+          <t>704388362.81</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>33039091.76821472</v>
+        <v>3190309.127808685</v>
       </c>
       <c r="M83" t="n">
-        <v>23690938.83784072</v>
+        <v>7158754.573393862</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>750411392.00</t>
+          <t>246524.00</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>754185915</t>
+          <t>246524</t>
         </is>
       </c>
       <c r="P83" t="inlineStr"/>
@@ -6630,22 +6626,22 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>45161</t>
+          <t>33819</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>SAND</t>
+          <t>CRO</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>The Sandbox</t>
+          <t>Crypto.com Chain</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>the-sandbox</t>
+          <t>crypto-com-chain</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -6653,75 +6649,71 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>0.307232</t>
+          <t>0.074607</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>-17.58</t>
+          <t>-12.99</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>0.000003</t>
+          <t>8.67E-7</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>746836833.19</t>
+          <t>692411701.93</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>140356168.7468801</v>
+        <v>14608137.27734008</v>
       </c>
       <c r="M84" t="n">
-        <v>99938984.29108071</v>
+        <v>22789056.00997215</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>2430857126.00</t>
+          <t>9280821918.00</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>3000000000</t>
-        </is>
-      </c>
-      <c r="P84" t="inlineStr">
-        <is>
-          <t>3000000000</t>
-        </is>
-      </c>
+          <t>100000000000</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>111351</t>
+          <t>127083</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>JTO</t>
+          <t>VIRTUAL</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Jito</t>
+          <t>Virtual Protocol</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>jito</t>
+          <t>virtual-protocol</t>
         </is>
       </c>
       <c r="E85" t="n">
@@ -6729,43 +6721,43 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>-5.45</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-14.74</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>0.000030</t>
+          <t>0.000012</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>733804449.75</t>
+          <t>681672951.81</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>47851116.40308274</v>
+        <v>64751668.22274572</v>
       </c>
       <c r="M85" t="n">
-        <v>43419973.51423484</v>
+        <v>115051692.8770561</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>278317357.00</t>
+          <t>645781178.00</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6782,22 +6774,22 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>127083</t>
+          <t>70947</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>VIRTUAL</t>
+          <t>FLZ</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Virtual Protocol</t>
+          <t>Fellaz</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>virtual-protocol</t>
+          <t>fellaz</t>
         </is>
       </c>
       <c r="E86" t="n">
@@ -6805,75 +6797,75 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>10.03</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>-7.22</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>0.000013</t>
+          <t>0.000017</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>733707336.84</t>
+          <t>676920330.59</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>142855444.5378574</v>
+        <v>3021447.868264426</v>
       </c>
       <c r="M86" t="n">
-        <v>123642582.7154809</v>
+        <v>1620769.851946768</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>645781178.00</t>
+          <t>471874940.00</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>1000000000</t>
+          <t>2000000000</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>1000000000</t>
+          <t>2000000000</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>48589</t>
+          <t>133</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>FLOW</t>
+          <t>NEO</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Flow</t>
+          <t>Neo</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>flow</t>
+          <t>neo</t>
         </is>
       </c>
       <c r="E87" t="n">
@@ -6881,71 +6873,75 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0.470376</t>
+          <t>9.58</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>-7.96</t>
+          <t>-10.15</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>0.000005</t>
+          <t>0.000111</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>731405262.72</t>
+          <t>675688812.99</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>41909674.78586815</v>
+        <v>18815984.31189719</v>
       </c>
       <c r="M87" t="n">
-        <v>34668248.27855911</v>
+        <v>36900495.24721167</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>1554936091.00</t>
+          <t>70538831.00</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>1554936091.074</t>
-        </is>
-      </c>
-      <c r="P87" t="inlineStr"/>
+          <t>100000000</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>100000000</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>47371</t>
+          <t>111351</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>RAY</t>
+          <t>JTO</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Raydium</t>
+          <t>Jito</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>raydium</t>
+          <t>jito</t>
         </is>
       </c>
       <c r="E88" t="n">
@@ -6953,22 +6949,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>-15.67</t>
+          <t>-3.23</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>-42.18</t>
+          <t>-16.69</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -6978,50 +6974,50 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>730610232.98</t>
+          <t>675351999.06</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>289920088.1985366</v>
+        <v>23478052.47488432</v>
       </c>
       <c r="M88" t="n">
-        <v>477665522.6139485</v>
+        <v>50924559.25074922</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>290888823.00</t>
+          <t>278317357.00</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>554999175.73466</t>
+          <t>1000000000</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>555000000</t>
+          <t>1000000000</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>45577</t>
+          <t>47371</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>GALA</t>
+          <t>RAY</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Gala</t>
+          <t>Raydium</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>gala</t>
+          <t>raydium</t>
         </is>
       </c>
       <c r="E89" t="n">
@@ -7029,75 +7025,75 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>0.019795</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>-3.26</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>-10.16</t>
+          <t>-47.89</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>2.23E-7</t>
+          <t>0.000027</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>729128784.21</t>
+          <t>674819225.66</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>110205021.2937198</v>
+        <v>66425485.25280941</v>
       </c>
       <c r="M89" t="n">
-        <v>96276484.49135898</v>
+        <v>182963651.1992916</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>36833584283.00</t>
+          <t>290888823.00</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>38857744419.886</t>
+          <t>554999175.73466</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>50000000000</t>
+          <t>555000000</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>42855</t>
+          <t>33234</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>XAUT</t>
+          <t>BCHSV</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Tether Gold</t>
+          <t>Bitcoin SV</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>tether-gold</t>
+          <t>bitcoin-cash-sv</t>
         </is>
       </c>
       <c r="E90" t="n">
@@ -7105,71 +7101,75 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2921.00</t>
+          <t>34.95</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>-0.91</t>
+          <t>-3.15</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>-6.19</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>0.032936</t>
+          <t>0.000406</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>720095965.94</t>
+          <t>673278374.45</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>6637409.252437719</v>
+        <v>111716284.4021945</v>
       </c>
       <c r="M90" t="n">
-        <v>4058129.989407492</v>
+        <v>118073139.0966188</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>246524.00</t>
+          <t>19266077.00</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>246524</t>
-        </is>
-      </c>
-      <c r="P90" t="inlineStr"/>
+          <t>21000000</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>21000000</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>33819</t>
+          <t>46968</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CRO</t>
+          <t>FRAX</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Crypto.com Chain</t>
+          <t>Frax</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>crypto-com-chain</t>
+          <t>frax</t>
         </is>
       </c>
       <c r="E91" t="n">
@@ -7177,48 +7177,48 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>0.076048</t>
+          <t>0.995765</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>-1.54</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>-13.58</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>8.57E-7</t>
+          <t>0.000012</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>705786719.10</t>
+          <t>646683165.90</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>19310517.14237957</v>
+        <v>1243501.369759098</v>
       </c>
       <c r="M91" t="n">
-        <v>35714267.32278026</v>
+        <v>3695182.67482346</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>9280821918.00</t>
+          <t>649433438.00</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>100000000000</t>
+          <t>1044853133.2588</t>
         </is>
       </c>
       <c r="P91" t="inlineStr"/>
@@ -7226,22 +7226,22 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>70947</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>FLZ</t>
+          <t>MIOTA</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Fellaz</t>
+          <t>IOTA</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>fellaz</t>
+          <t>iota</t>
         </is>
       </c>
       <c r="E92" t="n">
@@ -7249,75 +7249,75 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>0.206867</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>-3.12</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>-0.52</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>-7.21</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>0.000016</t>
+          <t>0.000002</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>686641559.33</t>
+          <t>632446864.90</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>1425141.732757209</v>
+        <v>22287401.75955546</v>
       </c>
       <c r="M92" t="n">
-        <v>1957551.795519152</v>
+        <v>38119082.68860745</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>471874940.00</t>
+          <t>3057265852.00</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2000000000</t>
+          <t>4600000000</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>2000000000</t>
+          <t>4600000000</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>33234</t>
+          <t>121613</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>BCHSV</t>
+          <t>WIF</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Bitcoin SV</t>
+          <t>dogwifhat</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>bitcoin-cash-sv</t>
+          <t>dogwifhat</t>
         </is>
       </c>
       <c r="E93" t="n">
@@ -7325,75 +7325,71 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>35.10</t>
+          <t>0.614800</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>-2.32</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>-9.43</t>
+          <t>-8.65</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>0.000396</t>
+          <t>0.000007</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>676194194.65</t>
+          <t>614087857.07</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>126428598.5668454</v>
+        <v>269044300.5681045</v>
       </c>
       <c r="M93" t="n">
-        <v>114085665.0338107</v>
+        <v>456646184.6935875</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>19266077.00</t>
+          <t>998841655.00</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>21000000</t>
-        </is>
-      </c>
-      <c r="P93" t="inlineStr">
-        <is>
-          <t>21000000</t>
-        </is>
-      </c>
+          <t>998841655.00104</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>134</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>NEO</t>
+          <t>ZEC</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Neo</t>
+          <t>Zcash</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>neo</t>
+          <t>zcash</t>
         </is>
       </c>
       <c r="E94" t="n">
@@ -7401,75 +7397,75 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>9.55</t>
+          <t>37.60</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>-10.58</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>0.000108</t>
+          <t>0.000437</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>673365972.73</t>
+          <t>613974286.56</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>39970600.89297126</v>
+        <v>66616765.93245043</v>
       </c>
       <c r="M94" t="n">
-        <v>32926497.43848564</v>
+        <v>82947358.86899355</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>70538831.00</t>
+          <t>16328269.00</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>100000000</t>
+          <t>16328269</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>100000000</t>
+          <t>21000000</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>45985</t>
+          <t>33536</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>CAKE</t>
+          <t>MATIC</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>PancakeSwap</t>
+          <t>Matic Network</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>pancakeswap</t>
+          <t>matic-network</t>
         </is>
       </c>
       <c r="E95" t="n">
@@ -7477,75 +7473,71 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>0.282177</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>-0.44</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>-15.69</t>
+          <t>-6.28</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>0.000025</t>
+          <t>0.000003</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>648464218.87</t>
+          <t>613788640.22</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>90293195.06935976</v>
+        <v>3589114.909452898</v>
       </c>
       <c r="M95" t="n">
-        <v>96447986.38014726</v>
+        <v>3939690.155274613</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>297307421.00</t>
+          <t>2175190262.00</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>385914700.74188</t>
-        </is>
-      </c>
-      <c r="P95" t="inlineStr">
-        <is>
-          <t>450000000</t>
-        </is>
-      </c>
+          <t>10000000000</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>46968</t>
+          <t>45985</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>FRAX</t>
+          <t>CAKE</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Frax</t>
+          <t>PancakeSwap</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>frax</t>
+          <t>pancakeswap</t>
         </is>
       </c>
       <c r="E96" t="n">
@@ -7553,71 +7545,75 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>0.996080</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-17.84</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>0.000011</t>
+          <t>0.000023</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>646887640.48</t>
+          <t>590534429.04</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>5502835.444246889</v>
+        <v>41603999.13538766</v>
       </c>
       <c r="M96" t="n">
-        <v>4513815.551776449</v>
+        <v>77828875.30672155</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>649433438.00</t>
+          <t>297307421.00</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>1044853133.2588</t>
-        </is>
-      </c>
-      <c r="P96" t="inlineStr"/>
+          <t>385914700.74188</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>450000000</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>46575</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>MIOTA</t>
+          <t>AXS</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>IOTA</t>
+          <t>Axie Infinity</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>iota</t>
+          <t>axie-infinity</t>
         </is>
       </c>
       <c r="E97" t="n">
@@ -7625,75 +7621,75 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>0.199655</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>-1.55</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>-10.20</t>
+          <t>-12.58</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>0.000002</t>
+          <t>0.000043</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>610398358.59</t>
+          <t>585529720.55</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>34018968.67211767</v>
+        <v>15688386.76605207</v>
       </c>
       <c r="M97" t="n">
-        <v>30376190.31891748</v>
+        <v>37753723.22652672</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>3057265852.00</t>
+          <t>158016279.00</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>4600000000</t>
+          <t>270000000</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>4600000000</t>
+          <t>270000000</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>33536</t>
+          <t>141207</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>MATIC</t>
+          <t>GRASS</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Matic Network</t>
+          <t>Grass</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>matic-network</t>
+          <t>grass</t>
         </is>
       </c>
       <c r="E98" t="n">
@@ -7701,48 +7697,48 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>0.275507</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>9.44</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>-11.64</t>
+          <t>10.73</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>0.000003</t>
+          <t>0.000028</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>599280344.05</t>
+          <t>582926302.73</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>4166760.2947368</v>
+        <v>33211949.73112251</v>
       </c>
       <c r="M98" t="n">
-        <v>3997391.353471207</v>
+        <v>40253995.86600018</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>2175190262.00</t>
+          <t>243905091.00</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>10000000000</t>
+          <t>1000000000</t>
         </is>
       </c>
       <c r="P98" t="inlineStr"/>
@@ -7750,22 +7746,22 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>42227</t>
+          <t>111369</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>PAXG</t>
+          <t>ULTIMA</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>PAX Gold</t>
+          <t>Ultima</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>pax-gold</t>
+          <t>ultima</t>
         </is>
       </c>
       <c r="E99" t="n">
@@ -7773,51 +7769,55 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2943.52</t>
+          <t>18143.23</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>-1.46</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>-9.52</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>0.033190</t>
+          <t>0.210750</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>587397397.40</t>
+          <t>581127763.67</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>46705194.16217846</v>
+        <v>7159102.974830873</v>
       </c>
       <c r="M99" t="n">
-        <v>31029378.68744587</v>
+        <v>7730526.750164644</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>199556.00</t>
+          <t>32030.00</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>203182</t>
-        </is>
-      </c>
-      <c r="P99" t="inlineStr"/>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -7845,39 +7845,39 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>-1.30</t>
+          <t>-1.23</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>-1.01</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>-6.25</t>
+          <t>-9.41</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>0.000037</t>
+          <t>0.000038</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>587343287.21</t>
+          <t>573871204.79</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>5933376.450168482</v>
+        <v>2502890.072561303</v>
       </c>
       <c r="M100" t="n">
-        <v>4314933.609558588</v>
+        <v>3612519.161470649</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7898,22 +7898,22 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>136127</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>SPX</t>
+          <t>MANA</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>SPX6900</t>
+          <t>Decentraland</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>spx6900</t>
+          <t>decentraland</t>
         </is>
       </c>
       <c r="E101" t="n">
@@ -7921,55 +7921,51 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>0.629697</t>
+          <t>0.293704</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>5.62</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>-3.78</t>
+          <t>-7.31</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>0.000007</t>
+          <t>0.000003</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>586243193.96</t>
+          <t>570447837.63</t>
         </is>
       </c>
       <c r="L101" t="n">
-        <v>30121714.09828155</v>
+        <v>28141096.9182194</v>
       </c>
       <c r="M101" t="n">
-        <v>23598361.38294729</v>
+        <v>54514217.91564909</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>930993090.00</t>
+          <t>1942255184.00</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>930993090.07</t>
-        </is>
-      </c>
-      <c r="P101" t="inlineStr">
-        <is>
-          <t>1000000000</t>
-        </is>
-      </c>
+          <t>2193179327</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/static/xlsx/request_api_xlsx.xlsx
+++ b/src/static/xlsx/request_api_xlsx.xlsx
@@ -541,22 +541,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>86088.26</t>
+          <t>86052.54</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-10.92</t>
+          <t>-11.04</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -566,14 +566,14 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1706478340092.30</t>
+          <t>1705770144354.50</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>28159809802.12032</v>
+        <v>28220973549.26455</v>
       </c>
       <c r="M2" t="n">
-        <v>64699111624.634</v>
+        <v>64487833843.2691</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -617,39 +617,39 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2217.77</t>
+          <t>2214.56</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-1.13</t>
+          <t>-0.86</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-18.80</t>
+          <t>-19.10</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.025761</t>
+          <t>0.025741</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>267182175211.36</t>
+          <t>266795810672.21</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>12609476660.83847</v>
+        <v>12583489767.11881</v>
       </c>
       <c r="M3" t="n">
-        <v>25851470999.43269</v>
+        <v>25878446136.14837</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -694,17 +694,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -714,14 +714,14 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>139628790780.13</t>
+          <t>139605597215.72</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>48343756455.16911</v>
+        <v>48379562717.9998</v>
       </c>
       <c r="M4" t="n">
-        <v>108084632161.3491</v>
+        <v>107567432565.6785</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -766,17 +766,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-15.37</t>
+          <t>-15.47</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -786,14 +786,14 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>126312211601.17</t>
+          <t>126099790736.64</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2376676905.650386</v>
+        <v>2374022790.312863</v>
       </c>
       <c r="M5" t="n">
-        <v>6323852416.539459</v>
+        <v>6286491556.802217</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -837,39 +837,39 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>607.56</t>
+          <t>609.21</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-7.48</t>
+          <t>-7.17</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.007057</t>
+          <t>0.007081</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>101341933565.80</t>
+          <t>101616769501.08</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>836980912.9430822</v>
+        <v>838781482.5086567</v>
       </c>
       <c r="M6" t="n">
-        <v>1163750270.76043</v>
+        <v>1165793374.951855</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -913,39 +913,39 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>144.35</t>
+          <t>143.46</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-2.03</t>
+          <t>-2.59</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>-16.81</t>
+          <t>-17.44</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0.001677</t>
+          <t>0.001667</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>70243792043.36</t>
+          <t>69807395699.05</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2693189934.61445</v>
+        <v>2673697025.459573</v>
       </c>
       <c r="M7" t="n">
-        <v>6681501841.427094</v>
+        <v>6713687953.812807</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1010,14 +1010,14 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>52205698039.77</t>
+          <t>52204150225.37</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3973074246.993354</v>
+        <v>3967131577.716518</v>
       </c>
       <c r="M8" t="n">
-        <v>10137374891.40893</v>
+        <v>10103133710.68004</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -1057,22 +1057,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.206669</t>
+          <t>0.206042</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-15.23</t>
+          <t>-15.60</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1082,14 +1082,14 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>30584760498.03</t>
+          <t>30492005837.23</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1041614699.434581</v>
+        <v>1035004874.431867</v>
       </c>
       <c r="M9" t="n">
-        <v>2287511789.483696</v>
+        <v>2277407300.546075</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1129,22 +1129,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.659645</t>
+          <t>0.657007</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>-0.54</t>
+          <t>-0.56</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>-14.12</t>
+          <t>-14.59</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1154,14 +1154,14 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>23206447074.92</t>
+          <t>23113655571.60</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>432996397.5163512</v>
+        <v>433560367.0974387</v>
       </c>
       <c r="M10" t="n">
-        <v>853913302.1428521</v>
+        <v>846674853.3897492</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1205,39 +1205,39 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2211.95</t>
+          <t>2210.45</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-1.06</t>
+          <t>-0.95</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>-18.72</t>
+          <t>-18.92</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0.025694</t>
+          <t>0.025693</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>20394582639.86</t>
+          <t>20380783559.08</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>80808633.66380316</v>
+        <v>80241993.79355104</v>
       </c>
       <c r="M11" t="n">
-        <v>236978249.8353245</v>
+        <v>237052934.4953251</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1281,22 +1281,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.233347</t>
+          <t>0.233402</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>-1.39</t>
+          <t>-1.47</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1306,14 +1306,14 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>20099329952.94</t>
+          <t>20104044621.82</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>705810854.0785588</v>
+        <v>708244248.4134229</v>
       </c>
       <c r="M12" t="n">
-        <v>1227934420.52748</v>
+        <v>1224665798.076325</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1353,39 +1353,39 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>85905.96</t>
+          <t>85874.87</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>-11.03</t>
+          <t>-11.10</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0.997874</t>
+          <t>0.998148</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>11383742297.48</t>
+          <t>11379622762.75</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>104170901.674234</v>
+        <v>66844595.74595122</v>
       </c>
       <c r="M13" t="n">
-        <v>285510618.637274</v>
+        <v>425646454.4778578</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1402,22 +1402,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>48555</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>XLM</t>
+          <t>HBAR</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Stellar</t>
+          <t>Hedera Hashgraph</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>stellar</t>
+          <t>hedera-hashgraph</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -1425,75 +1425,75 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.314876</t>
+          <t>0.253570</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>9.52</t>
+          <t>18.92</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>-4.55</t>
+          <t>17.68</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0.000004</t>
+          <t>0.000003</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>9632582594.48</t>
+          <t>9703510964.70</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>228152634.865246</v>
+        <v>909765391.0571486</v>
       </c>
       <c r="M14" t="n">
-        <v>226274255.96625</v>
+        <v>469098133.8611663</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>30591655494.00</t>
+          <t>38267523240.00</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>104303927518</t>
+          <t>50000000000</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>104303927518</t>
+          <t>50000000000</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>48555</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HBAR</t>
+          <t>XLM</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Hedera Hashgraph</t>
+          <t>Stellar</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>hedera-hashgraph</t>
+          <t>stellar</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -1501,53 +1501,53 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.250277</t>
+          <t>0.313497</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>16.01</t>
+          <t>9.54</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>-2.23</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>16.24</t>
+          <t>-5.36</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>0.000003</t>
+          <t>0.000004</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>9577473195.19</t>
+          <t>9590394107.45</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>892338687.4965506</v>
+        <v>229534696.0189187</v>
       </c>
       <c r="M15" t="n">
-        <v>471170921.7671959</v>
+        <v>225728581.8125642</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>38267523240.00</t>
+          <t>30591655494.00</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>50000000000</t>
+          <t>104303927518</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>50000000000</t>
+          <t>104303927518</t>
         </is>
       </c>
     </row>
@@ -1577,22 +1577,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>14.75</t>
+          <t>14.74</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>-0.54</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>-0.75</t>
+          <t>-0.69</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>-16.32</t>
+          <t>-16.43</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1602,14 +1602,14 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>9408952098.52</t>
+          <t>9405494678.74</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>257010764.6126331</v>
+        <v>245104513.2671475</v>
       </c>
       <c r="M16" t="n">
-        <v>497503900.4501958</v>
+        <v>500795636.4918364</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1653,39 +1653,39 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>124.24</t>
+          <t>124.09</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>-2.39</t>
+          <t>-2.35</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>-2.87</t>
+          <t>-3.05</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0.001443</t>
+          <t>0.001442</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>9375212604.33</t>
+          <t>9364103129.66</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>960178405.3863466</v>
+        <v>949459753.3807036</v>
       </c>
       <c r="M17" t="n">
-        <v>2011925889.210726</v>
+        <v>2015910230.995553</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1706,22 +1706,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>33833</t>
+          <t>44883</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>AVAX</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>UNUS SED LEO</t>
+          <t>Avalanche</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>unus-sed-leo</t>
+          <t>avalanche</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1729,71 +1729,75 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>9.71</t>
+          <t>21.82</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>-1.46</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-14.60</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0.000113</t>
+          <t>0.000254</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>8976579941.00</t>
+          <t>8982572381.11</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>5109927.510414234</v>
+        <v>194515465.4350904</v>
       </c>
       <c r="M18" t="n">
-        <v>9500516.707927285</v>
+        <v>607128855.5692693</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>924240811.00</t>
+          <t>411588573.00</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>985239504</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr"/>
+          <t>449924873.17709</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>715748719</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>44883</t>
+          <t>33833</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AVAX</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Avalanche</t>
+          <t>UNUS SED LEO</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>avalanche</t>
+          <t>unus-sed-leo</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1801,55 +1805,51 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>21.79</t>
+          <t>9.71</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>-2.44</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>-14.35</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0.000253</t>
+          <t>0.000113</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>8969133986.21</t>
+          <t>8973601735.21</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>194936668.1147092</v>
+        <v>5106037.405121266</v>
       </c>
       <c r="M19" t="n">
-        <v>612126200.2605352</v>
+        <v>9483361.862328516</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>411588573.00</t>
+          <t>924240811.00</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>449924873.17709</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>715748719</t>
-        </is>
-      </c>
+          <t>985239504</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1877,22 +1877,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>-15.77</t>
+          <t>-16.44</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1902,14 +1902,14 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>8493233559.74</t>
+          <t>8450822140.74</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>489994288.1164039</v>
+        <v>487451766.4992124</v>
       </c>
       <c r="M20" t="n">
-        <v>1052399205.657681</v>
+        <v>1041837996.884854</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1958,17 +1958,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>-9.22</t>
+          <t>-9.35</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1978,14 +1978,14 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>8420859106.15</t>
+          <t>8423792563.13</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>61751995.50100564</v>
+        <v>61799204.20553293</v>
       </c>
       <c r="M21" t="n">
-        <v>167471109.1867238</v>
+        <v>166191770.5357941</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -2029,39 +2029,39 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>43.90</t>
+          <t>43.96</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>-10.88</t>
+          <t>-10.84</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0.000510</t>
+          <t>0.000511</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>8296062864.40</t>
+          <t>8307402738.46</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>6679976.216</v>
+        <v>6809280.033999999</v>
       </c>
       <c r="M22" t="n">
-        <v>21329765.761</v>
+        <v>21380348.418</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -2110,17 +2110,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>-2.54</t>
+          <t>-2.22</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>-11.68</t>
+          <t>-11.84</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2130,14 +2130,14 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>8023987169.96</t>
+          <t>8019989656.84</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>35958774.71457723</v>
+        <v>33727217.5484923</v>
       </c>
       <c r="M23" t="n">
-        <v>26759753.83787145</v>
+        <v>26681206.01686551</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2177,39 +2177,39 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2209.68</t>
+          <t>2204.02</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>-1.80</t>
+          <t>-2.15</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>-0.56</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>-19.15</t>
+          <t>-19.58</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>0.025667</t>
+          <t>0.025618</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>7458379577.31</t>
+          <t>7439264127.73</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>37097910.13012112</v>
+        <v>36780790.90416277</v>
       </c>
       <c r="M24" t="n">
-        <v>79121934.38772047</v>
+        <v>78904249.35366793</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2249,22 +2249,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>-1.71</t>
+          <t>-1.03</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>-8.68</t>
+          <t>-8.57</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2274,14 +2274,14 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>6480965975.73</t>
+          <t>6500371007.32</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>144490567.9308006</v>
+        <v>142535373.3902377</v>
       </c>
       <c r="M25" t="n">
-        <v>348203474.6786463</v>
+        <v>346664049.166109</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2325,22 +2325,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>7.60</t>
+          <t>7.59</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>-0.49</t>
+          <t>-0.30</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>-0.44</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2350,14 +2350,14 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>6364879923.62</t>
+          <t>6357804179.59</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>63222972.67357698</v>
+        <v>61990965.75685041</v>
       </c>
       <c r="M26" t="n">
-        <v>156497767.6330754</v>
+        <v>156502026.0595848</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2401,39 +2401,39 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>311.19</t>
+          <t>311.55</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>-1.65</t>
+          <t>-1.56</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>-2.55</t>
+          <t>-2.62</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>0.003615</t>
+          <t>0.003621</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>6170027850.23</t>
+          <t>6177242165.76</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>226979968.9480859</v>
+        <v>227734287.7888822</v>
       </c>
       <c r="M27" t="n">
-        <v>481237559.0596728</v>
+        <v>479508806.2298979</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2482,17 +2482,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>-18.85</t>
+          <t>-18.65</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2502,14 +2502,14 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>5699437626.58</t>
+          <t>5696480513.36</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>284238366.7955062</v>
+        <v>283349617.8449324</v>
       </c>
       <c r="M28" t="n">
-        <v>391305138.4457467</v>
+        <v>389308927.5216402</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2558,14 +2558,14 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
       <c r="I29" t="inlineStr">
         <is>
           <t>0.01</t>
@@ -2578,14 +2578,14 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>5366643029.90</t>
+          <t>5366765488.94</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>17947434.8378693</v>
+        <v>21404819.21976729</v>
       </c>
       <c r="M29" t="n">
-        <v>158014466.9923522</v>
+        <v>68773023.6037792</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2625,22 +2625,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>7.48</t>
+          <t>7.46</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>-15.80</t>
+          <t>-16.30</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2650,14 +2650,14 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>4493502598.17</t>
+          <t>4480545534.87</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>92084687.02067743</v>
+        <v>89932227.16322893</v>
       </c>
       <c r="M30" t="n">
-        <v>240421353.9978057</v>
+        <v>238399252.9469764</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2701,39 +2701,39 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2354.00</t>
+          <t>2351.76</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>-1.12</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>-18.83</t>
+          <t>-19.09</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>0.027344</t>
+          <t>0.027335</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>4401090145.37</t>
+          <t>4396904299.69</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>10480240.79721375</v>
+        <v>10011502.63180432</v>
       </c>
       <c r="M31" t="n">
-        <v>26893725.22728808</v>
+        <v>27912285.02384314</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2792,7 +2792,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2806,10 +2806,10 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2299257.303872966</v>
+        <v>2299056.549874515</v>
       </c>
       <c r="M32" t="n">
-        <v>3095067.708294098</v>
+        <v>3037890.209822889</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2849,39 +2849,39 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>223.21</t>
+          <t>223.50</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>-4.32</t>
+          <t>-4.74</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>0.002593</t>
+          <t>0.002598</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>4117471805.99</t>
+          <t>4122813893.55</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>59583136.76797803</v>
+        <v>59779118.19311564</v>
       </c>
       <c r="M33" t="n">
-        <v>85927113.59345905</v>
+        <v>87079855.3951792</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2921,22 +2921,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>5.62</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>-0.52</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>-9.59</t>
+          <t>-9.00</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2946,14 +2946,14 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>3834896247.48</t>
+          <t>3821791516.03</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>158606292.856294</v>
+        <v>160047617.9537657</v>
       </c>
       <c r="M34" t="n">
-        <v>241481427.4218713</v>
+        <v>237206051.7644387</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2997,22 +2997,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>6.28</t>
+          <t>6.29</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>-3.15</t>
+          <t>-2.53</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>-0.37</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -3022,14 +3022,14 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>3597573468.29</t>
+          <t>3601803536.11</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>149729635.2004203</v>
+        <v>148817726.3237078</v>
       </c>
       <c r="M35" t="n">
-        <v>288725257.5788797</v>
+        <v>288013754.3549801</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -3078,17 +3078,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>-0.68</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>-13.62</t>
+          <t>-13.85</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -3098,14 +3098,14 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>3214320235.73</t>
+          <t>3207548102.14</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>129349101.4552709</v>
+        <v>129654875.099599</v>
       </c>
       <c r="M36" t="n">
-        <v>214228744.687687</v>
+        <v>213404252.9977174</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -3150,34 +3150,34 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>-4.04</t>
+          <t>-3.58</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>-19.73</t>
+          <t>-19.71</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>8.83E-11</t>
+          <t>8.86E-11</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>3199302258.41</t>
+          <t>3205146560.64</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>9522211.029824261</v>
+        <v>9590215.056791134</v>
       </c>
       <c r="M37" t="n">
-        <v>9909360.334274277</v>
+        <v>9879816.00487907</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3221,39 +3221,39 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>194.00</t>
+          <t>193.64</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>-20.74</t>
+          <t>-21.07</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>0.002254</t>
+          <t>0.002251</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>2917903405.75</t>
+          <t>2912470820.58</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>149212141.3786229</v>
+        <v>148805142.0404182</v>
       </c>
       <c r="M38" t="n">
-        <v>292635866.1478145</v>
+        <v>283434080.7860923</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3297,39 +3297,39 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>19.08</t>
+          <t>19.01</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>-2.44</t>
+          <t>-2.54</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>-6.58</t>
+          <t>-7.10</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>0.000222</t>
+          <t>0.000221</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>2866296858.05</t>
+          <t>2855608512.44</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>312210433.9259414</v>
+        <v>311380849.4512531</v>
       </c>
       <c r="M39" t="n">
-        <v>420809757.9456008</v>
+        <v>420685111.244143</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3373,39 +3373,39 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>335.66</t>
+          <t>335.53</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>-23.14</t>
+          <t>-22.65</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>0.003899</t>
+          <t>0.003900</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>2757493667.00</t>
+          <t>2756494596.99</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>87655281.2295</v>
+        <v>86174750.13548459</v>
       </c>
       <c r="M40" t="n">
-        <v>208048507.7943209</v>
+        <v>208436951.6997062</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3449,39 +3449,39 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>45.45</t>
+          <t>45.35</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>-7.67</t>
+          <t>-7.94</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>0.000528</t>
+          <t>0.000527</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>2727121471.77</t>
+          <t>2721151626.28</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>5239621.493463419</v>
+        <v>5186627.151296561</v>
       </c>
       <c r="M41" t="n">
-        <v>13864932.43473926</v>
+        <v>13791623.25872329</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3521,22 +3521,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0.744175</t>
+          <t>0.741456</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>-0.30</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>-19.80</t>
+          <t>-20.21</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3546,14 +3546,14 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>2503919760.96</t>
+          <t>2494774326.62</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>55021461.19070532</v>
+        <v>54802485.64075459</v>
       </c>
       <c r="M42" t="n">
-        <v>84889708.62853038</v>
+        <v>84872514.31171839</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3597,39 +3597,39 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0.028376</t>
+          <t>0.028338</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.60</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>-11.52</t>
+          <t>-11.42</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>3.30E-7</t>
+          <t>3.29E-7</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>2298026707.55</t>
+          <t>2294934251.20</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>32170232.40352285</v>
+        <v>33183253.59243181</v>
       </c>
       <c r="M43" t="n">
-        <v>59129332.97284835</v>
+        <v>60536783.73858421</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3673,22 +3673,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0.252220</t>
+          <t>0.251273</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>5.97</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>-1.04</t>
+          <t>-0.98</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>-5.56</t>
+          <t>-5.98</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3698,14 +3698,14 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>2106713099.06</t>
+          <t>2098804674.68</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>96389414.18790355</v>
+        <v>96908013.51625927</v>
       </c>
       <c r="M44" t="n">
-        <v>122466812.7687857</v>
+        <v>121845454.2725041</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3749,22 +3749,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>-0.52</t>
+          <t>-1.27</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>8.58</t>
+          <t>6.39</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3774,14 +3774,14 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>2089022767.93</t>
+          <t>2093627312.03</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>119397594.9744963</v>
+        <v>115583786.1559698</v>
       </c>
       <c r="M45" t="n">
-        <v>173593658.3277695</v>
+        <v>179222770.0788161</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3821,39 +3821,39 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0.079417</t>
+          <t>0.079170</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>-0.40</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>-20.69</t>
+          <t>-20.83</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>9.23E-7</t>
+          <t>9.20E-7</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>2033384335.15</t>
+          <t>2027053072.78</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>56077654.15992295</v>
+        <v>55884377.30182337</v>
       </c>
       <c r="M46" t="n">
-        <v>112696924.6277395</v>
+        <v>112170529.6271294</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3874,22 +3874,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>32607</t>
+          <t>33644</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>FIL</t>
+          <t>FTM</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Filecoin</t>
+          <t>Fantom</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>filecoin</t>
+          <t>fantom</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -3897,71 +3897,75 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>0.713305</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>-0.48</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>-0.30</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>-4.02</t>
+          <t>-18.10</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>0.000038</t>
+          <t>0.000008</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>2003117279.33</t>
+          <t>1999846796.32</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>91317937.70206037</v>
+        <v>3048399.098328468</v>
       </c>
       <c r="M47" t="n">
-        <v>211892663.4580522</v>
+        <v>3324733.790744734</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>619372473.00</t>
+          <t>2803634835.00</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>1959703254</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr"/>
+          <t>3175000000</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>3175000000</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>33644</t>
+          <t>32607</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>FTM</t>
+          <t>FIL</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Fantom</t>
+          <t>Filecoin</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>fantom</t>
+          <t>filecoin</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -3969,55 +3973,51 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0.712336</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>-0.30</t>
+          <t>-0.60</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>-18.73</t>
+          <t>-4.32</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>0.000008</t>
+          <t>0.000037</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>1997129852.88</t>
+          <t>1998046932.92</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2951061.17342726</v>
+        <v>91116565.43311465</v>
       </c>
       <c r="M48" t="n">
-        <v>3334661.052022161</v>
+        <v>217814368.3751967</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2803634835.00</t>
+          <t>619372473.00</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>3175000000</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>3175000000</t>
-        </is>
-      </c>
+          <t>1959703254</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4050,17 +4050,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>-0.58</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>-11.24</t>
+          <t>-11.56</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -4070,14 +4070,14 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>1964596203.83</t>
+          <t>1963691669.78</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>47135840.84999552</v>
+        <v>47800629.0535191</v>
       </c>
       <c r="M49" t="n">
-        <v>100584830.2477937</v>
+        <v>100850283.6455491</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -4121,22 +4121,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0.998648</t>
+          <t>0.998748</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -4146,14 +4146,14 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>1954620389.55</t>
+          <t>1954816116.24</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>5432011174.486232</v>
+        <v>5436324481.534718</v>
       </c>
       <c r="M50" t="n">
-        <v>11106726688.86718</v>
+        <v>11045908391.47792</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -4170,22 +4170,22 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>33830</t>
+          <t>93847</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ATOM</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>Arbitrum</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>cosmos</t>
+          <t>arbitrum</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -4193,48 +4193,48 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>0.417038</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>-3.48</t>
+          <t>-0.97</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>-7.20</t>
+          <t>-13.55</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>0.000052</t>
+          <t>0.000005</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>1756201449.10</t>
+          <t>1755774569.85</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>62003664.47561895</v>
+        <v>90463383.28248435</v>
       </c>
       <c r="M51" t="n">
-        <v>145927623.2023301</v>
+        <v>217481954.9322416</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>390934204.00</t>
+          <t>4210111968.00</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>390934204</t>
+          <t>10000000000</t>
         </is>
       </c>
       <c r="P51" t="inlineStr"/>
@@ -4242,22 +4242,22 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>93847</t>
+          <t>33830</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ARB</t>
+          <t>ATOM</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Arbitrum</t>
+          <t>Cosmos</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>arbitrum</t>
+          <t>cosmos</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -4265,48 +4265,48 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0.417077</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>-1.44</t>
+          <t>-3.09</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>-13.43</t>
+          <t>-7.49</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>0.000005</t>
+          <t>0.000052</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>1755940245.08</t>
+          <t>1753522992.46</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>90387222.50280456</v>
+        <v>69007782.94905494</v>
       </c>
       <c r="M52" t="n">
-        <v>218316627.5429642</v>
+        <v>145324750.1577637</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>4210111968.00</t>
+          <t>390934204.00</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>10000000000</t>
+          <t>390934204</t>
         </is>
       </c>
       <c r="P52" t="inlineStr"/>
@@ -4337,22 +4337,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0.639907</t>
+          <t>0.641565</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>-2.19</t>
+          <t>-1.46</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>-18.70</t>
+          <t>-19.01</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -4362,14 +4362,14 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>1557610996.96</t>
+          <t>1561647995.90</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>68293275.87270245</v>
+        <v>68446210.92216763</v>
       </c>
       <c r="M53" t="n">
-        <v>126734759.3921492</v>
+        <v>125955793.4739857</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4413,39 +4413,39 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1646.82</t>
+          <t>1641.53</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>-0.30</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>9.78</t>
+          <t>8.83</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>0.019129</t>
+          <t>0.019080</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>1469350959.77</t>
+          <t>1464626343.68</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>336167366.4714825</v>
+        <v>341613108.1732892</v>
       </c>
       <c r="M54" t="n">
-        <v>789433272.8306295</v>
+        <v>781105947.1914917</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4489,22 +4489,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>12.97</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>-2.20</t>
+          <t>-1.53</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>-14.68</t>
+          <t>-14.86</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -4514,14 +4514,14 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>1262977266.80</t>
+          <t>1260500208.98</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>64125234.79634497</v>
+        <v>63930916.96247137</v>
       </c>
       <c r="M55" t="n">
-        <v>117193997.5224545</v>
+        <v>116321739.275459</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4570,17 +4570,17 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>-3.30</t>
+          <t>-2.61</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>-6.89</t>
+          <t>-6.91</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -4590,14 +4590,14 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>1236432307.83</t>
+          <t>1237752169.93</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>113676601.2182404</v>
+        <v>113466133.1586047</v>
       </c>
       <c r="M56" t="n">
-        <v>212274583.2431045</v>
+        <v>214718994.9276322</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4618,22 +4618,22 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>48569</t>
+          <t>126763</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>STX</t>
+          <t>ENA</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Stacks</t>
+          <t>Ethena</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>stacks</t>
+          <t>ethena</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -4641,75 +4641,75 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0.808415</t>
+          <t>0.400390</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>-2.28</t>
+          <t>-2.02</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>-11.74</t>
+          <t>-10.90</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>0.000009</t>
+          <t>0.000005</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>1218940371.79</t>
+          <t>1214307886.78</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>31374628.87981597</v>
+        <v>118413339.5408711</v>
       </c>
       <c r="M57" t="n">
-        <v>57059215.56191859</v>
+        <v>245227862.6795113</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>1507814826.00</t>
+          <t>3032812500.00</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>1507814826.8363</t>
+          <t>15000000000</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>1818000000</t>
+          <t>15000000000</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>126763</t>
+          <t>48569</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ENA</t>
+          <t>STX</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Ethena</t>
+          <t>Stacks</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>ethena</t>
+          <t>stacks</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -4717,53 +4717,53 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0.399808</t>
+          <t>0.803797</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>-2.70</t>
+          <t>-2.65</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>-10.53</t>
+          <t>-12.34</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>0.000005</t>
+          <t>0.000009</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>1212543537.43</t>
+          <t>1211977051.31</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>119097949.766732</v>
+        <v>31161717.49052317</v>
       </c>
       <c r="M58" t="n">
-        <v>246950496.0704569</v>
+        <v>56313833.55258419</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>3032812500.00</t>
+          <t>1507814826.00</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>15000000000</t>
+          <t>1507814826.8363</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>15000000000</t>
+          <t>1818000000</t>
         </is>
       </c>
     </row>
@@ -4793,22 +4793,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0.691379</t>
+          <t>0.689437</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>-3.72</t>
+          <t>-3.44</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>-0.65</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>-4.06</t>
+          <t>-4.25</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -4818,14 +4818,14 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>1205626618.83</t>
+          <t>1202240642.88</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>20454858.54782896</v>
+        <v>20407231.37363391</v>
       </c>
       <c r="M59" t="n">
-        <v>45849275.96976542</v>
+        <v>44728474.33585636</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4874,17 +4874,17 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>-0.63</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>-13.44</t>
+          <t>-13.54</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -4894,14 +4894,14 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>1164378081.70</t>
+          <t>1162228137.15</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>13199887.61227017</v>
+        <v>13116585.51392465</v>
       </c>
       <c r="M60" t="n">
-        <v>27595307.49215449</v>
+        <v>27476282.79891844</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4941,22 +4941,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0.118693</t>
+          <t>0.118701</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>-1.50</t>
+          <t>-1.08</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>-14.65</t>
+          <t>-14.36</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4966,14 +4966,14 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>1133343608.57</t>
+          <t>1133417813.15</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>30017717.94146723</v>
+        <v>30180487.77878247</v>
       </c>
       <c r="M61" t="n">
-        <v>69416732.14884615</v>
+        <v>68812465.15689868</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -5013,22 +5013,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>149.30</t>
+          <t>149.20</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>-2.23</t>
+          <t>-2.29</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>-16.82</t>
+          <t>-16.97</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -5038,14 +5038,14 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>1129518400.40</t>
+          <t>1128761857.60</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>5758904.259300001</v>
+        <v>5665597.560799999</v>
       </c>
       <c r="M62" t="n">
-        <v>10424223.3918</v>
+        <v>10537905.9459</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -5085,22 +5085,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>-1.74</t>
+          <t>-1.52</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-1.06</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>-26.01</t>
+          <t>-26.62</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -5110,14 +5110,14 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>1116348960.10</t>
+          <t>1110388110.96</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>70355113.42449029</v>
+        <v>68956355.9381872</v>
       </c>
       <c r="M63" t="n">
-        <v>147103538.0363961</v>
+        <v>150129974.3544005</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -5161,39 +5161,39 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>91.57</t>
+          <t>91.84</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>-4.51</t>
+          <t>-3.98</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>-0.30</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>-4.47</t>
+          <t>-4.25</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>0.001064</t>
+          <t>0.001067</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>1105495825.72</t>
+          <t>1108777767.31</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>37688354.89587101</v>
+        <v>39486162.55775876</v>
       </c>
       <c r="M64" t="n">
-        <v>76262533.92866211</v>
+        <v>82367740.37610576</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -5237,22 +5237,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0.248600</t>
+          <t>0.248575</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>-0.48</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>-11.06</t>
+          <t>-10.68</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -5262,14 +5262,14 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>1046055139.42</t>
+          <t>1045950279.72</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>79062734.72373296</v>
+        <v>78911165.9846431</v>
       </c>
       <c r="M65" t="n">
-        <v>147695518.5222281</v>
+        <v>145344662.3912789</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5313,39 +5313,39 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>18.14</t>
+          <t>18.05</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>-1.99</t>
+          <t>-3.51</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>-3.19</t>
+          <t>-3.93</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>0.000211</t>
+          <t>0.000210</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>1036098545.84</t>
+          <t>1030485366.50</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>5354715.51411526</v>
+        <v>5216197.264343255</v>
       </c>
       <c r="M66" t="n">
-        <v>9548525.347201508</v>
+        <v>9738593.048154771</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5389,39 +5389,39 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0.080409</t>
+          <t>0.080182</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>-7.43</t>
+          <t>-7.72</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>9.34E-7</t>
+          <t>9.32E-7</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>985309514.48</t>
+          <t>982527241.35</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>23767919.89351515</v>
+        <v>23746630.4842995</v>
       </c>
       <c r="M67" t="n">
-        <v>29314994.90640373</v>
+        <v>29197045.41897742</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5442,22 +5442,22 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>84965</t>
+          <t>82537</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>FLR</t>
+          <t>BONK</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Flare</t>
+          <t>Bonk</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>flare</t>
+          <t>bonk</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -5465,71 +5465,75 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0.017096</t>
+          <t>0.000014</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>-0.30</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>-14.12</t>
+          <t>-14.84</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>1.99E-7</t>
+          <t>1.57E-10</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>948325791.28</t>
+          <t>940223446.06</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>8755376.230282994</v>
+        <v>21358222.99288203</v>
       </c>
       <c r="M68" t="n">
-        <v>11305324.93133894</v>
+        <v>18748497.06379269</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>55469579762.00</t>
+          <t>69474461693558.00</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>102867561202.53</t>
-        </is>
-      </c>
-      <c r="P68" t="inlineStr"/>
+          <t>93526183276778</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>93863283342446</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>82537</t>
+          <t>84965</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BONK</t>
+          <t>FLR</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Bonk</t>
+          <t>Flare</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>bonk</t>
+          <t>flare</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -5537,55 +5541,51 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0.000014</t>
+          <t>0.016740</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>-0.97</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>-2.08</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>-14.61</t>
+          <t>-15.96</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>1.57E-10</t>
+          <t>1.95E-7</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>940957760.13</t>
+          <t>928554513.88</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>21371251.56247853</v>
+        <v>8980140.906218546</v>
       </c>
       <c r="M69" t="n">
-        <v>18982433.54956298</v>
+        <v>11236961.80180944</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>69474461693558.00</t>
+          <t>55469579762.00</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>93526183276778</t>
-        </is>
-      </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>93863283342446</t>
-        </is>
-      </c>
+          <t>102867561202.53</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5613,22 +5613,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0.561394</t>
+          <t>0.560539</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>-10.89</t>
+          <t>-11.11</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -5638,14 +5638,14 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>863605989.20</t>
+          <t>862289868.27</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>55771343.06698791</v>
+        <v>55568115.2318306</v>
       </c>
       <c r="M70" t="n">
-        <v>121767330.0267657</v>
+        <v>121277307.1947153</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5685,22 +5685,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0.017834</t>
+          <t>0.017772</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>-2.78</t>
+          <t>-2.81</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.49</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>-16.23</t>
+          <t>-16.50</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -5710,14 +5710,14 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>863539468.23</t>
+          <t>860512988.83</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>13101321.32966259</v>
+        <v>13550451.81092515</v>
       </c>
       <c r="M71" t="n">
-        <v>30499750.03554424</v>
+        <v>30393689.17631443</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5761,22 +5761,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0.008803</t>
+          <t>0.008744</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>-15.81</t>
+          <t>-16.57</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -5786,14 +5786,14 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>808649772.13</t>
+          <t>803188068.29</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2246728.582604348</v>
+        <v>2205004.870952433</v>
       </c>
       <c r="M72" t="n">
-        <v>4836264.500856693</v>
+        <v>4847064.260044354</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5837,22 +5837,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0.761116</t>
+          <t>0.757810</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>-1.07</t>
+          <t>-1.17</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.69</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>-14.29</t>
+          <t>-14.76</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -5862,14 +5862,14 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>778441264.20</t>
+          <t>775060571.67</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>16819880.4491889</v>
+        <v>17778501.18257778</v>
       </c>
       <c r="M73" t="n">
-        <v>32367901.51993453</v>
+        <v>37152924.05322151</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0.317166</t>
+          <t>0.316794</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>-0.38</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>-11.26</t>
+          <t>-11.41</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -5934,14 +5934,14 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>770985941.14</t>
+          <t>770079813.29</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>46041029.35255188</v>
+        <v>45681461.6767806</v>
       </c>
       <c r="M74" t="n">
-        <v>107991471.4985367</v>
+        <v>107584280.1820222</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5990,34 +5990,34 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>-2.35</t>
+          <t>-1.95</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>-14.84</t>
+          <t>-15.31</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>9.32E-10</t>
+          <t>9.31E-10</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>770303653.41</t>
+          <t>769082771.57</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>64462011.82013498</v>
+        <v>64179761.78333585</v>
       </c>
       <c r="M75" t="n">
-        <v>57493297.29653516</v>
+        <v>57324149.81151197</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -6062,17 +6062,17 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -6082,14 +6082,14 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>751111568.09</t>
+          <t>750772927.83</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>19846959.47936498</v>
+        <v>19464731.38622184</v>
       </c>
       <c r="M76" t="n">
-        <v>22740598.10284214</v>
+        <v>22800587.63012316</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -6129,39 +6129,39 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>21.26</t>
+          <t>21.18</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>-1.91</t>
+          <t>-2.00</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.78</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>-21.59</t>
+          <t>-22.09</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>0.000247</t>
+          <t>0.000246</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>748732252.45</t>
+          <t>745799764.59</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>44145574.73799839</v>
+        <v>44372498.26923881</v>
       </c>
       <c r="M77" t="n">
-        <v>100356062.0713879</v>
+        <v>99183926.2043194</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -6205,22 +6205,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0.203281</t>
+          <t>0.202712</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>-2.99</t>
+          <t>-2.92</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>-14.94</t>
+          <t>-15.44</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -6230,14 +6230,14 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>736890756.38</t>
+          <t>734830193.48</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>18932395.48458813</v>
+        <v>18957700.54263817</v>
       </c>
       <c r="M78" t="n">
-        <v>47246333.91215177</v>
+        <v>46459046.46238413</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -6281,22 +6281,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>0.472362</t>
+          <t>0.471735</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>-2.30</t>
+          <t>-1.72</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>-10.09</t>
+          <t>-10.60</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -6306,14 +6306,14 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>734493029.75</t>
+          <t>733517145.03</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>17851781.86272672</v>
+        <v>17956638.74251375</v>
       </c>
       <c r="M79" t="n">
-        <v>33516318.0124649</v>
+        <v>32867394.5285898</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6358,17 +6358,17 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>-0.65</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>-15.60</t>
+          <t>-15.70</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -6378,14 +6378,14 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>732250800.47</t>
+          <t>731971224.43</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>6936250.572300397</v>
+        <v>7176478.150704776</v>
       </c>
       <c r="M80" t="n">
-        <v>21712356.34957428</v>
+        <v>27041409.26457239</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6429,22 +6429,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0.019637</t>
+          <t>0.019654</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>-2.02</t>
+          <t>-1.22</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>-15.05</t>
+          <t>-14.81</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -6454,14 +6454,14 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>723316509.73</t>
+          <t>723912631.74</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>56403191.92505123</v>
+        <v>56562269.7859312</v>
       </c>
       <c r="M81" t="n">
-        <v>113475473.9772369</v>
+        <v>112368484.9035392</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6505,22 +6505,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0.119788</t>
+          <t>0.120227</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>-2.74</t>
+          <t>-2.37</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>-7.67</t>
+          <t>-7.75</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -6530,14 +6530,14 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>710197964.27</t>
+          <t>712804974.34</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>11680479.19306941</v>
+        <v>11610523.86865707</v>
       </c>
       <c r="M82" t="n">
-        <v>23545360.74776836</v>
+        <v>23913659.80849329</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6577,39 +6577,39 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2857.28</t>
+          <t>2857.52</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>-2.77</t>
+          <t>-2.69</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>0.033190</t>
+          <t>0.033214</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>704388362.81</t>
+          <t>704448183.99</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>3190309.127808685</v>
+        <v>3295547.126984578</v>
       </c>
       <c r="M83" t="n">
-        <v>7158754.573393862</v>
+        <v>7178701.844088541</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6649,39 +6649,39 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>0.074607</t>
+          <t>0.073927</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>-12.99</t>
+          <t>-14.66</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>8.67E-7</t>
+          <t>8.59E-7</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>692411701.93</t>
+          <t>686103926.35</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>14608137.27734008</v>
+        <v>14543522.76733425</v>
       </c>
       <c r="M84" t="n">
-        <v>22789056.00997215</v>
+        <v>22678452.48919809</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6721,22 +6721,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>-5.45</t>
+          <t>-4.05</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>-14.74</t>
+          <t>-15.95</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -6746,14 +6746,14 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>681672951.81</t>
+          <t>678477204.34</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>64751668.22274572</v>
+        <v>63602243.86602481</v>
       </c>
       <c r="M85" t="n">
-        <v>115051692.8770561</v>
+        <v>113362075.0672895</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6797,22 +6797,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>-7.22</t>
+          <t>-6.53</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -6822,14 +6822,14 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>676920330.59</t>
+          <t>677428704.09</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>3021447.868264426</v>
+        <v>3029054.18213634</v>
       </c>
       <c r="M86" t="n">
-        <v>1620769.851946768</v>
+        <v>1623765.558063006</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6873,22 +6873,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>9.58</t>
+          <t>9.54</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.76</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>-10.15</t>
+          <t>-10.44</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -6898,14 +6898,14 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>675688812.99</t>
+          <t>672904200.87</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>18815984.31189719</v>
+        <v>21746158.00593297</v>
       </c>
       <c r="M87" t="n">
-        <v>36900495.24721167</v>
+        <v>36926521.39215241</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6949,22 +6949,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>-3.23</t>
+          <t>-3.60</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>-16.69</t>
+          <t>-17.56</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -6974,14 +6974,14 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>675351999.06</t>
+          <t>671369056.44</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>23478052.47488432</v>
+        <v>23397252.49522945</v>
       </c>
       <c r="M88" t="n">
-        <v>50924559.25074922</v>
+        <v>50727402.84832103</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -7025,22 +7025,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>-3.26</t>
+          <t>-3.78</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>-47.89</t>
+          <t>-48.59</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -7050,14 +7050,14 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>674819225.66</t>
+          <t>668705836.64</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>66425485.25280941</v>
+        <v>64459388.1276693</v>
       </c>
       <c r="M89" t="n">
-        <v>182963651.1992916</v>
+        <v>183946980.4985797</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -7101,39 +7101,39 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>34.95</t>
+          <t>34.63</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>-3.15</t>
+          <t>-3.09</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>-6.19</t>
+          <t>-7.13</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>0.000406</t>
+          <t>0.000403</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>673278374.45</t>
+          <t>667251421.86</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>111716284.4021945</v>
+        <v>111756635.4761262</v>
       </c>
       <c r="M90" t="n">
-        <v>118073139.0966188</v>
+        <v>117472429.5318403</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -7177,22 +7177,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>0.995765</t>
+          <t>0.996192</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -7202,14 +7202,14 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>646683165.90</t>
+          <t>646960229.59</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1243501.369759098</v>
+        <v>1187602.25644082</v>
       </c>
       <c r="M91" t="n">
-        <v>3695182.67482346</v>
+        <v>3652832.355697912</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -7249,22 +7249,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>0.206867</t>
+          <t>0.207278</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>-0.52</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>-7.21</t>
+          <t>-6.95</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -7274,14 +7274,14 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>632446864.90</t>
+          <t>633704135.48</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>22287401.75955546</v>
+        <v>22414466.00771805</v>
       </c>
       <c r="M92" t="n">
-        <v>38119082.68860745</v>
+        <v>38215945.65473499</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7325,22 +7325,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>0.614800</t>
+          <t>0.614833</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>-2.32</t>
+          <t>-1.97</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>-8.65</t>
+          <t>-9.28</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -7350,14 +7350,14 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>614087857.07</t>
+          <t>614121148.38</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>269044300.5681045</v>
+        <v>268479913.2924857</v>
       </c>
       <c r="M93" t="n">
-        <v>456646184.6935875</v>
+        <v>455468911.026182</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7397,39 +7397,39 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>37.60</t>
+          <t>37.51</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-0.83</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-1.16</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>0.000437</t>
+          <t>0.000436</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>613974286.56</t>
+          <t>612413482.77</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>66616765.93245043</v>
+        <v>65588498.94563297</v>
       </c>
       <c r="M94" t="n">
-        <v>82947358.86899355</v>
+        <v>83348984.14073895</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>0.282177</t>
+          <t>0.281440</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>-0.44</t>
+          <t>-1.37</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>-6.28</t>
+          <t>-6.71</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -7498,14 +7498,14 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>613788640.22</t>
+          <t>612185435.39</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>3589114.909452898</v>
+        <v>3612600.30231553</v>
       </c>
       <c r="M95" t="n">
-        <v>3939690.155274613</v>
+        <v>3905341.391017077</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7545,22 +7545,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>-0.55</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>-17.84</t>
+          <t>-18.30</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -7570,14 +7570,14 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>590534429.04</t>
+          <t>588282549.00</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>41603999.13538766</v>
+        <v>41771267.53741571</v>
       </c>
       <c r="M96" t="n">
-        <v>77828875.30672155</v>
+        <v>77759553.9104749</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7598,22 +7598,22 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>46575</t>
+          <t>141207</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>AXS</t>
+          <t>GRASS</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Axie Infinity</t>
+          <t>Grass</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>axie-infinity</t>
+          <t>grass</t>
         </is>
       </c>
       <c r="E97" t="n">
@@ -7621,75 +7621,71 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>-1.55</t>
+          <t>10.49</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>-12.58</t>
+          <t>11.73</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>0.000043</t>
+          <t>0.000028</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>585529720.55</t>
+          <t>586694418.01</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>15688386.76605207</v>
+        <v>33637126.38628205</v>
       </c>
       <c r="M97" t="n">
-        <v>37753723.22652672</v>
+        <v>40028983.68510234</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>158016279.00</t>
+          <t>243905091.00</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>270000000</t>
-        </is>
-      </c>
-      <c r="P97" t="inlineStr">
-        <is>
-          <t>270000000</t>
-        </is>
-      </c>
+          <t>1000000000</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>141207</t>
+          <t>46575</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>GRASS</t>
+          <t>AXS</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Grass</t>
+          <t>Axie Infinity</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>grass</t>
+          <t>axie-infinity</t>
         </is>
       </c>
       <c r="E98" t="n">
@@ -7697,51 +7693,55 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>9.44</t>
+          <t>-0.99</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>10.73</t>
+          <t>-12.72</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>0.000028</t>
+          <t>0.000043</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>582926302.73</t>
+          <t>584623487.76</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>33211949.73112251</v>
+        <v>15584248.03335189</v>
       </c>
       <c r="M98" t="n">
-        <v>40253995.86600018</v>
+        <v>38285666.7768575</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>243905091.00</t>
+          <t>158016279.00</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>1000000000</t>
-        </is>
-      </c>
-      <c r="P98" t="inlineStr"/>
+          <t>270000000</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>270000000</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -7769,39 +7769,39 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>18143.23</t>
+          <t>18079.52</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>-9.52</t>
+          <t>-9.63</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>0.210750</t>
+          <t>0.210143</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>581127763.67</t>
+          <t>579087006.76</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>7159102.974830873</v>
+        <v>7123136.360934885</v>
       </c>
       <c r="M99" t="n">
-        <v>7730526.750164644</v>
+        <v>7726258.004158426</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7850,17 +7850,17 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>-1.23</t>
+          <t>-1.09</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>-9.41</t>
+          <t>-9.45</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -7870,14 +7870,14 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>573871204.79</t>
+          <t>573600911.73</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2502890.072561303</v>
+        <v>2498336.979220522</v>
       </c>
       <c r="M100" t="n">
-        <v>3612519.161470649</v>
+        <v>3525567.506049148</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7921,22 +7921,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>0.293704</t>
+          <t>0.293729</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>-0.74</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>-7.31</t>
+          <t>-7.68</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -7946,14 +7946,14 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>570447837.63</t>
+          <t>570497506.70</t>
         </is>
       </c>
       <c r="L101" t="n">
-        <v>28141096.9182194</v>
+        <v>25449247.40740781</v>
       </c>
       <c r="M101" t="n">
-        <v>54514217.91564909</v>
+        <v>54302936.79979254</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>

--- a/src/static/xlsx/request_api_xlsx.xlsx
+++ b/src/static/xlsx/request_api_xlsx.xlsx
@@ -541,22 +541,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>86052.54</t>
+          <t>78892.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>-3.52</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-11.04</t>
+          <t>-15.49</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -566,23 +566,23 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1705770144354.50</t>
+          <t>1564533605624.80</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>28220973549.26455</v>
+        <v>43711913679.82839</v>
       </c>
       <c r="M2" t="n">
-        <v>64487833843.2691</v>
+        <v>29985530779.25356</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>19822427.00</t>
+          <t>19831334.00</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>19822427</t>
+          <t>19831334</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -617,39 +617,39 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2214.56</t>
+          <t>1845.10</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-0.86</t>
+          <t>-9.84</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-19.10</t>
+          <t>-22.28</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.025741</t>
+          <t>0.023386</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>266795810672.21</t>
+          <t>222285570592.21</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>12583489767.11881</v>
+        <v>26924550769.82831</v>
       </c>
       <c r="M3" t="n">
-        <v>25878446136.14837</v>
+        <v>14477449739.47688</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -694,34 +694,34 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>-0.64</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.000012</t>
+          <t>0.000013</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>139605597215.72</t>
+          <t>139721743371.72</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>48379562717.9998</v>
+        <v>83213128847.02159</v>
       </c>
       <c r="M4" t="n">
-        <v>107567432565.6785</v>
+        <v>80849274580.13078</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -761,39 +761,39 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>-7.20</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-15.47</t>
+          <t>-24.93</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.000025</t>
+          <t>0.000026</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>126099790736.64</t>
+          <t>116203799766.51</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2374022790.312863</v>
+        <v>6250840369.546107</v>
       </c>
       <c r="M5" t="n">
-        <v>6286491556.802217</v>
+        <v>4854837545.54586</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -837,39 +837,39 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>609.21</t>
+          <t>528.71</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>-5.67</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-7.17</t>
+          <t>-12.86</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.007081</t>
+          <t>0.006701</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>101616769501.08</t>
+          <t>88189543157.88</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>838781482.5086567</v>
+        <v>1177208095.987811</v>
       </c>
       <c r="M6" t="n">
-        <v>1165793374.951855</v>
+        <v>840027359.241914</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -913,39 +913,39 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>143.46</t>
+          <t>119.03</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-2.59</t>
+          <t>-6.66</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>-17.44</t>
+          <t>-27.90</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0.001667</t>
+          <t>0.001509</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>69807395699.05</t>
+          <t>57921345710.66</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2673697025.459573</v>
+        <v>4923439102.576324</v>
       </c>
       <c r="M7" t="n">
-        <v>6713687953.812807</v>
+        <v>3045971501.185696</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -990,34 +990,34 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0.000012</t>
+          <t>0.000013</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>52204150225.37</t>
+          <t>52199495352.46</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3967131577.716518</v>
+        <v>13300877879.29916</v>
       </c>
       <c r="M8" t="n">
-        <v>10103133710.68004</v>
+        <v>5123804764.567542</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -1034,22 +1034,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DOGE</t>
+          <t>ADA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Dogecoin</t>
+          <t>Cardano</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>dogecoin</t>
+          <t>cardano</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -1057,71 +1057,75 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.206042</t>
+          <t>0.687767</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>-6.77</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-15.60</t>
+          <t>-31.21</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0.000002</t>
+          <t>0.000009</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>30492005837.23</t>
+          <t>24195815742.03</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1035004874.431867</v>
+        <v>1465132569.009225</v>
       </c>
       <c r="M9" t="n">
-        <v>2277407300.546075</v>
+        <v>1341875237.389862</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>147989176384.00</t>
+          <t>35180226133.00</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>147989176384</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr"/>
+          <t>35983607755.528</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>45000000000</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ADA</t>
+          <t>DOGE</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Cardano</t>
+          <t>Dogecoin</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>cardano</t>
+          <t>dogecoin</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -1129,75 +1133,71 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.657007</t>
+          <t>0.152231</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>-11.36</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>-0.56</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>-14.59</t>
+          <t>-31.65</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.000008</t>
+          <t>0.000002</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>23113655571.60</t>
+          <t>22570434880.57</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>433560367.0974387</v>
+        <v>2053811790.39895</v>
       </c>
       <c r="M10" t="n">
-        <v>846674853.3897492</v>
+        <v>1644614010.051337</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>35180226133.00</t>
+          <t>148264776384.00</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>35983607755.528</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>45000000000</t>
-        </is>
-      </c>
+          <t>148264776384</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>46971</t>
+          <t>2713</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>STETH</t>
+          <t>TRX</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Staked Ether</t>
+          <t>TRON</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>staked-ether</t>
+          <t>tron</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -1205,75 +1205,71 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2210.45</t>
+          <t>0.228744</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-0.95</t>
+          <t>-1.80</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>-18.92</t>
+          <t>-5.88</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0.025693</t>
+          <t>0.000003</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>20380783559.08</t>
+          <t>19702884284.83</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>80241993.79355104</v>
+        <v>1097534914.325054</v>
       </c>
       <c r="M11" t="n">
-        <v>237052934.4953251</v>
+        <v>832872844.9024621</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>9220200.00</t>
+          <t>86134911300.00</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>9561243</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>9901295</t>
-        </is>
-      </c>
+          <t>100000000000</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2713</t>
+          <t>46971</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TRX</t>
+          <t>STETH</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>TRON</t>
+          <t>Staked Ether</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>tron</t>
+          <t>staked-ether</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -1281,51 +1277,55 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.233402</t>
+          <t>1839.24</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-10.08</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>-1.47</t>
+          <t>-22.32</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0.000003</t>
+          <t>0.023311</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>20104044621.82</t>
+          <t>16958134524.79</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>708244248.4134229</v>
+        <v>130566607.973279</v>
       </c>
       <c r="M12" t="n">
-        <v>1224665798.076325</v>
+        <v>51337489.80589291</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>86134911300.00</t>
+          <t>9220200.00</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>100000000000</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr"/>
+          <t>9561243</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>9901295</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1353,39 +1353,39 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>85874.87</t>
+          <t>78737.97</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>-3.50</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>-11.10</t>
+          <t>-15.42</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0.998148</t>
+          <t>0.997962</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>11379622762.75</t>
+          <t>10433883567.40</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>66844595.74595122</v>
+        <v>224071308.6403649</v>
       </c>
       <c r="M13" t="n">
-        <v>425646454.4778578</v>
+        <v>122525704.9863188</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1402,22 +1402,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>48555</t>
+          <t>33833</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HBAR</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Hedera Hashgraph</t>
+          <t>UNUS SED LEO</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>hedera-hashgraph</t>
+          <t>unus-sed-leo</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -1425,75 +1425,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.253570</t>
+          <t>9.71</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>18.92</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>17.68</t>
+          <t>-0.99</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0.000003</t>
+          <t>0.000123</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>9703510964.70</t>
+          <t>8976861690.22</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>909765391.0571486</v>
+        <v>9753024.71287604</v>
       </c>
       <c r="M14" t="n">
-        <v>469098133.8611663</v>
+        <v>9266329.696348423</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>38267523240.00</t>
+          <t>924240811.00</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>50000000000</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>50000000000</t>
-        </is>
-      </c>
+          <t>985239504</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>2751</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>XLM</t>
+          <t>LINK</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Stellar</t>
+          <t>ChainLink</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>stellar</t>
+          <t>chainlink</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -1501,75 +1497,75 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.313497</t>
+          <t>12.41</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>9.54</t>
+          <t>-11.28</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>-5.36</t>
+          <t>-25.55</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>0.000004</t>
+          <t>0.000157</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>9590394107.45</t>
+          <t>7917145691.33</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>229534696.0189187</v>
+        <v>605682929.2796373</v>
       </c>
       <c r="M15" t="n">
-        <v>225728581.8125642</v>
+        <v>399266730.6983331</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>30591655494.00</t>
+          <t>638099970.00</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>104303927518</t>
+          <t>1000000000</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>104303927518</t>
+          <t>1000000000</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2751</t>
+          <t>2753</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LINK</t>
+          <t>CNX</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ChainLink</t>
+          <t>Cryptonex</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>cryptonex</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1577,75 +1573,75 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>14.74</t>
+          <t>40.24</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>-3.46</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>-16.43</t>
+          <t>-15.40</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0.000171</t>
+          <t>0.000510</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>9405494678.74</t>
+          <t>7606055862.98</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>245104513.2671475</v>
+        <v>17255074.21901966</v>
       </c>
       <c r="M16" t="n">
-        <v>500795636.4918364</v>
+        <v>10591605.61996289</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>638099970.00</t>
+          <t>188997901.00</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>1000000000</t>
+          <t>188997901</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>1000000000</t>
+          <t>210000000</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LTC</t>
+          <t>XLM</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Litecoin</t>
+          <t>Stellar</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>litecoin</t>
+          <t>stellar</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1653,75 +1649,75 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>124.09</t>
+          <t>0.241021</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>-2.35</t>
+          <t>-9.31</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>-3.05</t>
+          <t>-27.02</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0.001442</t>
+          <t>0.000003</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>9364103129.66</t>
+          <t>7395571717.09</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>949459753.3807036</v>
+        <v>292937630.1053528</v>
       </c>
       <c r="M17" t="n">
-        <v>2015910230.995553</v>
+        <v>218115941.9368504</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>75462162.00</t>
+          <t>30684382415.00</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>84000000</t>
+          <t>104303927518</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>84000000</t>
+          <t>104303927518</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>44883</t>
+          <t>48555</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>AVAX</t>
+          <t>HBAR</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Avalanche</t>
+          <t>Hedera Hashgraph</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>avalanche</t>
+          <t>hedera-hashgraph</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1729,75 +1725,75 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>21.82</t>
+          <t>0.187342</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>-1.46</t>
+          <t>-8.69</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>-14.60</t>
+          <t>-25.17</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0.000254</t>
+          <t>0.000002</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>8982572381.11</t>
+          <t>7169096094.89</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>194515465.4350904</v>
+        <v>387844083.4814139</v>
       </c>
       <c r="M18" t="n">
-        <v>607128855.5692693</v>
+        <v>290544382.22223</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>411588573.00</t>
+          <t>38267523240.00</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>449924873.17709</t>
+          <t>50000000000</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>715748719</t>
+          <t>50000000000</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>33833</t>
+          <t>45088</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>SHIB</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>UNUS SED LEO</t>
+          <t>Shiba Inu</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>unus-sed-leo</t>
+          <t>shiba-inu</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1805,48 +1801,48 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>9.71</t>
+          <t>0.000011</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>-6.10</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-20.29</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0.000113</t>
+          <t>1.43E-10</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>8973601735.21</t>
+          <t>6662597084.15</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>5106037.405121266</v>
+        <v>21877426.21672269</v>
       </c>
       <c r="M19" t="n">
-        <v>9483361.862328516</v>
+        <v>26791490.80490866</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>924240811.00</t>
+          <t>589255151920720.00</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>985239504</t>
+          <t>5.8950837397825E+14</t>
         </is>
       </c>
       <c r="P19" t="inlineStr"/>
@@ -1854,22 +1850,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>93845</t>
+          <t>44883</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SUI</t>
+          <t>AVAX</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Sui</t>
+          <t>Avalanche</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>sui</t>
+          <t>avalanche</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1877,75 +1873,75 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>15.97</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-12.64</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>-16.44</t>
+          <t>-32.94</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0.000033</t>
+          <t>0.000202</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>8450822140.74</t>
+          <t>6572091036.93</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>487451766.4992124</v>
+        <v>441939622.1302197</v>
       </c>
       <c r="M20" t="n">
-        <v>1041837996.884854</v>
+        <v>247532240.2262744</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>3009569341.00</t>
+          <t>411588573.00</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>10000000000</t>
+          <t>449924873.17709</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>10000000000</t>
+          <t>715748719</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>54683</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TON</t>
+          <t>LTC</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>TON Coin</t>
+          <t>Litecoin</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>toncoin</t>
+          <t>litecoin</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1953,75 +1949,75 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>86.74</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>-8.75</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>-9.35</t>
+          <t>-26.42</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>0.000039</t>
+          <t>0.001099</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>8423792563.13</t>
+          <t>6545808330.05</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>61799204.20553293</v>
+        <v>1129117280.493382</v>
       </c>
       <c r="M21" t="n">
-        <v>166191770.5357941</v>
+        <v>953660783.44144</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2539507711.00</t>
+          <t>75462162.00</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>5047558528</t>
+          <t>84000000</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>5047558528</t>
+          <t>84000000</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2753</t>
+          <t>2321</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CNX</t>
+          <t>BCH</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Cryptonex</t>
+          <t>Bitcoin Cash</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>cryptonex</t>
+          <t>bitcoin-cash</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -2029,75 +2025,75 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>43.96</t>
+          <t>328.90</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>-10.09</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>-10.84</t>
+          <t>-2.80</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0.000511</t>
+          <t>0.004169</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>8307402738.46</t>
+          <t>6524202487.23</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>6809280.033999999</v>
+        <v>329860443.9775755</v>
       </c>
       <c r="M22" t="n">
-        <v>21380348.418</v>
+        <v>292998098.6864508</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>188997901.00</t>
+          <t>19836619.00</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>188997901</t>
+          <t>19836619</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>210000000</t>
+          <t>21000000</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>45088</t>
+          <t>54683</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SHIB</t>
+          <t>TON</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Shiba Inu</t>
+          <t>TON Coin</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>shiba-inu</t>
+          <t>toncoin</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -2105,51 +2101,55 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.000014</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>-2.22</t>
+          <t>-7.00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>-11.84</t>
+          <t>-26.18</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>1.58E-10</t>
+          <t>0.000031</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>8019989656.84</t>
+          <t>6306399679.56</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>33727217.5484923</v>
+        <v>139024726.5413885</v>
       </c>
       <c r="M23" t="n">
-        <v>26681206.01686551</v>
+        <v>82963389.78458157</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>589255151920720.00</t>
+          <t>2539507711.00</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>5.8950837397825E+14</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr"/>
+          <t>5047558528</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>5047558528</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2177,39 +2177,39 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2204.02</t>
+          <t>1856.00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>-2.15</t>
+          <t>-9.40</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>-19.58</t>
+          <t>-22.09</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>0.025618</t>
+          <t>0.023524</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>7439264127.73</t>
+          <t>6264582636.76</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>36780790.90416277</v>
+        <v>64206250.37286823</v>
       </c>
       <c r="M24" t="n">
-        <v>78904249.35366793</v>
+        <v>46942136.73687809</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2226,22 +2226,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>45219</t>
+          <t>93845</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DOT</t>
+          <t>SUI</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Polkadot</t>
+          <t>Sui</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>polkadot</t>
+          <t>sui</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -2249,75 +2249,75 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>-1.03</t>
+          <t>-12.12</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>-8.57</t>
+          <t>-30.75</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>0.000054</t>
+          <t>0.000026</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>6500371007.32</t>
+          <t>6219629629.88</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>142535373.3902377</v>
+        <v>911421717.4689845</v>
       </c>
       <c r="M25" t="n">
-        <v>346664049.166109</v>
+        <v>578994679.4119514</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>1394562713.00</t>
+          <t>3009569341.00</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>1475513198.5764</t>
+          <t>10000000000</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>1475513198.5764</t>
+          <t>10000000000</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>45178</t>
+          <t>67117</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>OM</t>
+          <t>BGB</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MANTRA DAO</t>
+          <t>Bitget Token</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>mantra-dao</t>
+          <t>bitget-token</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -2325,75 +2325,75 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>7.59</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>-0.30</t>
+          <t>-8.64</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-14.00</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0.000088</t>
+          <t>0.000050</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>6357804179.59</t>
+          <t>5496262571.06</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>61990965.75685041</v>
+        <v>217245122.7009777</v>
       </c>
       <c r="M26" t="n">
-        <v>156502026.0595848</v>
+        <v>156587127.891071</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>837536163.00</t>
+          <t>1400001000.00</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>888888888</t>
+          <t>2000000000</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>888888888</t>
+          <t>2000000000</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2321</t>
+          <t>45219</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BCH</t>
+          <t>DOT</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Bitcoin Cash</t>
+          <t>Polkadot</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>bitcoin-cash</t>
+          <t>polkadot</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -2401,75 +2401,75 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>311.55</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>-1.56</t>
+          <t>-6.10</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>-2.62</t>
+          <t>-22.66</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>0.003621</t>
+          <t>0.000049</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>6177242165.76</t>
+          <t>5379469882.89</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>227734287.7888822</v>
+        <v>257196380.9015467</v>
       </c>
       <c r="M27" t="n">
-        <v>479508806.2298979</v>
+        <v>176765673.9916007</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>19827462.00</t>
+          <t>1394562713.00</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>19827462</t>
+          <t>1475513198.5764</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>21000000</t>
+          <t>1475513198.5764</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>67117</t>
+          <t>45178</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BGB</t>
+          <t>OM</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Bitget Token</t>
+          <t>MANTRA DAO</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>bitget-token</t>
+          <t>mantra-dao</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -2477,53 +2477,53 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>6.41</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>-18.65</t>
+          <t>-13.41</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0.000047</t>
+          <t>0.000081</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>5696480513.36</t>
+          <t>5368130787.86</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>283349617.8449324</v>
+        <v>143875172.4636973</v>
       </c>
       <c r="M28" t="n">
-        <v>389308927.5216402</v>
+        <v>140135337.9766442</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>1400001000.00</t>
+          <t>837536163.00</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2000000000</t>
+          <t>888888888</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>2000000000</t>
+          <t>888888888</t>
         </is>
       </c>
     </row>
@@ -2558,34 +2558,34 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>0.000012</t>
+          <t>0.000013</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>5366765488.94</t>
+          <t>5366393090.26</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>21404819.21976729</v>
+        <v>41721154.03709859</v>
       </c>
       <c r="M29" t="n">
-        <v>68773023.6037792</v>
+        <v>25392268.44814588</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2602,22 +2602,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>47305</t>
+          <t>127063</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>UNI</t>
+          <t>sUSDe</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Uniswap</t>
+          <t>Ethena Staked USDe</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>uniswap</t>
+          <t>ethena-staked-usde</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -2625,75 +2625,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>7.46</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>-16.30</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>0.000087</t>
+          <t>0.000015</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>4480545534.87</t>
+          <t>4246925615.18</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>89932227.16322893</v>
+        <v>2857266.241573415</v>
       </c>
       <c r="M30" t="n">
-        <v>238399252.9469764</v>
+        <v>1577746.731284088</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>600483073.00</t>
+          <t>3663008088.00</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>1000000000</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>1000000000</t>
-        </is>
-      </c>
+          <t>3663008088.3412</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>96901</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>WBETH</t>
+          <t>XMR</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Wrapped Beacon ETH</t>
+          <t>Monero</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>wrapped-beacon-eth</t>
+          <t>monero</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -2701,75 +2697,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2351.76</t>
+          <t>201.83</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>-0.91</t>
+          <t>-2.41</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>-19.09</t>
+          <t>-13.34</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>0.027335</t>
+          <t>0.002558</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>4396904299.69</t>
+          <t>3723173848.63</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>10011502.63180432</v>
+        <v>69329627.37284197</v>
       </c>
       <c r="M31" t="n">
-        <v>27912285.02384314</v>
+        <v>40982539.00515632</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>1869624.00</t>
+          <t>18446744.00</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>1869624.9598632</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>1869624.9598632</t>
-        </is>
-      </c>
+          <t>18446744.07371</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>127063</t>
+          <t>96901</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>sUSDe</t>
+          <t>WBETH</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Ethena Staked USDe</t>
+          <t>Wrapped Beacon ETH</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>ethena-staked-usde</t>
+          <t>wrapped-beacon-eth</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -2777,71 +2769,75 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1962.50</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-9.76</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-22.18</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>0.000013</t>
+          <t>0.024874</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>4219839846.01</t>
+          <t>3669141774.06</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2299056.549874515</v>
+        <v>18143889.823206</v>
       </c>
       <c r="M32" t="n">
-        <v>3037890.209822889</v>
+        <v>9116195.164945722</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>3663008088.00</t>
+          <t>1869624.00</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>3663008088.3412</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr"/>
+          <t>1869624.9598632</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>1869624.9598632</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>47305</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>XMR</t>
+          <t>UNI</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Monero</t>
+          <t>Uniswap</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>monero</t>
+          <t>uniswap</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -2849,71 +2845,75 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>223.50</t>
+          <t>5.78</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>-11.01</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>-4.74</t>
+          <t>-27.46</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>0.002598</t>
+          <t>0.000073</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>4122813893.55</t>
+          <t>3471559445.87</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>59779118.19311564</v>
+        <v>160546954.3985876</v>
       </c>
       <c r="M33" t="n">
-        <v>87079855.3951792</v>
+        <v>93781617.18647879</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>18446744.00</t>
+          <t>600483073.00</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>18446744.07371</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr"/>
+          <t>1000000000</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>1000000000</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>48563</t>
+          <t>111341</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NEAR</t>
+          <t>APT</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NEAR Protocol</t>
+          <t>Aptos</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>near-protocol</t>
+          <t>aptos</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -2921,75 +2921,75 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>5.36</t>
+          <t>-8.36</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>-9.00</t>
+          <t>-19.27</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>0.000038</t>
+          <t>0.000065</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>3821791516.03</t>
+          <t>2958265543.93</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>160047617.9537657</v>
+        <v>213457867.5678779</v>
       </c>
       <c r="M34" t="n">
-        <v>237206051.7644387</v>
+        <v>155439882.9287174</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>1176800850.00</t>
+          <t>572963346.00</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>1176800850</t>
+          <t>1137599205.7185</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>1176800850</t>
+          <t>1137599205.7185</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>111341</t>
+          <t>63373</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>APT</t>
+          <t>CULT</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Aptos</t>
+          <t>Cult DAO</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>aptos</t>
+          <t>cult-dao</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -2997,75 +2997,75 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>6.29</t>
+          <t>0.000672</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>-2.53</t>
+          <t>-17.45</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>-0.37</t>
+          <t>-1.00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>0.000073</t>
+          <t>8.71E-9</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>3601803536.11</t>
+          <t>2901461982.84</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>148817726.3237078</v>
+        <v>3266789.911382451</v>
       </c>
       <c r="M35" t="n">
-        <v>288013754.3549801</v>
+        <v>2269895.288905714</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>572963346.00</t>
+          <t>4318690730920.00</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>1137599205.7185</t>
+          <t>6666666666666</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>1137599205.7185</t>
+          <t>6666666666666</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>121611</t>
+          <t>78777</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ONDO</t>
+          <t>RED</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Ondo</t>
+          <t>RED TOKEN</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>ondo-finance</t>
+          <t>red-token</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -3073,48 +3073,48 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.436200</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>-11.00</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>-0.68</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>-13.85</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>0.000012</t>
+          <t>0.000006</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>3207548102.14</t>
+          <t>2835663837.04</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>129654875.099599</v>
+        <v>1693525.62783</v>
       </c>
       <c r="M36" t="n">
-        <v>213404252.9977174</v>
+        <v>3927049.642477</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>3159107529.00</t>
+          <t>6500834106.00</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>10000000000</t>
+          <t>100000000000</t>
         </is>
       </c>
       <c r="P36" t="inlineStr"/>
@@ -3122,22 +3122,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>93841</t>
+          <t>48563</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>NEAR</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Pepe</t>
+          <t>NEAR Protocol</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>pepe</t>
+          <t>near-protocol</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -3145,53 +3145,53 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.000008</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>-3.58</t>
+          <t>-11.75</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>-19.71</t>
+          <t>-31.28</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>8.86E-11</t>
+          <t>0.000029</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>3205146560.64</t>
+          <t>2680170828.17</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>9590215.056791134</v>
+        <v>234205195.2224741</v>
       </c>
       <c r="M37" t="n">
-        <v>9879816.00487907</v>
+        <v>149468930.7693295</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>420689899999990.00</t>
+          <t>1176800850.00</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>420689899999994</t>
+          <t>1176800850</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>420690000000000</t>
+          <t>1176800850</t>
         </is>
       </c>
     </row>
@@ -3221,39 +3221,39 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>193.64</t>
+          <t>174.11</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>-5.28</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>-21.07</t>
+          <t>-17.44</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>0.002251</t>
+          <t>0.002207</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>2912470820.58</t>
+          <t>2618657226.02</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>148805142.0404182</v>
+        <v>404845270.9550343</v>
       </c>
       <c r="M38" t="n">
-        <v>283434080.7860923</v>
+        <v>248863604.6024145</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3297,39 +3297,39 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>19.01</t>
+          <t>16.66</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>-2.54</t>
+          <t>-8.91</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>-7.10</t>
+          <t>-17.40</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>0.000221</t>
+          <t>0.000211</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>2855608512.44</t>
+          <t>2503456281.98</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>311380849.4512531</v>
+        <v>364245280.6154819</v>
       </c>
       <c r="M39" t="n">
-        <v>420685111.244143</v>
+        <v>328375622.9726536</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3350,22 +3350,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>121619</t>
+          <t>121611</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TAO</t>
+          <t>ONDO</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Bittensor</t>
+          <t>Ondo</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>bittensor</t>
+          <t>ondo-finance</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -3373,75 +3373,71 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>335.53</t>
+          <t>0.774121</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>-10.39</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>-22.65</t>
+          <t>-33.21</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>0.003900</t>
+          <t>0.000010</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>2756494596.99</t>
+          <t>2445530462.03</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>86174750.13548459</v>
+        <v>277637041.2639731</v>
       </c>
       <c r="M40" t="n">
-        <v>208436951.6997062</v>
+        <v>206683736.8422104</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>8215232.00</t>
+          <t>3159107529.00</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>8215232</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>21000000</t>
-        </is>
-      </c>
+          <t>10000000000</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>33531</t>
+          <t>70353</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>OKB</t>
+          <t>DHN</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>OKB</t>
+          <t>Dohrnii</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>okb</t>
+          <t>dohrnii</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -3449,71 +3445,75 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>45.35</t>
+          <t>45.07</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>15.87</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>-7.94</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>0.000527</t>
+          <t>0.000571</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>2721151626.28</t>
+          <t>2412834772.73</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>5186627.151296561</v>
+        <v>1192294.348654668</v>
       </c>
       <c r="M41" t="n">
-        <v>13791623.25872329</v>
+        <v>3623309.806793418</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>60000000.00</t>
+          <t>53532209.00</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>299999999</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr"/>
+          <t>332000000</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>372000000</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>121595</t>
+          <t>93841</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MNT</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Mantle</t>
+          <t>Pepe</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>mantle</t>
+          <t>pepe</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -3521,75 +3521,75 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0.741456</t>
+          <t>0.000006</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>-6.99</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>-0.30</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>-20.21</t>
+          <t>-33.63</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>0.000009</t>
+          <t>7.08E-11</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>2494774326.62</t>
+          <t>2350345232.81</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>54802485.64075459</v>
+        <v>7582727.778215559</v>
       </c>
       <c r="M42" t="n">
-        <v>84872514.31171839</v>
+        <v>6445750.573034792</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>3364694382.00</t>
+          <t>420689899999990.00</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>6219316794.99</t>
+          <t>420689899999994</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>6219316795</t>
+          <t>420690000000000</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2741</t>
+          <t>33531</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>VET</t>
+          <t>OKB</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>VeChain</t>
+          <t>OKB</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>vechain</t>
+          <t>okb</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -3597,75 +3597,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0.028338</t>
+          <t>38.68</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>-7.55</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>-0.60</t>
+          <t>-1.25</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>-11.42</t>
+          <t>-16.86</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>3.29E-7</t>
+          <t>0.000490</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>2294934251.20</t>
+          <t>2320736687.49</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>33183253.59243181</v>
+        <v>12579222.30812244</v>
       </c>
       <c r="M43" t="n">
-        <v>60536783.73858421</v>
+        <v>5890200.267334699</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>80985041177.00</t>
+          <t>60000000.00</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>85985041177</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>86712634466</t>
-        </is>
-      </c>
+          <t>299999999</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>34406</t>
+          <t>121595</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ALGO</t>
+          <t>MNT</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Algorand</t>
+          <t>Mantle</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>algorand</t>
+          <t>mantle</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -3673,75 +3669,75 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0.251273</t>
+          <t>0.681266</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>5.97</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>-0.98</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>-5.98</t>
+          <t>-11.24</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>0.000003</t>
+          <t>0.000009</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>2098804674.68</t>
+          <t>2292253211.81</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>96908013.51625927</v>
+        <v>77775258.79639268</v>
       </c>
       <c r="M44" t="n">
-        <v>121845454.2725041</v>
+        <v>26835962.75532215</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>8352675037.00</t>
+          <t>3364694382.00</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>10000000000</t>
+          <t>6219316794.99</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>10000000000</t>
+          <t>6219316795</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>136105</t>
+          <t>44035</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TIA</t>
+          <t>TKX</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Celestia</t>
+          <t>Tokenize Xchange</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>celestia</t>
+          <t>tokenize-xchange</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -3749,71 +3745,75 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>25.19</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>-1.27</t>
+          <t>-2.28</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>6.39</t>
+          <t>-10.72</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>0.000048</t>
+          <t>0.000319</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>2093627312.03</t>
+          <t>2014966430.71</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>115583786.1559698</v>
+        <v>1262414.241468946</v>
       </c>
       <c r="M45" t="n">
-        <v>179222770.0788161</v>
+        <v>1331594.484861766</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>503429575.00</t>
+          <t>79995999.00</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>1098534575.3421</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr"/>
+          <t>100000000</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>100000000</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>70485</t>
+          <t>100423</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>KAS</t>
+          <t>FDUSD</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Kaspa</t>
+          <t>First Digital USD</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>kaspa</t>
+          <t>first-digital-usd</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -3821,75 +3821,71 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0.079170</t>
+          <t>0.997674</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>-0.40</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>-20.83</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>9.20E-7</t>
+          <t>0.000013</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>2027053072.78</t>
+          <t>1952715077.69</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>55884377.30182337</v>
+        <v>8888270107.282164</v>
       </c>
       <c r="M46" t="n">
-        <v>112170529.6271294</v>
+        <v>5124290355.623705</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>25603737127.00</t>
+          <t>1957266894.00</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>25603737127.745</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>28704026601</t>
-        </is>
-      </c>
+          <t>1957266894.62</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>33644</t>
+          <t>121619</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>FTM</t>
+          <t>TAO</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Fantom</t>
+          <t>Bittensor</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>fantom</t>
+          <t>bittensor</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -3897,75 +3893,75 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0.713305</t>
+          <t>225.49</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>5.89</t>
+          <t>-11.14</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>-0.30</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>-18.10</t>
+          <t>-31.89</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>0.000008</t>
+          <t>0.002858</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>1999846796.32</t>
+          <t>1852429568.29</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>3048399.098328468</v>
+        <v>156087126.7840582</v>
       </c>
       <c r="M47" t="n">
-        <v>3324733.790744734</v>
+        <v>112265232.6354594</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2803634835.00</t>
+          <t>8215232.00</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>3175000000</t>
+          <t>8215232</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>3175000000</t>
+          <t>21000000</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>32607</t>
+          <t>2741</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>FIL</t>
+          <t>VET</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Filecoin</t>
+          <t>VeChain</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>filecoin</t>
+          <t>vechain</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -3973,71 +3969,75 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>0.022543</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>-10.38</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>-0.60</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>-4.32</t>
+          <t>-26.41</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>0.000037</t>
+          <t>2.86E-7</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>1998046932.92</t>
+          <t>1825661349.66</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>91116565.43311465</v>
+        <v>77580677.90783569</v>
       </c>
       <c r="M48" t="n">
-        <v>217814368.3751967</v>
+        <v>50564953.4899454</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>619372473.00</t>
+          <t>80985041177.00</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>1959703254</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr"/>
+          <t>85985041177</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>86712634466</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>135601</t>
+          <t>121623</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>RENDER</t>
+          <t>FTN</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Render</t>
+          <t>Fasttoken</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>render</t>
+          <t>fasttoken</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -4045,75 +4045,75 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>-11.56</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>0.000044</t>
+          <t>0.000051</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>1963691669.78</t>
+          <t>1741098924.03</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>47800629.0535191</v>
+        <v>974204.8103614808</v>
       </c>
       <c r="M49" t="n">
-        <v>100850283.6455491</v>
+        <v>750776.3595666756</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>517697726.00</t>
+          <t>436261513.00</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>532457899.96759</t>
+          <t>880000000</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>644168762</t>
+          <t>1000000000</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>100423</t>
+          <t>32607</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>FDUSD</t>
+          <t>FIL</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>First Digital USD</t>
+          <t>Filecoin</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>first-digital-usd</t>
+          <t>filecoin</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -4121,48 +4121,48 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0.998748</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>-8.93</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-23.01</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>0.000012</t>
+          <t>0.000033</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>1954816116.24</t>
+          <t>1604553210.47</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>5436324481.534718</v>
+        <v>191928653.5507507</v>
       </c>
       <c r="M50" t="n">
-        <v>11045908391.47792</v>
+        <v>133473795.4535302</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>1957266894.00</t>
+          <t>619372473.00</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>1957266894.62</t>
+          <t>1959703254</t>
         </is>
       </c>
       <c r="P50" t="inlineStr"/>
@@ -4170,22 +4170,22 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>93847</t>
+          <t>34406</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ARB</t>
+          <t>ALGO</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Arbitrum</t>
+          <t>Algorand</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>arbitrum</t>
+          <t>algorand</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -4193,43 +4193,43 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0.417038</t>
+          <t>0.184357</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>-0.97</t>
+          <t>-10.59</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>-13.55</t>
+          <t>-33.03</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>0.000005</t>
+          <t>0.000002</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>1755774569.85</t>
+          <t>1539877377.14</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>90463383.28248435</v>
+        <v>118600913.736819</v>
       </c>
       <c r="M51" t="n">
-        <v>217481954.9322416</v>
+        <v>88119049.55150436</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>4210111968.00</t>
+          <t>8352675037.00</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4237,27 +4237,31 @@
           <t>10000000000</t>
         </is>
       </c>
-      <c r="P51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>10000000000</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>33830</t>
+          <t>70485</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ATOM</t>
+          <t>KAS</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>Kaspa</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>cosmos</t>
+          <t>kaspa</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -4265,71 +4269,75 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>0.057586</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>-3.09</t>
+          <t>-8.28</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>-7.49</t>
+          <t>-32.82</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>0.000052</t>
+          <t>7.30E-7</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>1753522992.46</t>
+          <t>1474424703.68</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>69007782.94905494</v>
+        <v>86775007.2567157</v>
       </c>
       <c r="M52" t="n">
-        <v>145324750.1577637</v>
+        <v>86419951.89316377</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>390934204.00</t>
+          <t>25603737127.00</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>390934204</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr"/>
+          <t>25603737127.745</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>28704026601</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>33718</t>
+          <t>136105</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>FET</t>
+          <t>TIA</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Fetch.ai</t>
+          <t>Celestia</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>fetch</t>
+          <t>celestia</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -4337,75 +4345,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0.641565</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>-1.46</t>
+          <t>-9.93</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>-19.01</t>
+          <t>-27.71</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>0.000007</t>
+          <t>0.000035</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>1561647995.90</t>
+          <t>1403008810.02</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>68446210.92216763</v>
+        <v>114504891.1046711</v>
       </c>
       <c r="M53" t="n">
-        <v>125955793.4739857</v>
+        <v>93312907.32493357</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>2434122159.00</t>
+          <t>503429575.00</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2714493896.672</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>2719493897</t>
-        </is>
-      </c>
+          <t>1098534575.3421</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>12377</t>
+          <t>62747</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MKR</t>
+          <t>PI</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Maker</t>
+          <t>Plian</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>maker</t>
+          <t>plian</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -4413,75 +4417,75 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1641.53</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>-9.81</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>8.83</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>0.019080</t>
+          <t>0.000017</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>1464626343.68</t>
+          <t>1400593322.58</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>341613108.1732892</v>
+        <v>262834563.8179894</v>
       </c>
       <c r="M54" t="n">
-        <v>781105947.1914917</v>
+        <v>390621861.3660858</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>892234.00</t>
+          <t>1018398536.00</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>918875</t>
+          <t>1561500000</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>1005577</t>
+          <t>1561546868</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>46183</t>
+          <t>135601</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>INJ</t>
+          <t>RENDER</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Injective Protocol</t>
+          <t>Render</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>injective-protocol</t>
+          <t>render</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -4489,75 +4493,75 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>12.97</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>-1.53</t>
+          <t>-12.09</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>-14.86</t>
+          <t>-36.28</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>0.000151</t>
+          <t>0.000034</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>1260500208.98</t>
+          <t>1393486220.30</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>63930916.96247137</v>
+        <v>131265565.0187037</v>
       </c>
       <c r="M55" t="n">
-        <v>116321739.275459</v>
+        <v>97815533.12045915</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>97152222.00</t>
+          <t>517697726.00</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>100000000</t>
+          <t>532457899.96759</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>100000000</t>
+          <t>644168762</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>70497</t>
+          <t>33830</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>OP</t>
+          <t>ATOM</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Optimism</t>
+          <t>Cosmos</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>optimism</t>
+          <t>cosmos</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -4565,75 +4569,71 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>-2.61</t>
+          <t>-8.75</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>-6.91</t>
+          <t>-23.39</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>0.000012</t>
+          <t>0.000045</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>1237752169.93</t>
+          <t>1386108879.44</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>113466133.1586047</v>
+        <v>136867323.7841603</v>
       </c>
       <c r="M56" t="n">
-        <v>214718994.9276322</v>
+        <v>86779931.46548836</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>1187596466.00</t>
+          <t>390934204.00</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>4294967296</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>4294967296</t>
-        </is>
-      </c>
+          <t>390934204</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>126763</t>
+          <t>93847</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ENA</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Ethena</t>
+          <t>Arbitrum</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>ethena</t>
+          <t>arbitrum</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -4641,75 +4641,71 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0.400390</t>
+          <t>0.315978</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>-2.02</t>
+          <t>-10.62</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>-10.90</t>
+          <t>-27.36</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>0.000005</t>
+          <t>0.000004</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>1214307886.78</t>
+          <t>1330302909.37</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>118413339.5408711</v>
+        <v>170810204.8724317</v>
       </c>
       <c r="M57" t="n">
-        <v>245227862.6795113</v>
+        <v>101982621.552838</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>3032812500.00</t>
+          <t>4210111968.00</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>15000000000</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>15000000000</t>
-        </is>
-      </c>
+          <t>10000000000</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>48569</t>
+          <t>126763</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>STX</t>
+          <t>ENA</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Stacks</t>
+          <t>Ethena</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>stacks</t>
+          <t>ethena</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -4717,75 +4713,75 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0.803797</t>
+          <t>0.420196</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>-2.65</t>
+          <t>-4.46</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>-12.34</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>0.000009</t>
+          <t>0.000005</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>1211977051.31</t>
+          <t>1274376256.35</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>31161717.49052317</v>
+        <v>529087528.0027434</v>
       </c>
       <c r="M58" t="n">
-        <v>56313833.55258419</v>
+        <v>259220509.7654582</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>1507814826.00</t>
+          <t>3032812500.00</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>1507814826.8363</t>
+          <t>15000000000</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>1818000000</t>
+          <t>15000000000</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>121593</t>
+          <t>33644</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>IMX</t>
+          <t>FTM</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Immutable</t>
+          <t>Fantom</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>immutable-x</t>
+          <t>fantom</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -4793,75 +4789,75 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0.689437</t>
+          <t>0.419360</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>-3.44</t>
+          <t>-8.67</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>-0.65</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>-4.25</t>
+          <t>-39.53</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>0.000008</t>
+          <t>0.000005</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>1202240642.88</t>
+          <t>1175731142.07</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>20407231.37363391</v>
+        <v>2918293.819857</v>
       </c>
       <c r="M59" t="n">
-        <v>44728474.33585636</v>
+        <v>2132561.110514696</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>1743800322.00</t>
+          <t>2803634835.00</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2000000000</t>
+          <t>3175000000</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>2000000000</t>
+          <t>3175000000</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>32360</t>
+          <t>33718</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>THETA</t>
+          <t>FET</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Theta Token</t>
+          <t>Fetch.ai</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>theta-token</t>
+          <t>fetch</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -4869,71 +4865,75 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>0.445479</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>-17.16</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>-0.63</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>-13.54</t>
+          <t>-35.99</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>0.000014</t>
+          <t>0.000006</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>1162228137.15</t>
+          <t>1084351426.71</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>13116585.51392465</v>
+        <v>150049847.7505031</v>
       </c>
       <c r="M60" t="n">
-        <v>27476282.79891844</v>
+        <v>134653027.5600684</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>1000000000.00</t>
+          <t>2434122159.00</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>1000000000</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr"/>
+          <t>2714493896.672</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>2719493897</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>48561</t>
+          <t>46273</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>GRT</t>
+          <t>DEXE</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>The Graph</t>
+          <t>DeXe</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>the-graph</t>
+          <t>dexe</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -4941,71 +4941,75 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0.118701</t>
+          <t>17.61</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>-1.08</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>-14.36</t>
+          <t>-3.94</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>0.000001</t>
+          <t>0.000223</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>1133417813.15</t>
+          <t>1005705008.12</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>30180487.77878247</v>
+        <v>12795499.84677012</v>
       </c>
       <c r="M61" t="n">
-        <v>68812465.15689868</v>
+        <v>5091581.890213544</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>9548531509.00</t>
+          <t>57103760.00</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>10800262823</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr"/>
+          <t>96504599.336095</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>98942301</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>144321</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BNSOL</t>
+          <t>KCS</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Binance Staked SOL</t>
+          <t>KuCoin Shares</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>binance-staked-sol</t>
+          <t>kucoin-shares</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -5013,48 +5017,48 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>149.20</t>
+          <t>11.06</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>-2.29</t>
+          <t>-1.24</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>-16.97</t>
+          <t>-6.86</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>0.001734</t>
+          <t>0.000140</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>1128761857.60</t>
+          <t>981596146.97</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>5665597.560799999</v>
+        <v>2393692.738607761</v>
       </c>
       <c r="M62" t="n">
-        <v>10537905.9459</v>
+        <v>854430.6166882667</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>7565428.00</t>
+          <t>88745681.00</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>7565428.9394815</t>
+          <t>170118637</t>
         </is>
       </c>
       <c r="P62" t="inlineStr"/>
@@ -5062,22 +5066,22 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>46981</t>
+          <t>12377</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>LDO</t>
+          <t>MKR</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Lido DAO</t>
+          <t>Maker</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>lido-dao</t>
+          <t>maker</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -5085,75 +5089,75 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1093.49</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>-1.52</t>
+          <t>-7.93</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>-1.06</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>-26.62</t>
+          <t>-28.24</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>0.000014</t>
+          <t>0.013859</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>1110388110.96</t>
+          <t>975650567.19</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>68956355.9381872</v>
+        <v>153500790.2326146</v>
       </c>
       <c r="M63" t="n">
-        <v>150129974.3544005</v>
+        <v>182582029.5144055</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>896046961.00</t>
+          <t>892234.00</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>1000000000</t>
+          <t>918875</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>1000000000</t>
+          <t>1005577</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>33085</t>
+          <t>144321</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>QNT</t>
+          <t>BNSOL</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Quant</t>
+          <t>Binance Staked SOL</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>quant</t>
+          <t>binance-staked-sol</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -5161,75 +5165,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>91.84</t>
+          <t>123.60</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>-3.98</t>
+          <t>-6.58</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>-4.25</t>
+          <t>-27.80</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>0.001067</t>
+          <t>0.001567</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>1108777767.31</t>
+          <t>935086900.80</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>39486162.55775876</v>
+        <v>8262110.721599999</v>
       </c>
       <c r="M64" t="n">
-        <v>82367740.37610576</v>
+        <v>6021941.9652</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>12072738.00</t>
+          <t>7565428.00</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>45467000</t>
-        </is>
-      </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>45467000</t>
-        </is>
-      </c>
+          <t>7565428.9394815</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>100427</t>
+          <t>70497</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>SEI</t>
+          <t>OP</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Sei</t>
+          <t>Optimism</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>sei</t>
+          <t>optimism</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -5237,75 +5237,75 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0.248575</t>
+          <t>0.778099</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>-10.01</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>-10.68</t>
+          <t>-29.64</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>0.000003</t>
+          <t>0.000010</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>1045950279.72</t>
+          <t>924067560.09</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>78911165.9846431</v>
+        <v>175129672.9591536</v>
       </c>
       <c r="M65" t="n">
-        <v>145344662.3912789</v>
+        <v>96953150.55463214</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>4207777777.00</t>
+          <t>1187596466.00</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>10000000000</t>
+          <t>4294967296</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>10000000000</t>
+          <t>4294967296</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>46273</t>
+          <t>48569</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>DEXE</t>
+          <t>STX</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>DeXe</t>
+          <t>Stacks</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>dexe</t>
+          <t>stacks</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -5313,75 +5313,75 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>18.05</t>
+          <t>0.568369</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>-3.51</t>
+          <t>-9.86</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>-0.48</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>-3.93</t>
+          <t>-31.27</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>0.000210</t>
+          <t>0.000007</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>1030485366.50</t>
+          <t>856995787.71</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>5216197.264343255</v>
+        <v>42849602.02149738</v>
       </c>
       <c r="M66" t="n">
-        <v>9738593.048154771</v>
+        <v>32330286.59020478</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>57103760.00</t>
+          <t>1507814826.00</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>96504599.336095</t>
+          <t>1507814826.8363</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>98942301</t>
+          <t>1818000000</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>32408</t>
+          <t>121593</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>XDCE</t>
+          <t>IMX</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>XinFin Network</t>
+          <t>Immutable</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>xinfin-network</t>
+          <t>immutable-x</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -5389,75 +5389,75 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0.080182</t>
+          <t>0.478835</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-9.02</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>-7.72</t>
+          <t>-32.70</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>9.32E-7</t>
+          <t>0.000006</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>982527241.35</t>
+          <t>834992113.27</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>23746630.4842995</v>
+        <v>33272810.38545416</v>
       </c>
       <c r="M67" t="n">
-        <v>29197045.41897742</v>
+        <v>24342491.51170815</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>12253720803.00</t>
+          <t>1743800322.00</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>12253720803.1</t>
+          <t>2000000000</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>37629974945</t>
+          <t>2000000000</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>82537</t>
+          <t>33085</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BONK</t>
+          <t>QNT</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Bonk</t>
+          <t>Quant</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>bonk</t>
+          <t>quant</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -5465,75 +5465,75 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0.000014</t>
+          <t>68.61</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>-0.30</t>
+          <t>-9.25</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>-14.84</t>
+          <t>-26.46</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>1.57E-10</t>
+          <t>0.000870</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>940223446.06</t>
+          <t>828315917.52</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>21358222.99288203</v>
+        <v>49719697.04463759</v>
       </c>
       <c r="M68" t="n">
-        <v>18748497.06379269</v>
+        <v>63750772.88909228</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>69474461693558.00</t>
+          <t>12072738.00</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>93526183276778</t>
+          <t>45467000</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>93863283342446</t>
+          <t>45467000</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>84965</t>
+          <t>46183</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>FLR</t>
+          <t>INJ</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Flare</t>
+          <t>Injective Protocol</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>flare</t>
+          <t>injective-protocol</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -5541,71 +5541,75 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0.016740</t>
+          <t>8.52</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>-12.67</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>-2.08</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>-15.96</t>
+          <t>-37.42</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>1.95E-7</t>
+          <t>0.000108</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>928554513.88</t>
+          <t>828034341.02</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>8980140.906218546</v>
+        <v>128418703.1386789</v>
       </c>
       <c r="M69" t="n">
-        <v>11236961.80180944</v>
+        <v>106264888.2079705</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>55469579762.00</t>
+          <t>97152222.00</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>102867561202.53</t>
-        </is>
-      </c>
-      <c r="P69" t="inlineStr"/>
+          <t>100000000</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>100000000</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2679</t>
+          <t>48561</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>EOS</t>
+          <t>GRT</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>EOS</t>
+          <t>The Graph</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>eos</t>
+          <t>the-graph</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -5613,48 +5617,48 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0.560539</t>
+          <t>0.083829</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>-9.83</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>-11.11</t>
+          <t>-31.77</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>0.000007</t>
+          <t>0.000001</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>862289868.27</t>
+          <t>800442127.56</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>55568115.2318306</v>
+        <v>41700509.46160233</v>
       </c>
       <c r="M70" t="n">
-        <v>121277307.1947153</v>
+        <v>38284962.21945942</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>1538323158.00</t>
+          <t>9548531509.00</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2100000000</t>
+          <t>10800262823</t>
         </is>
       </c>
       <c r="P70" t="inlineStr"/>
@@ -5662,22 +5666,22 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>48039</t>
+          <t>32360</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>JASMY</t>
+          <t>THETA</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>JasmyCoin</t>
+          <t>Theta Token</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>jasmycoin</t>
+          <t>theta-token</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -5685,75 +5689,71 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0.017772</t>
+          <t>0.798192</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>-2.81</t>
+          <t>-11.07</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>-0.49</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>-16.50</t>
+          <t>-35.05</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>2.07E-7</t>
+          <t>0.000010</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>860512988.83</t>
+          <t>798191657.24</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>13550451.81092515</v>
+        <v>36733238.92195931</v>
       </c>
       <c r="M71" t="n">
-        <v>30393689.17631443</v>
+        <v>28042090.0366628</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>48419999999.00</t>
+          <t>1000000000.00</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>50000000000</t>
-        </is>
-      </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>50000000000</t>
-        </is>
-      </c>
+          <t>1000000000</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>32373</t>
+          <t>32408</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>XDCE</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Telcoin</t>
+          <t>XinFin Network</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>telcoin</t>
+          <t>xinfin-network</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -5761,75 +5761,75 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0.008744</t>
+          <t>0.064540</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>-7.25</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>-16.57</t>
+          <t>-20.51</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>1.02E-7</t>
+          <t>8.18E-7</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>803188068.29</t>
+          <t>790849667.23</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2205004.870952433</v>
+        <v>27620285.32166016</v>
       </c>
       <c r="M72" t="n">
-        <v>4847064.260044354</v>
+        <v>22087712.89201277</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>91860083810.00</t>
+          <t>12253720803.00</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>100000000000</t>
+          <t>12253720803.1</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>100000000000</t>
+          <t>37629974945</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>3682</t>
+          <t>84965</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>XTZ</t>
+          <t>FLR</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Tezos</t>
+          <t>Flare</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>tezos</t>
+          <t>flare</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -5837,48 +5837,48 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0.757810</t>
+          <t>0.014054</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>-1.17</t>
+          <t>-6.99</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>-14.76</t>
+          <t>-21.86</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>0.000009</t>
+          <t>1.78E-7</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>775060571.67</t>
+          <t>779568520.07</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>17778501.18257778</v>
+        <v>8090925.35099493</v>
       </c>
       <c r="M73" t="n">
-        <v>37152924.05322151</v>
+        <v>6276087.460151702</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>1022763201.00</t>
+          <t>55469579762.00</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>1043176571.6524</t>
+          <t>102867561202.53</t>
         </is>
       </c>
       <c r="P73" t="inlineStr"/>
@@ -5886,22 +5886,22 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>45161</t>
+          <t>46981</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>SAND</t>
+          <t>LDO</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>The Sandbox</t>
+          <t>Lido DAO</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>the-sandbox</t>
+          <t>lido-dao</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -5909,75 +5909,75 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0.316794</t>
+          <t>0.846700</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-16.51</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>-0.38</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>-11.41</t>
+          <t>-35.61</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>0.000004</t>
+          <t>0.000011</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>770079813.29</t>
+          <t>758682961.88</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>45681461.6767806</v>
+        <v>105084878.8447712</v>
       </c>
       <c r="M74" t="n">
-        <v>107584280.1820222</v>
+        <v>71175492.82506473</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>2430857126.00</t>
+          <t>896046961.00</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>3000000000</t>
+          <t>1000000000</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>3000000000</t>
+          <t>1000000000</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>51947</t>
+          <t>100427</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>FLOKI</t>
+          <t>SEI</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Floki Inu</t>
+          <t>Sei</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>floki-inu</t>
+          <t>sei</t>
         </is>
       </c>
       <c r="E75" t="n">
@@ -5985,51 +5985,55 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0.000080</t>
+          <t>0.180096</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>-1.95</t>
+          <t>-11.48</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>-15.31</t>
+          <t>-29.32</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>9.31E-10</t>
+          <t>0.000002</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>769082771.57</t>
+          <t>757804422.01</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>64179761.78333585</v>
+        <v>123364671.9376811</v>
       </c>
       <c r="M75" t="n">
-        <v>57324149.81151197</v>
+        <v>103732328.0011934</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>9601002749536.00</t>
+          <t>4207777777.00</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>10000000000000</t>
-        </is>
-      </c>
-      <c r="P75" t="inlineStr"/>
+          <t>10000000000</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>10000000000</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -6057,12 +6061,12 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.999538</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -6072,24 +6076,24 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>0.000012</t>
+          <t>0.000013</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>750772927.83</t>
+          <t>750064820.55</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>19464731.38622184</v>
+        <v>8233058.456252296</v>
       </c>
       <c r="M76" t="n">
-        <v>22800587.63012316</v>
+        <v>5801859.686688253</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -6106,22 +6110,22 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>56821</t>
+          <t>42855</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ENS</t>
+          <t>XAUT</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Ethereum Name Service</t>
+          <t>Tether Gold</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>ethereum-name-service</t>
+          <t>tether-gold</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -6129,75 +6133,71 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>21.18</t>
+          <t>2887.36</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>-2.00</t>
+          <t>-0.76</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>-0.78</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>-22.09</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>0.000246</t>
+          <t>0.036596</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>745799764.59</t>
+          <t>711802622.96</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>44372498.26923881</v>
+        <v>17693817.891247</v>
       </c>
       <c r="M77" t="n">
-        <v>99183926.2043194</v>
+        <v>7227391.179033631</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>35211736.00</t>
+          <t>246524.00</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>100000000</t>
-        </is>
-      </c>
-      <c r="P77" t="inlineStr">
-        <is>
-          <t>100000000</t>
-        </is>
-      </c>
+          <t>246524</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>111347</t>
+          <t>33819</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>PYTH</t>
+          <t>CRO</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Pyth Network</t>
+          <t>Crypto.com Chain</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>pyth-network</t>
+          <t>crypto-com-chain</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -6205,75 +6205,71 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0.202712</t>
+          <t>0.076578</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>-2.92</t>
+          <t>-5.84</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>-0.62</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>-15.44</t>
+          <t>-10.53</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>0.000002</t>
+          <t>9.71E-7</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>734830193.48</t>
+          <t>710709130.91</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>18957700.54263817</v>
+        <v>45319293.77687926</v>
       </c>
       <c r="M78" t="n">
-        <v>46459046.46238413</v>
+        <v>51444612.17314928</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>3624988786.00</t>
+          <t>9280821918.00</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>9999988786.4386</t>
-        </is>
-      </c>
-      <c r="P78" t="inlineStr">
-        <is>
-          <t>10000000000</t>
-        </is>
-      </c>
+          <t>100000000000</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>48589</t>
+          <t>2679</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>FLOW</t>
+          <t>EOS</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Flow</t>
+          <t>EOS</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>flow</t>
+          <t>eos</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -6281,48 +6277,48 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>0.471735</t>
+          <t>0.458051</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>-1.72</t>
+          <t>-7.31</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>-10.60</t>
+          <t>-25.08</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>0.000005</t>
+          <t>0.000006</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>733517145.03</t>
+          <t>704630649.31</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>17956638.74251375</v>
+        <v>106901827.4530824</v>
       </c>
       <c r="M79" t="n">
-        <v>32867394.5285898</v>
+        <v>87689425.9217217</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>1554936091.00</t>
+          <t>1538323158.00</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>1554936091.074</t>
+          <t>2100000000</t>
         </is>
       </c>
       <c r="P79" t="inlineStr"/>
@@ -6330,22 +6326,22 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>32604</t>
+          <t>82537</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>NEXO</t>
+          <t>BONK</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Nexo</t>
+          <t>Bonk</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>nexo</t>
+          <t>bonk</t>
         </is>
       </c>
       <c r="E80" t="n">
@@ -6353,75 +6349,75 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>0.000009</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>-8.31</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>-15.70</t>
+          <t>-33.86</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>0.000013</t>
+          <t>1.20E-10</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>731971224.43</t>
+          <t>658522562.76</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>7176478.150704776</v>
+        <v>8893931.95847013</v>
       </c>
       <c r="M80" t="n">
-        <v>27041409.26457239</v>
+        <v>14318337.83059016</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>646145839.00</t>
+          <t>69474461693558.00</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>1000000000</t>
+          <t>93526183276778</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>1000000000</t>
+          <t>93863283342446</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>45577</t>
+          <t>3682</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>GALA</t>
+          <t>XTZ</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Gala</t>
+          <t>Tezos</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>gala</t>
+          <t>tezos</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -6429,75 +6425,71 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0.019654</t>
+          <t>0.639495</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>-1.22</t>
+          <t>-6.46</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>-14.81</t>
+          <t>-22.38</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>2.28E-7</t>
+          <t>0.000008</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>723912631.74</t>
+          <t>654052210.24</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>56562269.7859312</v>
+        <v>26411337.42585828</v>
       </c>
       <c r="M81" t="n">
-        <v>112368484.9035392</v>
+        <v>21074904.15049003</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>36833584283.00</t>
+          <t>1022763201.00</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>38857744419.886</t>
-        </is>
-      </c>
-      <c r="P81" t="inlineStr">
-        <is>
-          <t>50000000000</t>
-        </is>
-      </c>
+          <t>1043176571.6524</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>141199</t>
+          <t>46968</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>KAIA</t>
+          <t>FRAX</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Kaia</t>
+          <t>Frax</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>kaia</t>
+          <t>frax</t>
         </is>
       </c>
       <c r="E82" t="n">
@@ -6505,48 +6497,48 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0.120227</t>
+          <t>0.997226</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>-2.37</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>-7.75</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>0.000001</t>
+          <t>0.000013</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>712804974.34</t>
+          <t>647631970.04</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>11610523.86865707</v>
+        <v>11764600.23998313</v>
       </c>
       <c r="M82" t="n">
-        <v>23913659.80849329</v>
+        <v>4336363.906750356</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>5928813857.00</t>
+          <t>649433438.00</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>5928813857.3377</t>
+          <t>1044853133.2588</t>
         </is>
       </c>
       <c r="P82" t="inlineStr"/>
@@ -6554,22 +6546,22 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>42855</t>
+          <t>45161</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>XAUT</t>
+          <t>SAND</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Tether Gold</t>
+          <t>The Sandbox</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>tether-gold</t>
+          <t>the-sandbox</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -6577,71 +6569,75 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2857.52</t>
+          <t>0.254995</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-7.14</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>-2.69</t>
+          <t>-25.20</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>0.033214</t>
+          <t>0.000003</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>704448183.99</t>
+          <t>619855447.43</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>3295547.126984578</v>
+        <v>70959747.51547268</v>
       </c>
       <c r="M83" t="n">
-        <v>7178701.844088541</v>
+        <v>57831221.0215608</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>246524.00</t>
+          <t>2430857126.00</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>246524</t>
-        </is>
-      </c>
-      <c r="P83" t="inlineStr"/>
+          <t>3000000000</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>3000000000</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>33819</t>
+          <t>70947</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>CRO</t>
+          <t>FLZ</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Crypto.com Chain</t>
+          <t>Fellaz</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>crypto-com-chain</t>
+          <t>fellaz</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -6649,71 +6645,75 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>0.073927</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>-2.14</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>-14.66</t>
+          <t>-9.91</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>8.59E-7</t>
+          <t>0.000017</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>686103926.35</t>
+          <t>615534738.05</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>14543522.76733425</v>
+        <v>2046036.396898359</v>
       </c>
       <c r="M84" t="n">
-        <v>22678452.48919809</v>
+        <v>1992849.913729709</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>9280821918.00</t>
+          <t>471874940.00</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>100000000000</t>
-        </is>
-      </c>
-      <c r="P84" t="inlineStr"/>
+          <t>2000000000</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>2000000000</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>127083</t>
+          <t>32604</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>VIRTUAL</t>
+          <t>NEXO</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Virtual Protocol</t>
+          <t>Nexo</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>virtual-protocol</t>
+          <t>nexo</t>
         </is>
       </c>
       <c r="E85" t="n">
@@ -6721,22 +6721,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.946942</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>-4.05</t>
+          <t>-12.84</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>-0.41</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>-15.95</t>
+          <t>-22.87</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -6746,18 +6746,18 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>678477204.34</t>
+          <t>611862504.39</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>63602243.86602481</v>
+        <v>12465063.57353067</v>
       </c>
       <c r="M85" t="n">
-        <v>113362075.0672895</v>
+        <v>5835135.423581232</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>645781178.00</t>
+          <t>646145839.00</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6774,22 +6774,22 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>70947</t>
+          <t>33234</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>FLZ</t>
+          <t>BCHSV</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Fellaz</t>
+          <t>Bitcoin SV</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>fellaz</t>
+          <t>bitcoin-cash-sv</t>
         </is>
       </c>
       <c r="E86" t="n">
@@ -6797,75 +6797,75 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>30.48</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>-6.84</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>-6.53</t>
+          <t>-16.90</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>0.000017</t>
+          <t>0.000386</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>677428704.09</t>
+          <t>587155298.83</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>3029054.18213634</v>
+        <v>128930820.1402574</v>
       </c>
       <c r="M86" t="n">
-        <v>1623765.558063006</v>
+        <v>114450837.0956124</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>471874940.00</t>
+          <t>19266077.00</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2000000000</t>
+          <t>21000000</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>2000000000</t>
+          <t>21000000</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>141199</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>NEO</t>
+          <t>KAIA</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Neo</t>
+          <t>Kaia</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>neo</t>
+          <t>kaia</t>
         </is>
       </c>
       <c r="E87" t="n">
@@ -6873,75 +6873,71 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>9.54</t>
+          <t>0.098846</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>-9.91</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>-0.76</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>-10.44</t>
+          <t>-19.55</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>0.000111</t>
+          <t>0.000001</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>672904200.87</t>
+          <t>586036829.62</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>21746158.00593297</v>
+        <v>18625920.34836536</v>
       </c>
       <c r="M87" t="n">
-        <v>36926521.39215241</v>
+        <v>12486821.30497566</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>70538831.00</t>
+          <t>5928813857.00</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>100000000</t>
-        </is>
-      </c>
-      <c r="P87" t="inlineStr">
-        <is>
-          <t>100000000</t>
-        </is>
-      </c>
+          <t>5928813857.3377</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>111351</t>
+          <t>48039</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>JTO</t>
+          <t>JASMY</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Jito</t>
+          <t>JasmyCoin</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>jito</t>
+          <t>jasmycoin</t>
         </is>
       </c>
       <c r="E88" t="n">
@@ -6949,75 +6945,75 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>0.012070</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>-3.60</t>
+          <t>-12.53</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>5.82</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>-17.56</t>
+          <t>-36.86</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>0.000028</t>
+          <t>1.53E-7</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>671369056.44</t>
+          <t>584425023.47</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>23397252.49522945</v>
+        <v>49487654.57259385</v>
       </c>
       <c r="M88" t="n">
-        <v>50727402.84832103</v>
+        <v>53898285.17370053</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>278317357.00</t>
+          <t>48419999999.00</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>1000000000</t>
+          <t>50000000000</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>1000000000</t>
+          <t>50000000000</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>47371</t>
+          <t>111351</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>RAY</t>
+          <t>JTO</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Raydium</t>
+          <t>Jito</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>raydium</t>
+          <t>jito</t>
         </is>
       </c>
       <c r="E89" t="n">
@@ -7025,75 +7021,75 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>-3.78</t>
+          <t>-4.13</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>-48.59</t>
+          <t>-21.20</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>0.000027</t>
+          <t>0.000026</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>668705836.64</t>
+          <t>581333878.38</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>64459388.1276693</v>
+        <v>38982891.40409919</v>
       </c>
       <c r="M89" t="n">
-        <v>183946980.4985797</v>
+        <v>25382271.18085589</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>290888823.00</t>
+          <t>278317357.00</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>554999175.73466</t>
+          <t>1000000000</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>555000000</t>
+          <t>1000000000</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>33234</t>
+          <t>42227</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>BCHSV</t>
+          <t>PAXG</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Bitcoin SV</t>
+          <t>PAX Gold</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>bitcoin-cash-sv</t>
+          <t>pax-gold</t>
         </is>
       </c>
       <c r="E90" t="n">
@@ -7101,75 +7097,71 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>34.63</t>
+          <t>2897.50</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>-3.09</t>
+          <t>-1.07</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>-0.74</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>-7.13</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>0.000403</t>
+          <t>0.036724</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>667251421.86</t>
+          <t>578214321.01</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>111756635.4761262</v>
+        <v>33577371.14098748</v>
       </c>
       <c r="M90" t="n">
-        <v>117472429.5318403</v>
+        <v>18434167.71736408</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>19266077.00</t>
+          <t>199556.00</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>21000000</t>
-        </is>
-      </c>
-      <c r="P90" t="inlineStr">
-        <is>
-          <t>21000000</t>
-        </is>
-      </c>
+          <t>203182</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>46968</t>
+          <t>48589</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>FRAX</t>
+          <t>FLOW</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Frax</t>
+          <t>Flow</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>frax</t>
+          <t>flow</t>
         </is>
       </c>
       <c r="E91" t="n">
@@ -7177,48 +7169,48 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>0.996192</t>
+          <t>0.369869</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-6.90</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-24.94</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>0.000012</t>
+          <t>0.000005</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>646960229.59</t>
+          <t>575122032.31</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1187602.25644082</v>
+        <v>36658763.35861993</v>
       </c>
       <c r="M91" t="n">
-        <v>3652832.355697912</v>
+        <v>26215469.53292271</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>649433438.00</t>
+          <t>1554936091.00</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>1044853133.2588</t>
+          <t>1554936091.074</t>
         </is>
       </c>
       <c r="P91" t="inlineStr"/>
@@ -7226,22 +7218,22 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>56821</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>MIOTA</t>
+          <t>ENS</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>IOTA</t>
+          <t>Ethereum Name Service</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>iota</t>
+          <t>ethereum-name-service</t>
         </is>
       </c>
       <c r="E92" t="n">
@@ -7249,75 +7241,75 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>0.207278</t>
+          <t>16.04</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>-11.23</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>-6.95</t>
+          <t>-29.37</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>0.000002</t>
+          <t>0.000203</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>633704135.48</t>
+          <t>564714759.27</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>22414466.00771805</v>
+        <v>74339218.88501255</v>
       </c>
       <c r="M92" t="n">
-        <v>38215945.65473499</v>
+        <v>63095452.08488508</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>3057265852.00</t>
+          <t>35211736.00</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>4600000000</t>
+          <t>100000000</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>4600000000</t>
+          <t>100000000</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>121613</t>
+          <t>45577</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>WIF</t>
+          <t>GALA</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>dogwifhat</t>
+          <t>Gala</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>dogwifhat</t>
+          <t>gala</t>
         </is>
       </c>
       <c r="E93" t="n">
@@ -7325,71 +7317,75 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>0.614833</t>
+          <t>0.014664</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>-1.97</t>
+          <t>-9.53</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>-9.28</t>
+          <t>-29.58</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>0.000007</t>
+          <t>1.86E-7</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>614121148.38</t>
+          <t>540139947.26</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>268479913.2924857</v>
+        <v>86311622.44574419</v>
       </c>
       <c r="M93" t="n">
-        <v>455468911.026182</v>
+        <v>52302974.69141211</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>998841655.00</t>
+          <t>36833584283.00</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>998841655.00104</t>
-        </is>
-      </c>
-      <c r="P93" t="inlineStr"/>
+          <t>38857744419.886</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>50000000000</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>51947</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ZEC</t>
+          <t>FLOKI</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Zcash</t>
+          <t>Floki Inu</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>zcash</t>
+          <t>floki-inu</t>
         </is>
       </c>
       <c r="E94" t="n">
@@ -7397,75 +7393,71 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>37.51</t>
+          <t>0.000056</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>-0.83</t>
+          <t>-8.37</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>-1.16</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>-33.51</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>0.000436</t>
+          <t>7.04E-10</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>612413482.77</t>
+          <t>533332069.84</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>65588498.94563297</v>
+        <v>40262286.41948246</v>
       </c>
       <c r="M94" t="n">
-        <v>83348984.14073895</v>
+        <v>31010785.64923728</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>16328269.00</t>
+          <t>9601002749536.00</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>16328269</t>
-        </is>
-      </c>
-      <c r="P94" t="inlineStr">
-        <is>
-          <t>21000000</t>
-        </is>
-      </c>
+          <t>10000000000000</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>33536</t>
+          <t>111369</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>MATIC</t>
+          <t>ULTIMA</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Matic Network</t>
+          <t>Ultima</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>matic-network</t>
+          <t>ultima</t>
         </is>
       </c>
       <c r="E95" t="n">
@@ -7473,71 +7465,75 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>0.281440</t>
+          <t>16304.10</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>-1.37</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>-6.71</t>
+          <t>-3.92</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>0.000003</t>
+          <t>0.206646</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>612185435.39</t>
+          <t>522220323.00</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>3612600.30231553</v>
+        <v>7203895.691669552</v>
       </c>
       <c r="M95" t="n">
-        <v>3905341.391017077</v>
+        <v>6928305.604355052</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>2175190262.00</t>
+          <t>32030.00</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>10000000000</t>
-        </is>
-      </c>
-      <c r="P95" t="inlineStr"/>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>45985</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>CAKE</t>
+          <t>MIOTA</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>PancakeSwap</t>
+          <t>IOTA</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>pancakeswap</t>
+          <t>iota</t>
         </is>
       </c>
       <c r="E96" t="n">
@@ -7545,75 +7541,75 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>0.168754</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-5.87</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>-0.55</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>-18.30</t>
+          <t>-29.31</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>0.000023</t>
+          <t>0.000002</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>588282549.00</t>
+          <t>515926277.04</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>41771267.53741571</v>
+        <v>31778497.15483618</v>
       </c>
       <c r="M96" t="n">
-        <v>77759553.9104749</v>
+        <v>25447368.52672803</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>297307421.00</t>
+          <t>3057265852.00</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>385914700.74188</t>
+          <t>4600000000</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>450000000</t>
+          <t>4600000000</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>141207</t>
+          <t>133</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>GRASS</t>
+          <t>NEO</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Grass</t>
+          <t>Neo</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>grass</t>
+          <t>neo</t>
         </is>
       </c>
       <c r="E97" t="n">
@@ -7621,71 +7617,75 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>7.27</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>10.49</t>
+          <t>-10.34</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>11.73</t>
+          <t>-24.86</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>0.000028</t>
+          <t>0.000092</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>586694418.01</t>
+          <t>512685186.19</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>33637126.38628205</v>
+        <v>32072479.4378139</v>
       </c>
       <c r="M97" t="n">
-        <v>40028983.68510234</v>
+        <v>21345042.36065335</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>243905091.00</t>
+          <t>70538831.00</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>1000000000</t>
-        </is>
-      </c>
-      <c r="P97" t="inlineStr"/>
+          <t>100000000</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>100000000</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>46575</t>
+          <t>32479</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>AXS</t>
+          <t>TUSD</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Axie Infinity</t>
+          <t>TrueUSD</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>axie-infinity</t>
+          <t>trueusd</t>
         </is>
       </c>
       <c r="E98" t="n">
@@ -7693,75 +7693,71 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>0.998148</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>-0.99</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>-0.62</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>-12.72</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>0.000043</t>
+          <t>0.000013</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>584623487.76</t>
+          <t>494683594.12</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>15584248.03335189</v>
+        <v>50667242.76678821</v>
       </c>
       <c r="M98" t="n">
-        <v>38285666.7768575</v>
+        <v>45382315.71826469</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>158016279.00</t>
+          <t>495601552.00</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>270000000</t>
-        </is>
-      </c>
-      <c r="P98" t="inlineStr">
-        <is>
-          <t>270000000</t>
-        </is>
-      </c>
+          <t>498264591</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>111369</t>
+          <t>111357</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ULTIMA</t>
+          <t>PYUSD</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Ultima</t>
+          <t>PayPal USD</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>ultima</t>
+          <t>paypal-usd</t>
         </is>
       </c>
       <c r="E99" t="n">
@@ -7769,75 +7765,71 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>18079.52</t>
+          <t>0.998594</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>-9.63</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>0.210143</t>
+          <t>0.000013</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>579087006.76</t>
+          <t>491097645.69</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>7123136.360934885</v>
+        <v>13039195.65400886</v>
       </c>
       <c r="M99" t="n">
-        <v>7726258.004158426</v>
+        <v>2821267.480567406</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>32030.00</t>
+          <t>491788969.00</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>100000</t>
-        </is>
-      </c>
-      <c r="P99" t="inlineStr">
-        <is>
-          <t>100000</t>
-        </is>
-      </c>
+          <t>491788969.17679</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>120827</t>
+          <t>111347</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>HNT</t>
+          <t>PYTH</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Helium</t>
+          <t>Pyth Network</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>helium</t>
+          <t>pyth-network</t>
         </is>
       </c>
       <c r="E100" t="n">
@@ -7845,75 +7837,75 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>0.133697</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>-1.09</t>
+          <t>-9.42</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>-9.45</t>
+          <t>-35.06</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>0.000038</t>
+          <t>0.000002</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>573600911.73</t>
+          <t>484650320.60</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2498336.979220522</v>
+        <v>36571317.71414356</v>
       </c>
       <c r="M100" t="n">
-        <v>3525567.506049148</v>
+        <v>23929599.13297272</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>177074515.00</t>
+          <t>3624988786.00</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>177074515.76871</t>
+          <t>9999988786.4386</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>223000000</t>
+          <t>10000000000</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>33389</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MANA</t>
+          <t>BDX</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Decentraland</t>
+          <t>Beldex</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>decentraland</t>
+          <t>beldex</t>
         </is>
       </c>
       <c r="E101" t="n">
@@ -7921,51 +7913,55 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>0.293729</t>
+          <t>0.069908</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>-7.68</t>
+          <t>-5.34</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>0.000003</t>
+          <t>8.86E-7</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>570497506.70</t>
+          <t>483246905.19</t>
         </is>
       </c>
       <c r="L101" t="n">
-        <v>25449247.40740781</v>
+        <v>3635966.841735857</v>
       </c>
       <c r="M101" t="n">
-        <v>54302936.79979254</v>
+        <v>3392509.872752872</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>1942255184.00</t>
+          <t>6912613170.00</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2193179327</t>
-        </is>
-      </c>
-      <c r="P101" t="inlineStr"/>
+          <t>9930633170.8495</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>9930633170.8495</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/static/xlsx/request_api_xlsx.xlsx
+++ b/src/static/xlsx/request_api_xlsx.xlsx
@@ -523,7 +523,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>19844090.0000000000000000</t>
+          <t>19844146.0000000000000000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -533,27 +533,27 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1645408213162.3085423711777190</t>
+          <t>1640248960295.1369090349726480</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>5718748127.1528516033442327</t>
+          <t>5480192765.2022061629166276</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>82916.7884827325688591</t>
+          <t>82656.5658353419143880</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.4401747280786942</t>
+          <t>0.3267271217607228</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>82791.3842202897238302</t>
+          <t>82855.0591459532873009</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="3">
@@ -594,27 +594,27 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>219447239944.2114512478497129</t>
+          <t>219789619617.6456165204498446</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>4766428019.3459411165197428</t>
+          <t>4143727965.9638486223119721</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1818.8076237170217083</t>
+          <t>1821.6453115385049702</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-1.3563933435731850</t>
+          <t>0.1441008874874965</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1825.8535093424786455</t>
+          <t>1822.7562747306736832</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="4">
@@ -655,27 +655,27 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>144472528344.4947595458365958</t>
+          <t>144572826467.6962036678813043</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>18307782667.4688571644720034</t>
+          <t>16843129596.5090408349064438</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.0020125849348224</t>
+          <t>1.0027082187888486</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.0086347766169269</t>
+          <t>0.0222109053592891</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>1.0002823425646397</t>
+          <t>1.0002888505983135</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="5">
@@ -720,27 +720,27 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>125128539404.0488101244391484</t>
+          <t>125186112383.7745678039314930</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1238750853.4358423662315195</t>
+          <t>1117309220.3098423883560197</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2.1497644567582078</t>
+          <t>2.1507535863850185</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>1.5159096818527332</t>
+          <t>1.4926033064057195</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2.1515863032611537</t>
+          <t>2.1572259774512235</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="6">
@@ -785,27 +785,27 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>87075359850.5724607777222570</t>
+          <t>87021319706.7397742896223370</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>255971674.4396049080707602</t>
+          <t>232256040.5357346756022673</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>604.6613195400000179</t>
+          <t>604.2860585622207939</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-0.2590069306687397</t>
+          <t>0.4175229073696857</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>605.3547296331083335</t>
+          <t>605.2224401109413875</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="7">
@@ -840,33 +840,33 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>512293807.5507926300000000</t>
+          <t>512293263.8307307000000000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>64173621326.0654427258974176</t>
+          <t>64516403178.5522130215043313</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1030343021.0930431740770552</t>
+          <t>949037846.0353344543844363</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>125.2672204508401971</t>
+          <t>125.9364659533555578</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-0.7470015985162058</t>
+          <t>0.8281400814038677</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>124.9818949943009180</t>
+          <t>124.8376673155124758</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -875,7 +875,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="8">
@@ -901,33 +901,33 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>60242525341.8881500000000000</t>
+          <t>60236504303.7019500000000000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>60263652571.4768036023903822</t>
+          <t>60276486109.2381032593167255</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>3212131486.3803947144172163</t>
+          <t>2624630853.4774269215480480</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.0003507029207151</t>
+          <t>1.0006637471081418</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>-0.0270781050692053</t>
+          <t>-0.0252927451770612</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>1.0015822519802545</t>
+          <t>1.0014652898001309</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="9">
@@ -962,33 +962,33 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>148644126383.7052300000000000</t>
+          <t>148646376383.7052600000000000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>25192339632.7758404781160303</t>
+          <t>25302161517.1315210857265727</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>441209058.9153757065191887</t>
+          <t>408087512.9763207928742020</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.1694808953819348</t>
+          <t>0.1702171430793463</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>-0.7349720309518281</t>
+          <t>1.0409643626036639</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.1695603448885122</t>
+          <t>0.1695262215959406</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="10">
@@ -1033,27 +1033,27 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>23723258891.0099981885348963</t>
+          <t>23656821536.7250640811093821</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>229640964.0885899315699713</t>
+          <t>225081866.7667561730817708</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.6731510345988975</t>
+          <t>0.6712658646912393</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.0674625960801444</t>
+          <t>0.3753428199927294</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.6739562499198983</t>
+          <t>0.6733334287048685</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="11">
@@ -1088,33 +1088,33 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94994605853.7637200000000000</t>
+          <t>94994333997.7867700000000000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>21915590545.0177149452066276</t>
+          <t>22056184654.8066386735893122</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>237089279.7413524358328388</t>
+          <t>208562739.1102299781984939</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.2307035262481634</t>
+          <t>0.2321842127481047</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>-1.6395153608264012</t>
+          <t>-1.1452868660672391</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.2320953549970309</t>
+          <t>0.2316784776949375</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1123,7 +1123,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="12">
@@ -1149,33 +1149,33 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>9367578.0451454800000000</t>
+          <t>9369845.3549515900000000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>17013824733.8718290823942758</t>
+          <t>16957421840.3914232582453571</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>6260068.3419517004753704</t>
+          <t>5189605.3128159373182312</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1816.2458483800763078</t>
+          <t>1809.7867358536607389</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>-1.4069402425700687</t>
+          <t>-0.4914263070772036</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>1832.9886302838556275</t>
+          <t>1822.7942491484253393</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1184,7 +1184,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="13">
@@ -1216,27 +1216,27 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10598806295.6447535423859155</t>
+          <t>10651186259.2910045703517397</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>107738586.7663614385666362</t>
+          <t>14127275.7564902783925246</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>82112.0183876590350267</t>
+          <t>82517.8211184659228843</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>-0.3333061838342018</t>
+          <t>0.6155921832794222</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>82981.7007507780351351</t>
+          <t>82969.4758358902328668</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="14">
@@ -1271,38 +1271,38 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2484528578.6548066000000000</t>
+          <t>2484542062.4234138000000000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>9472862912.8328174480942813</t>
+          <t>9529023335.0241017484849028</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>116254527.9634560824456334</t>
+          <t>114504995.7210948054515139</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>3.8127405714776245</t>
+          <t>3.8353238124411245</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>3.1863733089884897</t>
+          <t>2.2170388386016913</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>3.7655672859094817</t>
+          <t>3.7755013673543667</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="15">
@@ -1334,27 +1334,27 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>8958597212.6335910550156019</t>
+          <t>8954351677.3079132027220047</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>135506293.4273732830841045</t>
+          <t>127343000.2173266557021733</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>13.6335376890376460</t>
+          <t>13.6270766701416135</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>-0.4597095166511734</t>
+          <t>0.8089673300476612</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>13.6120301627217862</t>
+          <t>13.6072242169819494</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1363,7 +1363,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="16">
@@ -1389,33 +1389,33 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>923836969.9000000000000000</t>
+          <t>923836227.9000000000000000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>8901839290.0928122997258208</t>
+          <t>8872243688.0512987094671505</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>5023166.8719188923953401</t>
+          <t>4803401.8501467731925831</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>9.6357253283080724</t>
+          <t>9.6036975170578269</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0.1144331361562571</t>
+          <t>0.2485938492213905</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>9.5406858729989225</t>
+          <t>9.5399946069190810</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="17">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>30787178407.4941640000000000</t>
+          <t>30787176939.1180700000000000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1460,27 +1460,27 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>8265176800.0094639130424089</t>
+          <t>8290250469.9571153235708102</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>53000727.5913387874859268</t>
+          <t>48056494.4226127537360642</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0.2684616527897720</t>
+          <t>0.2692760848567299</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0.2747258630171079</t>
+          <t>1.3958855702636047</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0.2676661239757318</t>
+          <t>0.2682149341125536</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1489,7 +1489,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="18">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>414844783.0787661700000000</t>
+          <t>414849355.3863750700000000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1525,27 +1525,27 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>8051635600.1507045998396600</t>
+          <t>7973734405.4716769213739920</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>123599458.8422985216381119</t>
+          <t>118493898.7587431327550139</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>19.4087907780726472</t>
+          <t>19.2207949751910327</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>-3.2203503693808117</t>
+          <t>-3.1819056716832420</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>19.6268932847541679</t>
+          <t>19.5221445153987295</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1554,7 +1554,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="19">
@@ -1590,27 +1590,27 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>7482713340.3192561276521836</t>
+          <t>7505387941.3525617497911146</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>553534546.1655287625586681</t>
+          <t>523267923.8588717698574329</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2.3605927823692116</t>
+          <t>2.3677460030136415</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2.1734251276508148</t>
+          <t>3.8916846880729167</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2.3524045340857563</t>
+          <t>2.3634653447219478</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1619,7 +1619,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="20">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>589250822785832.4000000000000000</t>
+          <t>589250806511191.1000000000000000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1655,27 +1655,27 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>7426139533.0259675745838750</t>
+          <t>7398849788.8317374386178692</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>76263835.4800202510386686</t>
+          <t>66746027.4177632005186307</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.0000126026799554</t>
+          <t>0.0000125563676911</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>-1.4675099067605612</t>
+          <t>-0.3285391408749847</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0.0000126341033021</t>
+          <t>0.0000126204515749</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="21">
@@ -1720,27 +1720,27 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>7199344865.4500467226974255</t>
+          <t>7208477074.0156110196868859</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>92383783.2716593654552800</t>
+          <t>72530990.1723071204237280</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0.1705221994890443</t>
+          <t>0.1707385030999834</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>0.6388590766725307</t>
+          <t>0.9004175680069230</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.1711704604492137</t>
+          <t>0.1714253891323879</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1749,7 +1749,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="22">
@@ -1785,27 +1785,27 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>6524123028.5938966723779963</t>
+          <t>6522591761.0388751037396584</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>167438391.2111418247739044</t>
+          <t>152449381.9062380666913037</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>86.3453584360287149</t>
+          <t>86.3250924408412675</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>-0.0174456870136912</t>
+          <t>1.0692790344763196</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>85.7283558199608457</t>
+          <t>85.8598382874845881</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1814,7 +1814,7 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="23">
@@ -1846,27 +1846,27 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>6207093548.6842221570056020</t>
+          <t>6228680426.7216008367928580</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>71649168.2635192180916581</t>
+          <t>64995038.9283635314798835</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>4.0775325905588617</t>
+          <t>4.0917133336128293</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>-0.2311142956699293</t>
+          <t>0.7655898433175277</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>4.0858309047599400</t>
+          <t>4.0852526394472472</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1875,7 +1875,7 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="24">
@@ -1907,22 +1907,22 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>6155101635.7528262072104602</t>
+          <t>6141160834.4786551312441554</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>460014715.1470925548562794</t>
+          <t>8088748.7562500001431572</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1823.5622180151762763</t>
+          <t>1819.4319988901549775</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>-0.9902239768077678</t>
+          <t>-0.2459166363669385</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="25">
@@ -1968,27 +1968,27 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>6075993196.3036925716925741</t>
+          <t>6107873472.7340724096157919</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>33764378.2456257441561601</t>
+          <t>33493719.1276047662143918</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>6.2332048972561419</t>
+          <t>6.2659100515826167</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>-0.1291820518119847</t>
+          <t>0.2855341780067822</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>6.2202983241111179</t>
+          <t>6.2216746969693391</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -1997,7 +1997,7 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="26">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>19849115.6250000000000000</t>
+          <t>19849190.6250000000000000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2033,27 +2033,27 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>6056506018.1945628304810350</t>
+          <t>6021817337.0736931400883759</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>46157023.4297446612042914</t>
+          <t>40198550.1483949965109614</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>305.1272476123007536</t>
+          <t>303.3784828228326383</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>-0.5820802661752306</t>
+          <t>0.1311852222278608</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>304.8533220603252699</t>
+          <t>304.6748856736965572</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="27">
@@ -2094,22 +2094,22 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>5500491881.5415703600000000</t>
+          <t>5481735598.3273236000000000</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>80862790.7038795745418300</t>
+          <t>67815971.9798920045292426</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>4.5837432346179753</t>
+          <t>4.5681129986061030</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>-0.5105971018137577</t>
+          <t>-0.7814571333870057</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
@@ -2119,7 +2119,7 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="28">
@@ -2151,27 +2151,27 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>5361791683.7172770712587038</t>
+          <t>5363979615.6309226098688028</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>63905023.0946243851125382</t>
+          <t>56060096.5772389049185444</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0.9993307059073696</t>
+          <t>0.9997384926459668</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>-0.0221042281542629</t>
+          <t>0.0684516764876065</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0.9994919559425325</t>
+          <t>0.9994441698062070</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2180,7 +2180,7 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="29">
@@ -2206,28 +2206,28 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>5247255782.7102750000000000</t>
+          <t>5247294871.9158745000000000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>5246902513.3316238460008273</t>
+          <t>5247412114.9872493760720054</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>35500615.2659193357231184</t>
+          <t>28173942.8783287607303762</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0.9999326754034337</t>
+          <t>1.0000223435263763</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>0.0317504921038749</t>
+          <t>0.0387886411593920</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
@@ -2237,7 +2237,7 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="30">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>6773814332.2604940000000000</t>
+          <t>6773820584.9916540000000000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2273,22 +2273,22 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>5167207446.9047400375356706</t>
+          <t>5229989792.7255213626504517</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>85907964.9047621484009899</t>
+          <t>85140186.2176361111757082</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0.7628209445150806</t>
+          <t>0.7720886207575817</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>-2.8679910503264232</t>
+          <t>-4.6202171898941902</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
@@ -2298,7 +2298,7 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="31">
@@ -2334,27 +2334,27 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>4201769039.5293132697724700</t>
+          <t>4233479417.2649526225101300</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>16980719.6435836138813222</t>
+          <t>16381054.6406006159522365</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>12.5828525149608915</t>
+          <t>12.6778141852686785</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>-2.4782546046548454</t>
+          <t>-0.9540186767550871</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>12.7101163257018110</t>
+          <t>12.6667666383796467</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2363,7 +2363,7 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="32">
@@ -2395,27 +2395,27 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>4008181468.8650203385339444</t>
+          <t>4001361012.7361642088676773</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>30438828.4203221909345126</t>
+          <t>29483511.1379636265421097</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>217.2839528129797841</t>
+          <t>216.9142151453673896</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>0.4734842786752440</t>
+          <t>1.4190658954658581</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>215.9741347888256585</t>
+          <t>216.1829491143301462</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2424,7 +2424,7 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="33">
@@ -2456,27 +2456,27 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>3749159627.7413234019014864</t>
+          <t>3744779234.8347098424508687</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>53749643.6972073128682960</t>
+          <t>39387583.0790072951435306</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>5.9653064331233209</t>
+          <t>5.9583367682970804</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>-0.7379963201913656</t>
+          <t>0.4524776360392461</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>5.9756400520575151</t>
+          <t>5.9726785269465495</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2485,7 +2485,7 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="34">
@@ -2511,33 +2511,33 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>604031596.5939680000000000</t>
+          <t>604052367.6645604000000000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>3195108080.1067342020275697</t>
+          <t>3243768059.3870029965449108</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>42262851.0206306254879862</t>
+          <t>39151839.3709379637696644</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>5.2896373271256143</t>
+          <t>5.3700113318458466</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>-0.5549697913016573</t>
+          <t>3.5186237213487238</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>5.2571858525231541</t>
+          <t>5.2630178513897298</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="35">
@@ -2578,27 +2578,27 @@
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>3160198965.9692502467403296</t>
+          <t>3159685052.9563588262964288</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>91849522.0372693899869315</t>
+          <t>93769595.6065129388523226</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2.6370229745284177</t>
+          <t>2.6365941406364706</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>1.7930386790045982</t>
+          <t>3.9020762877010692</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>2.6389980224807920</t>
+          <t>2.6430199712880010</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2607,7 +2607,7 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="36">
@@ -2643,27 +2643,27 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2967439521.6201030865441585</t>
+          <t>2970917462.3681817109846583</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>299995079.3028432586465927</t>
+          <t>293124002.7892667422708149</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>0.0000070537455833</t>
+          <t>0.0000070620128147</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>-3.8524858332079654</t>
+          <t>-1.7151985489490831</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0.0000071753556832</t>
+          <t>0.0000071289588759</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="37">
@@ -2704,27 +2704,27 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2912819056.6660053240000000</t>
+          <t>2907341998.8815879100000000</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2096408.2641717460396120</t>
+          <t>1892286.1632043386376873</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>48.5469842777667554</t>
+          <t>48.4556999813597985</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>0.0806682787645802</t>
+          <t>0.3954752162795330</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>48.4143920352894095</t>
+          <t>48.4177190707576101</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2733,7 +2733,7 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="38">
@@ -2769,27 +2769,27 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2769337703.7960085895384152</t>
+          <t>2789594008.3855256475225048</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>42910391.4781205954730584</t>
+          <t>42407317.7907458436023987</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>0.1042218684660437</t>
+          <t>0.1049841987191013</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>3.4326572548626916</t>
+          <t>4.8864392065793577</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>0.1050045024148143</t>
+          <t>0.1052868202110110</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -2798,7 +2798,7 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="39">
@@ -2834,27 +2834,27 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2699772651.6693683250662620</t>
+          <t>2666121460.4147574419896050</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>64145981.9112379831937131</t>
+          <t>59334727.5187505977239135</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>0.8023827261818461</t>
+          <t>0.7923814638305716</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>-0.4899709235006019</t>
+          <t>-1.2799322962954254</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>0.8078779220109429</t>
+          <t>0.8067489382076848</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -2863,13 +2863,13 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>internet-computer</t>
+          <t>first-digital-usd</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2879,58 +2879,54 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ICP</t>
+          <t>FDUSD</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Internet Computer</t>
+          <t>First Digital USD</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>482076932.8747825000000000</t>
+          <t>2588088088.1678160000000000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2591823755.8688453073314074</t>
+          <t>2583488274.1485271788557057</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>30484427.3277550327387497</t>
+          <t>873485697.5631510120362890</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>5.3763695773887212</t>
+          <t>0.9982226980448161</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>-0.7841230571003332</t>
+          <t>-0.0513171732011543</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>5.3609082582608700</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>https://www.dfinityexplorer.org/#/</t>
-        </is>
-      </c>
+          <t>0.9985858621714304</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>first-digital-usd</t>
+          <t>internet-computer</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2940,48 +2936,52 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>FDUSD</t>
+          <t>ICP</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>First Digital USD</t>
+          <t>Internet Computer</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2588088088.1678160000000000</t>
+          <t>482076964.6058819000000000</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2583960590.5102734226441160</t>
+          <t>2582013199.2360279157632581</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>1029775613.1339066283103287</t>
+          <t>29953887.8876887618785226</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>0.9984051942913332</t>
+          <t>5.3560186211073823</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>-0.0191701432646542</t>
+          <t>0.3059181030360783</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0.9986211944078144</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr"/>
+          <t>5.3577959542649658</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>https://www.dfinityexplorer.org/#/</t>
+        </is>
+      </c>
       <c r="M41" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="42">
@@ -3013,27 +3013,27 @@
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2527930536.2107285663304451</t>
+          <t>2532221474.7553823737799940</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>80384786.5269370643010838</t>
+          <t>74422963.5435014039149676</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>0.8002040174336619</t>
+          <t>0.8015622929925860</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>0.7139311027876482</t>
+          <t>0.9019816769209038</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>0.7984788449640853</t>
+          <t>0.7992064206792425</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="43">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>151321540.2914661500000000</t>
+          <t>151323700.0354661600000000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3078,27 +3078,27 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2518538271.2183289311813451</t>
+          <t>2521872817.7973148218595475</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>22073494.2213449666324360</t>
+          <t>22548585.6804606441936586</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>16.6436203753099326</t>
+          <t>16.6654186833011380</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>-0.3173136843331806</t>
+          <t>0.4574952869183328</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>16.6754770189594099</t>
+          <t>16.6755819626368201</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="44">
@@ -3133,33 +3133,33 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>15093850.1019675900000000</t>
+          <t>15094302.1830386200000000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2480477522.3127977983604312</t>
+          <t>2495770052.6066782708289652</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>122123189.4238789141187412</t>
+          <t>121736746.8274383543940574</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>164.3369654233845895</t>
+          <t>165.3451761030172454</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>-4.9327191687546952</t>
+          <t>-1.7725905166855250</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>167.2506526747946012</t>
+          <t>166.5432984205594735</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3168,7 +3168,7 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="45">
@@ -3200,27 +3200,27 @@
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2125677493.8637828266678834</t>
+          <t>2128549485.6387426687338750</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>34975271.9187835691712683</t>
+          <t>29753865.7684062830469994</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>0.2045474519240588</t>
+          <t>0.2048238149194853</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>0.6511130688052530</t>
+          <t>2.0138629420681554</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>0.2027933698041628</t>
+          <t>0.2032011224463736</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3229,7 +3229,7 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="46">
@@ -3255,7 +3255,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>199999429.1037350000000000</t>
+          <t>199999429.0808760000000000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3265,27 +3265,27 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2035525360.1065975143096493</t>
+          <t>2043021774.2744651994250689</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>67817765.5761678811151084</t>
+          <t>63099908.4252861921509914</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>10.1776558524615507</t>
+          <t>10.2151380314606083</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>1.3879574760923528</t>
+          <t>1.7231984307823092</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>10.0967196223397926</t>
+          <t>10.1229342006681727</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3294,13 +3294,13 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>vechain</t>
+          <t>ethena</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3310,62 +3310,54 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>VET</t>
+          <t>ENA</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>VeChain</t>
+          <t>Ethena</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>85985041177.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>86712634466.0000000000000000</t>
-        </is>
-      </c>
+          <t>5285937500.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1964184580.0370603932843252</t>
+          <t>1971238836.0240466259375000</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>19322183.1930679260967015</t>
+          <t>67764752.3154173469315915</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>0.0228433289459476</t>
+          <t>0.3729213287187082</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>-0.3931565804151255</t>
+          <t>1.1708623663664272</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>0.0229436351790824</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>https://explore.veforge.com/</t>
-        </is>
-      </c>
+          <t>0.3667955159450927</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>bittensor</t>
+          <t>vechain</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3375,62 +3367,62 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>TAO</t>
+          <t>VET</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Bittensor</t>
+          <t>VeChain</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>8534124.0000000000000000</t>
+          <t>85985041177.0000000000000000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>21000000.0000000000000000</t>
+          <t>86712634466.0000000000000000</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1945000796.7737817470563632</t>
+          <t>1957221777.6802743803596853</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>51460517.5329617147339260</t>
+          <t>18599139.1132353650490500</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>227.9086637098056868</t>
+          <t>0.0227623520427389</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>1.1762684817015759</t>
+          <t>0.0607612811592081</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>228.5842286857285730</t>
+          <t>0.0229385402688767</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>https://bittensor.com/scan</t>
+          <t>https://explore.veforge.com/</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ethena</t>
+          <t>bittensor</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3440,54 +3432,62 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ENA</t>
+          <t>TAO</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Ethena</t>
+          <t>Bittensor</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>5285937500.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr"/>
+          <t>8534124.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>21000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1944153476.2849278632812500</t>
+          <t>1954152336.9872840131021680</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>73281963.4625906797015883</t>
+          <t>47035804.0061671600730959</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>0.3677972878576275</t>
+          <t>228.9810104689460820</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>-1.3720548504417159</t>
+          <t>0.4535633662372402</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>0.3672500959010286</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr"/>
+          <t>229.1096893257285970</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>https://bittensor.com/scan</t>
+        </is>
+      </c>
       <c r="M49" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>celestia</t>
+          <t>gatetoken</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3497,58 +3497,54 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>TIA</t>
+          <t>GT</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Celestia</t>
+          <t>GateToken</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>579488884.7562950000000000</t>
+          <t>85826705.1921835000000000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>1914708485.3858905839257909</t>
+          <t>1915660703.8278574641191259</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>31978362.7783752390274434</t>
+          <t>5779605.5943924387426562</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>3.3041332383642257</t>
+          <t>22.3201007138547657</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>2.2076198209492110</t>
+          <t>0.2999245260771432</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>3.2433517837001646</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>https://www.mintscan.io/celestia</t>
-        </is>
-      </c>
+          <t>22.3944891978739027</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>gatetoken</t>
+          <t>celestia</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3558,48 +3554,52 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>TIA</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>GateToken</t>
+          <t>Celestia</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>85826628.2767399300000000</t>
+          <t>580696175.3830050000000000</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1912748173.4635396020805350</t>
+          <t>1909245121.7421487237403423</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>6706613.9145861226422360</t>
+          <t>29441358.0594600908854448</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>22.2861856730065422</t>
+          <t>3.2878555132257994</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>-0.1531652724035264</t>
+          <t>3.9417278124400859</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>22.3755988290727650</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr"/>
+          <t>3.2591716937578748</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>https://www.mintscan.io/celestia</t>
+        </is>
+      </c>
       <c r="M51" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="52">
@@ -3635,32 +3635,32 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>1827864130.9687097878394158</t>
+          <t>1823232881.2179842857605215</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>43162292.1663150888734513</t>
+          <t>41610389.1068758081250314</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>3.5306269222896581</t>
+          <t>3.5216813913955795</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>-1.7941184139372928</t>
+          <t>-0.4480737768579574</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>3.5267289726832598</t>
+          <t>3.5195395914827009</t>
         </is>
       </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="53">
@@ -3686,33 +3686,33 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>646143249.0000000000000000</t>
+          <t>646157090.0000000000000000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1783390606.6825216231768563</t>
+          <t>1792330192.6139380210552540</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>49786355.0285187274391112</t>
+          <t>47172355.6734509989690824</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2.7600545381269187</t>
+          <t>2.7738304204229006</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>-0.7617960895567618</t>
+          <t>1.5542248682448293</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>2.7500620240074429</t>
+          <t>2.7502121113940539</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="54">
@@ -3753,27 +3753,27 @@
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1683788927.3133535968270408</t>
+          <t>1684291847.4368591959916100</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>49927884.3509615151012786</t>
+          <t>42849736.1099549332144257</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>4.3070903238575502</t>
+          <t>4.3083767810627775</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>-1.5298393453193274</t>
+          <t>0.2911445160773765</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>4.2962353386074610</t>
+          <t>4.2846138804206856</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="55">
@@ -3808,7 +3808,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>25942485466.1023500000000000</t>
+          <t>25943375617.3953000000000000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3818,27 +3818,27 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1673393918.4620271640847856</t>
+          <t>1668570286.4069002536231456</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>35402740.1732224496289226</t>
+          <t>33219875.4178673293359377</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>0.0645039936766491</t>
+          <t>0.0643158512220787</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>-0.3671223566536879</t>
+          <t>2.3546744773013661</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>0.0646049766080422</t>
+          <t>0.0647221696596319</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="56">
@@ -3873,7 +3873,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>8530769996.2217810000000000</t>
+          <t>8530799349.0386210000000000</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3883,27 +3883,27 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>1558994329.6481137488808930</t>
+          <t>1550235234.2330097548484978</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>27980041.6214093816160169</t>
+          <t>26187451.4052996308710397</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>0.1827495443363942</t>
+          <t>0.1817221541387811</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>-1.0203728446262883</t>
+          <t>-0.1823212966458643</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>0.1836149137983526</t>
+          <t>0.1833944132702904</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -3912,7 +3912,7 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="57">
@@ -3944,27 +3944,27 @@
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>1540384598.0423855366826552</t>
+          <t>1544694415.8722898297819344</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>59515724.3116629749732891</t>
+          <t>52483961.4420920948304700</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>0.3335672382662457</t>
+          <t>0.3345005207937254</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>-0.0389081905929188</t>
+          <t>1.2357980194365292</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>0.3322395408090533</t>
+          <t>0.3328186793963527</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -3973,7 +3973,7 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="58">
@@ -4005,27 +4005,27 @@
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>1474887064.7361723171876779</t>
+          <t>1469087030.1278762223148295</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>6225800.8013229874533078</t>
+          <t>6039360.5103362689241935</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>17.6140929398562179</t>
+          <t>17.5448250270189833</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>1.0213558646834610</t>
+          <t>-0.6719232006818787</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>17.5865542395612954</t>
+          <t>17.6072648176085398</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -4034,7 +4034,7 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="59">
@@ -4070,27 +4070,27 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>1409566141.7837159040000000</t>
+          <t>1441217320.2715824000000000</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>77462959.7294485471590406</t>
+          <t>69507454.6160513006162223</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>0.4894326881193458</t>
+          <t>0.5004226806498550</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>-1.0935322904672742</t>
+          <t>2.9765675915225626</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>0.4903278303471255</t>
+          <t>0.4910468776486858</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -4099,7 +4099,7 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="60">
@@ -4125,33 +4125,33 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>258745395.0000000000000000</t>
+          <t>258757414.0000000000000000</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>1367199664.4673207316714155</t>
+          <t>1365723645.1441229663969236</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>36619597.7304532896495680</t>
+          <t>35754150.9048518233431641</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>5.2839574766821289</t>
+          <t>5.2780077835532974</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>0.7542216654266165</t>
+          <t>-0.8321805750442154</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>5.3208366696182104</t>
+          <t>5.3202992200440066</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -4160,7 +4160,7 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="61">
@@ -4196,27 +4196,27 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>1358654517.0417458659000833</t>
+          <t>1358814431.5054888280012678</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>494999.2220712987180253</t>
+          <t>428344.1711923759584146</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>11.0870824179948276</t>
+          <t>11.0883873743447377</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>0.3335320410502523</t>
+          <t>0.5760677231937108</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>11.0659419516174151</t>
+          <t>11.0751549283705362</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -4225,7 +4225,7 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="62">
@@ -4261,27 +4261,27 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>1300386060.1236361107200213</t>
+          <t>1308274238.4936730722929462</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>29010225.6029017856891408</t>
+          <t>31195894.5899081827663922</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>0.4832512135980812</t>
+          <t>0.4861826290348447</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>4.5601149346556208</t>
+          <t>5.5870234299110543</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>0.4759175240221405</t>
+          <t>0.4788991699600357</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -4290,7 +4290,7 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="63">
@@ -4322,27 +4322,27 @@
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>1220425171.5658997786197620</t>
+          <t>1224294268.2745694820273906</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>54594539.0719619644818378</t>
+          <t>50579379.2002234010446696</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>0.7530207746075470</t>
+          <t>0.7554080657487611</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>-3.3070664844461663</t>
+          <t>-1.5815992233355388</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>0.7640222375971435</t>
+          <t>0.7613533311287086</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4351,7 +4351,7 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="64">
@@ -4387,27 +4387,27 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>1193721337.8999644400000000</t>
+          <t>1199234070.5726901240000000</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>54021847.3893154828041537</t>
+          <t>51776683.9788372120893112</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>0.4736989436110970</t>
+          <t>0.4758865359415437</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>-0.6745263403410042</t>
+          <t>1.6657117545577080</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>0.4728618706686799</t>
+          <t>0.4728461072435460</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -4416,7 +4416,7 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="65">
@@ -4452,27 +4452,27 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>1083807750.8223584676369527</t>
+          <t>1080840054.7898140441822524</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>27725609.6423535942061477</t>
+          <t>24651266.2097998962140243</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>1277.9630269941052040</t>
+          <t>1274.4636925391973473</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>-4.8141648310024183</t>
+          <t>-2.6432692389765054</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>1305.9867566995401660</t>
+          <t>1296.6654954362469886</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -4481,7 +4481,7 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="66">
@@ -4517,32 +4517,32 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>1069253786.7841127550000000</t>
+          <t>1061427306.7412964600000000</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>43209029.2762086072382175</t>
+          <t>42214189.7376783664922737</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>0.4364301170547399</t>
+          <t>0.4332356354046108</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>-3.8391408654979894</t>
+          <t>-2.5425459043061331</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>0.4495629172750414</t>
+          <t>0.4472967803066455</t>
         </is>
       </c>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="67">
@@ -4574,27 +4574,27 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>1043799394.3845735966682584</t>
+          <t>1048917900.2419877429568811</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>7730999.0898683165671155</t>
+          <t>8174744.2614683774641083</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>0.0665151584181181</t>
+          <t>0.0668413305061664</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>-3.4844309226849261</t>
+          <t>-1.8694887462597167</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>0.0679297363148188</t>
+          <t>0.0676219798563000</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4603,7 +4603,7 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="68">
@@ -4639,32 +4639,32 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>971463395.1974062978635984</t>
+          <t>962710485.1178215880980754</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>9721440.9856041665907245</t>
+          <t>9113997.3973329651846695</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>0.5493715757267423</t>
+          <t>0.5444217237545650</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>-1.9424160333784621</t>
+          <t>-0.2628126707429154</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>0.5506830042304253</t>
+          <t>0.5499373486670961</t>
         </is>
       </c>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="69">
@@ -4690,38 +4690,38 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1214526120.0344640000000000</t>
+          <t>1214684893.7497473000000000</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>954345596.6503831522625351</t>
+          <t>956603267.4592154758091895</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>63445489.8588118133857743</t>
+          <t>58106757.9307331695864272</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>0.7857760989309165</t>
+          <t>0.7875320359885018</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>-0.0855752846678216</t>
+          <t>1.5592600444157856</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>0.7847652286707520</t>
+          <t>0.7850781184311289</t>
         </is>
       </c>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="70">
@@ -4747,7 +4747,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1519229293.8326400000000000</t>
+          <t>1519244275.4994400000000000</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4757,27 +4757,27 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>951776872.6014462734626158</t>
+          <t>951106085.1923675402162997</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>14007124.9344268512894152</t>
+          <t>12830259.7133575488821977</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>0.6264866511363459</t>
+          <t>0.6260389461593980</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>-0.9162540514067228</t>
+          <t>0.3520950395419311</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>0.6192038847170982</t>
+          <t>0.6187748747585722</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -4786,13 +4786,13 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>wbnb</t>
+          <t>eos</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -4802,54 +4802,62 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>WBNB</t>
+          <t>EOS</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Wrapped BNB</t>
+          <t>EOS</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1582884.5398480400000000</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr"/>
+          <t>1555739230.6061000000000000</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2100000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>950892872.4217079056947832</t>
+          <t>923870272.6281276354038847</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>11243355.0300678220063358</t>
+          <t>137794182.2510148546485712</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>600.7341966414022050</t>
+          <t>0.5938464843289947</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>-0.9314445701494050</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr"/>
+          <t>7.8356742863510676</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>0.5905254766448291</t>
+        </is>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>https://bscscan.com/token/0xbb4CdB9CBd36B01bD1cBaEBF2De08d9173bc095c</t>
+          <t>https://bloks.io/</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>eos</t>
+          <t>usual-usd</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -4859,62 +4867,54 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>EOS</t>
+          <t>USD0</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>EOS</t>
+          <t>Usual USD</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1555708008.4996000000000000</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>2100000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>898876668.3664447000000000</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>939381108.3260441224465711</t>
+          <t>896443286.3304420507741820</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>131003662.0506341024543419</t>
+          <t>1348705.9199999998561367</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>0.6038286768427892</t>
+          <t>0.9972928632796478</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>8.9905049361011250</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>0.5883888384081505</t>
-        </is>
-      </c>
+          <t>-0.0412787913723392</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
-          <t>https://bloks.io/</t>
+          <t>https://etherscan.io/address/0x73A15FeD60Bf67631dC6cd7Bc5B6e8da8190aCF5</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>usual-usd</t>
+          <t>bonk1</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4924,54 +4924,54 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>USD0</t>
+          <t>BONK</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Usual USD</t>
+          <t>Bonk</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>899129894.3078742000000000</t>
+          <t>77894175221082.5500000000000000</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>897098518.1013240661011999</t>
+          <t>889663158.2465115580246982</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>20088895.7235329895452453</t>
+          <t>39697530.0950368393578663</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>0.9977407311008007</t>
+          <t>0.0000114214337044</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>-0.0023119135026575</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>https://etherscan.io/address/0x73A15FeD60Bf67631dC6cd7Bc5B6e8da8190aCF5</t>
-        </is>
-      </c>
+          <t>1.6017145127065166</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>0.0000113530216234</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>bonk1</t>
+          <t>binaryx-new</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4981,48 +4981,48 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>BONK</t>
+          <t>FORM</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Bonk</t>
+          <t>Four</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>77894175221082.5500000000000000</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr"/>
+          <t>381867255.1445740000000000</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>580000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>885864781.8351067450829436</t>
+          <t>880519521.9775759180935016</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>44949292.4845418969420259</t>
+          <t>3929166.6986101736853574</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>0.0000113726704124</t>
+          <t>2.3058262003748224</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>-0.0180219692934258</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>0.0000113374521846</t>
-        </is>
-      </c>
+          <t>4.7938621326913842</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="75">
@@ -5054,27 +5054,27 @@
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>876926157.9498841890478749</t>
+          <t>880303895.7792685277166468</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>8041436.3793050719421586</t>
+          <t>6880349.0705871056534606</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>0.0897093741246989</t>
+          <t>0.0900549160427776</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>-0.4753013880346093</t>
+          <t>1.7945693397404667</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>0.0894557249361637</t>
+          <t>0.0894050417031447</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -5083,7 +5083,7 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="76">
@@ -5115,32 +5115,32 @@
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>872215392.1541441497312826</t>
+          <t>874659863.1400057228904559</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>33186784.3344792876540820</t>
+          <t>31105394.4142914264253163</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>0.1786462271684566</t>
+          <t>0.1791469011108969</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>-0.7946211490562297</t>
+          <t>0.6821100066324752</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>0.1793161245785532</t>
+          <t>0.1789644019974375</t>
         </is>
       </c>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="77">
@@ -5176,27 +5176,27 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>870536980.8628373050907274</t>
+          <t>873766230.7869549691245926</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>45836680.4466174893752513</t>
+          <t>46127859.3840363062726192</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>8.7958851480641705</t>
+          <t>8.8285134132284844</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>-0.0935746096683801</t>
+          <t>1.0539296652426328</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>8.7784719504925445</t>
+          <t>8.7864190615826733</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -5205,13 +5205,13 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>binaryx-new</t>
+          <t>quant</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -5221,54 +5221,62 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>FORM</t>
+          <t>QNT</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Four</t>
+          <t>Quant</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>381867255.1445740000000000</t>
+          <t>12072738.0000000000000000</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>580000000.0000000000000000</t>
+          <t>14881364.0000000000000000</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>864185142.9753558143632849</t>
+          <t>842221118.0749572679558842</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>3932386.2238494675215569</t>
+          <t>8570183.6955206406358085</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>2.2630511816159190</t>
+          <t>69.7622294192880909</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>1.0074385785197137</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+          <t>1.5612559842257071</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>69.5959777940008358</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0x4a220e6096b25eadb88358cb44068a3248254675</t>
+        </is>
+      </c>
       <c r="M78" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>quant</t>
+          <t>theta</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -5278,62 +5286,62 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>QNT</t>
+          <t>THETA</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Quant</t>
+          <t>Theta Network</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>12072738.0000000000000000</t>
+          <t>1000000000.0000000000000000</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>14881364.0000000000000000</t>
+          <t>1000000000.0000000000000000</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>843429263.2225833415663452</t>
+          <t>823678060.5475428000000000</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>9068450.5338910730989055</t>
+          <t>9118342.5562565025559040</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>69.8623015941026254</t>
+          <t>0.8236780605475428</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>0.6280314888356847</t>
+          <t>-0.5359946867989800</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>69.5468348416527607</t>
+          <t>0.8302442045829244</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x4a220e6096b25eadb88358cb44068a3248254675</t>
+          <t>https://explorer.thetatoken.org/</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>theta</t>
+          <t>flare</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -5343,62 +5351,58 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>THETA</t>
+          <t>FLR</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Theta Network</t>
+          <t>Flare</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1000000000.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>1000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>60983663777.0100000000000000</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>828708154.0332393000000000</t>
+          <t>816859664.8609454881909348</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>9744910.2870855192982737</t>
+          <t>8899582.8361347553898263</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>0.8287081540332393</t>
+          <t>0.0133947292482760</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>-2.8372982437670743</t>
+          <t>-0.5780801669154456</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>0.8331764878724043</t>
+          <t>0.0134336878945874</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>https://explorer.thetatoken.org/</t>
+          <t>https://flare-explorer.flare.network/</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>flare</t>
+          <t>paypal-usd</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -5408,58 +5412,58 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>FLR</t>
+          <t>PYUSD</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Flare</t>
+          <t>PayPal USD</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>60983663777.0100000000000000</t>
+          <t>802871349.4263150000000000</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>811028179.4564724563828983</t>
+          <t>801755064.9374721992919983</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>7970869.9670327943081028</t>
+          <t>7766737.7580430460935742</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>0.0132991055181932</t>
+          <t>0.9986096346698130</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>-0.4677425020187143</t>
+          <t>0.0451139468396770</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>0.0134506247341788</t>
+          <t>0.9984528844538174</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>https://flare-explorer.flare.network/</t>
+          <t>https://etherscan.io/token/0x6c3ea9036406852006290770bedfcaba0e23a0e8</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>paypal-usd</t>
+          <t>berachain</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -5469,58 +5473,54 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>PYUSD</t>
+          <t>BERA</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>PayPal USD</t>
+          <t>Berachain</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>802871349.4263150000000000</t>
+          <t>107480000.0000000000000000</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>801668858.5420229872356842</t>
+          <t>788704900.7558732265760000</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>7516012.0992107581547545</t>
+          <t>87499169.8763218282185997</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>0.9985022620558683</t>
+          <t>7.3381550126151212</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>0.0137574419923531</t>
+          <t>-5.2269563987730112</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>0.9984522729690971</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>https://etherscan.io/token/0x6c3ea9036406852006290770bedfcaba0e23a0e8</t>
-        </is>
-      </c>
+          <t>7.4692173199799842</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>berachain</t>
+          <t>lido-dao</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -5530,54 +5530,58 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>BERA</t>
+          <t>LDO</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Berachain</t>
+          <t>Lido DAO</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>107480000.0000000000000000</t>
+          <t>897877243.8587132000000000</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>796326003.0156102897520000</t>
+          <t>781379676.2433544329374375</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>89026323.6212763599313706</t>
+          <t>26765928.8534443244708133</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>7.4090621791552874</t>
+          <t>0.8702522327944304</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>-6.2214689875130021</t>
+          <t>-0.0686874201098381</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>7.5401675251296157</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr"/>
+          <t>0.8686897768444410</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0x5a98fcbea516cf06857215779fd812ca3bef1b32</t>
+        </is>
+      </c>
       <c r="M83" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>lido-dao</t>
+          <t>tether-gold</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -5587,58 +5591,58 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>LDO</t>
+          <t>XAUT</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Lido DAO</t>
+          <t>Tether Gold</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>897877243.8587132000000000</t>
+          <t>246524.0000000000000000</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>780317062.5935810025694505</t>
+          <t>766850704.4662662907722900</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>27353309.9746118470821043</t>
+          <t>5671308.6126342522331065</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>0.8690687596002477</t>
+          <t>3110.6533419312776475</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>-1.9000742496713360</t>
+          <t>-0.1033796854324168</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>0.8710360125130018</t>
+          <t>3102.1113052117993358</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x5a98fcbea516cf06857215779fd812ca3bef1b32</t>
+          <t>https://etherscan.io/token/0x4922a015c4407f87432b179bb209e125432e4a2a</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>tether-gold</t>
+          <t>nexo</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -5648,58 +5652,58 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>XAUT</t>
+          <t>NEXO</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Tether Gold</t>
+          <t>Nexo</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>246524.0000000000000000</t>
+          <t>646145839.5746847000000000</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>765659590.4938563644343640</t>
+          <t>692650683.3817263871942253</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>6025169.3466185929079873</t>
+          <t>3008086.0254431060686238</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>3105.8217069894061610</t>
+          <t>1.0719726739054031</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>-0.3050607673322401</t>
+          <t>-0.4096824416545598</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>3103.7279418698772412</t>
+          <t>1.0754648283495225</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x4922a015c4407f87432b179bb209e125432e4a2a</t>
+          <t>https://etherscan.io/token/0xb62132e35a6c13ee1ee0f84dc5d40bad8d815206</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>nexo</t>
+          <t>jito</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -5709,58 +5713,58 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>NEXO</t>
+          <t>JTO</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Nexo</t>
+          <t>Jito</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>646145839.5746847000000000</t>
+          <t>310420802.2000000000000000</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>704079373.1665961097102343</t>
+          <t>687649153.6546052887075396</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>3188781.0245416753786795</t>
+          <t>13430493.4120611782558072</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>1.0896601510737038</t>
+          <t>2.2152160833975362</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>0.4984862122315703</t>
+          <t>2.9083403595487034</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>1.0763968553549678</t>
+          <t>2.1847028308031253</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xb62132e35a6c13ee1ee0f84dc5d40bad8d815206</t>
+          <t>https://solscan.io/token/jtojtomepa8beP8AuQc6eXt5FriJwfFMwQx2v2f9mCL</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>jito</t>
+          <t>gala</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -5770,58 +5774,62 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>JTO</t>
+          <t>GALA</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Jito</t>
+          <t>Gala</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>310420802.2000000000000000</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr"/>
+          <t>43759805521.5825650000000000</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>50000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>685468164.5941109403155227</t>
+          <t>680045192.3683219439012783</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>13202182.7411278524653010</t>
+          <t>28174138.6535680303677203</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2.2081901719733103</t>
+          <t>0.0155404070987683</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>4.0431098061899553</t>
+          <t>3.5662073476538781</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>2.1777362786129459</t>
+          <t>0.0154328503663102</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/jtojtomepa8beP8AuQc6eXt5FriJwfFMwQx2v2f9mCL</t>
+          <t>https://ethplorer.io/es/address/0x15d4c048f83bd7e37d49ea4c83a07267ec4203da#chart=candlestick</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>gala</t>
+          <t>tezos</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -5831,62 +5839,58 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>GALA</t>
+          <t>XTZ</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Gala</t>
+          <t>Tezos</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>43759808799.6019300000000000</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>50000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>1036889881.7602220000000000</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>680364927.7310300235442452</t>
+          <t>678733945.6015046215045084</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>34356457.6636185121780994</t>
+          <t>4625988.2994441442428015</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>0.0155477125333605</t>
+          <t>0.6545863331690414</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>0.1932679511775867</t>
+          <t>-0.0339107676627609</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>0.0153649025618433</t>
+          <t>0.6546292767800348</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>https://ethplorer.io/es/address/0x15d4c048f83bd7e37d49ea4c83a07267ec4203da#chart=candlestick</t>
+          <t>https://tzkt.io/</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>tezos</t>
+          <t>the-sandbox</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -5896,58 +5900,58 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>XTZ</t>
+          <t>SAND</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Tezos</t>
+          <t>The Sandbox</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>1036876078.8643710000000000</t>
+          <t>2481357126.2233224000000000</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>678818981.6070353497686342</t>
+          <t>673817278.8508059835661567</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>4993012.6869089878637055</t>
+          <t>11669290.1879492782682715</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>0.6546770587575958</t>
+          <t>0.2715519147686613</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>-0.5271791681415639</t>
+          <t>1.6203834604969798</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>0.6547043856052576</t>
+          <t>0.2709836052314141</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>https://tzkt.io/</t>
+          <t>https://etherscan.io/token/0x3845badAde8e6dFF049820680d1F14bD3903a5d0</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>the-sandbox</t>
+          <t>bittorrent</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -5957,58 +5961,58 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>SAND</t>
+          <t>BTTOLD</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>The Sandbox</t>
+          <t>BitTorrent [New]</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2481357126.2233224000000000</t>
+          <t>986061142857000.0000000000000000</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>673989427.5158484127737979</t>
+          <t>665111326.8744733552470000</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>13243734.2601066921811856</t>
+          <t>868495.9620615237787550</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>0.2716212915879926</t>
+          <t>0.0000006745132710</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>0.1578686978249370</t>
+          <t>0.0731058347261706</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>0.2707712609779487</t>
+          <t>0.0000006755091103</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x3845badAde8e6dFF049820680d1F14bD3903a5d0</t>
+          <t>https://tronscan.org/#/token/1002000</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>bittorrent</t>
+          <t>pax-gold</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -6018,58 +6022,58 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>BTTOLD</t>
+          <t>PAXG</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>BitTorrent [New]</t>
+          <t>PAX Gold</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>986061142857000.0000000000000000</t>
+          <t>210371.2200000000000000</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>662896208.4566578475943000</t>
+          <t>657904697.3275755032443464</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>964178.7937731921564321</t>
+          <t>43585587.8894359584595505</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>0.0000006722668399</t>
+          <t>3127.3512476068518462</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>-0.3983042931841228</t>
+          <t>0.5126829493593221</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>0.0000006754789241</t>
+          <t>3122.1847270160477491</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>https://tronscan.org/#/token/1002000</t>
+          <t>https://etherscan.io/token/0x45804880de22913dafe09f4980848ece6ecbaf78</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>pax-gold</t>
+          <t>iota</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -6079,58 +6083,58 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>PAXG</t>
+          <t>IOTA</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>PAX Gold</t>
+          <t>IOTA</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>210371.2200000000000000</t>
+          <t>3688810566.0000000000000000</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>658968358.7340295753568244</t>
+          <t>638583275.6180600772409038</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>43893164.4126756440356279</t>
+          <t>8402324.3017096057937614</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>3132.4073641538494446</t>
+          <t>0.1731135996800493</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>0.7502458435500204</t>
+          <t>1.0508623849287444</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>3120.1892375105473421</t>
+          <t>0.1733588274375190</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x45804880de22913dafe09f4980848ece6ecbaf78</t>
+          <t>https://thetangle.org/</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>iota</t>
+          <t>bitcoin-sv</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -6140,58 +6144,58 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>IOTA</t>
+          <t>BSV</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>IOTA</t>
+          <t>Bitcoin SV</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>3688810566.0000000000000000</t>
+          <t>19844809.3750000000000000</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>637384765.0071368569770990</t>
+          <t>634732366.0605547092310184</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>8655888.5717021311668541</t>
+          <t>6289133.1045184221306940</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>0.1727886953268765</t>
+          <t>31.9848054000546281</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>-0.5656167906202642</t>
+          <t>2.3130520485473293</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>0.1734645905410681</t>
+          <t>31.9120204550091855</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>https://thetangle.org/</t>
+          <t>https://bsvexplorer.io/</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>bitcoin-sv</t>
+          <t>curve-dao-token</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -6201,58 +6205,62 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>BSV</t>
+          <t>CRV</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Bitcoin SV</t>
+          <t>Curve DAO Token</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>19844753.1250000000000000</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr"/>
+          <t>1307677861.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3030303030.2990000000000000</t>
+        </is>
+      </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>633674877.0049848252132959</t>
+          <t>626937381.9589419566087263</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>6808570.8239188279123292</t>
+          <t>36098765.4550325365123296</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>31.9316079677854307</t>
+          <t>0.4794280003176883</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>-0.3146607037735575</t>
+          <t>-0.9122635749065849</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>31.9246053866936951</t>
+          <t>0.4823501414497256</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>https://bsvexplorer.io/</t>
+          <t>https://etherscan.io/token/0xD533a949740bb3306d119CC777fa900bA034cd52</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>curve-dao-token</t>
+          <t>kaia</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -6262,62 +6270,58 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>CRV</t>
+          <t>KAIA</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Curve DAO Token</t>
+          <t>Kaia</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1307661214.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>3030303030.2990000000000000</t>
-        </is>
-      </c>
+          <t>5966455361.8200000000000000</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>627354773.7188190044687594</t>
+          <t>615602294.8735102176225042</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>37143185.2960708810971040</t>
+          <t>3905758.6575596325297607</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>0.4797532931330171</t>
+          <t>0.1031772229140968</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>-1.5518680076327210</t>
+          <t>1.2404690343101225</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>0.4827899417720555</t>
+          <t>0.1031359067550185</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xD533a949740bb3306d119CC777fa900bA034cd52</t>
+          <t>https://www.kaiascan.io/</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>kaia</t>
+          <t>flow</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -6327,52 +6331,52 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>KAIA</t>
+          <t>FLOW</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Kaia</t>
+          <t>Flow</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>5966455361.8200000000000000</t>
+          <t>1572540589.3190167000000000</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>615611382.4723362714061124</t>
+          <t>603982786.9653913847294747</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>4330615.3316225324456004</t>
+          <t>7322659.8909191019537538</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>0.1031787460292925</t>
+          <t>0.3840808886382666</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>0.0930973003800359</t>
+          <t>1.5962620526860769</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>0.1030482548852833</t>
+          <t>0.3824434500533655</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>https://www.kaiascan.io/</t>
+          <t>https://flowscan.org/</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="97">
@@ -6398,7 +6402,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>301835405.9816226000000000</t>
+          <t>301827011.9503255500000000</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -6408,27 +6412,27 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>602971122.7621005997221797</t>
+          <t>603256598.4201746924280772</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>41263298.8620870778775242</t>
+          <t>38814305.7279621063202662</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>1.9976818849370269</t>
+          <t>1.9986832673526854</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>-0.2616449056017938</t>
+          <t>0.9145199297703079</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>2.0071109066769971</t>
+          <t>2.0078668556112535</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -6437,13 +6441,13 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>flow</t>
+          <t>helium</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -6453,58 +6457,62 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>FLOW</t>
+          <t>HNT</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Flow</t>
+          <t>Helium</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>1572540589.3190167000000000</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr"/>
+          <t>179760925.5581076000000000</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>223000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>601698908.4465558868337893</t>
+          <t>580993082.2828975998660789</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>7453219.8795418599666173</t>
+          <t>4344333.3046030776490347</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>0.3826285391508524</t>
+          <t>3.2320321030784411</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>-0.0570429224120130</t>
+          <t>4.2595674482531478</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>0.3822625240252177</t>
+          <t>3.2202984606747311</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>https://flowscan.org/</t>
+          <t>https://explorer.helium.com/</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>helium</t>
+          <t>zcash</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -6514,62 +6522,62 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>HNT</t>
+          <t>ZEC</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Helium</t>
+          <t>Zcash</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>179760925.5581076000000000</t>
+          <t>15886821.0000000000000000</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>223000000.0000000000000000</t>
+          <t>21000000.0000000000000000</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>577243810.8613764417435043</t>
+          <t>577975481.8337583752467905</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>4658879.2649954974917703</t>
+          <t>7250480.9315876974521080</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>3.2111751153327410</t>
+          <t>36.3808141247237805</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>3.5839280481133219</t>
+          <t>1.6159434721833690</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>3.2038076719185671</t>
+          <t>36.0910180312829565</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>https://explorer.helium.com/</t>
+          <t>https://explorer.zcha.in/</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>zcash</t>
+          <t>ethereum-name-service</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -6579,62 +6587,62 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>ZEC</t>
+          <t>ENS</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Zcash</t>
+          <t>Ethereum Name Service</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>15886821.0000000000000000</t>
+          <t>35599404.0400000000000000</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>21000000.0000000000000000</t>
+          <t>100000000.0000000000000000</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>575776967.8990471133680497</t>
+          <t>568828997.7816418592318523</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>7555036.1863348790657646</t>
+          <t>22229840.7220505726463294</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>36.2424281043417757</t>
+          <t>15.9786101234306466</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>0.6166750864665108</t>
+          <t>1.4849730655537068</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>36.0653319432336121</t>
+          <t>15.9097330924115601</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>https://explorer.zcha.in/</t>
+          <t>https://etherscan.io/token/0xC18360217D8F7Ab5e7c516566761Ea12Ce7F9D72</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ethereum-name-service</t>
+          <t>floki-inu</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -6644,56 +6652,56 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ENS</t>
+          <t>FLOKI</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Ethereum Name Service</t>
+          <t>FLOKI</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>35599404.0400000000000000</t>
+          <t>9626637864609.9200000000000000</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>100000000.0000000000000000</t>
+          <t>0.0000000000000000</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>569792890.0385989300074013</t>
+          <t>564432126.5460840580509535</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>23906502.0200030915198407</t>
+          <t>38723854.6758202467034459</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>16.0056862018917924</t>
+          <t>0.0000586323215316</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>-0.1551305279985365</t>
+          <t>1.3611219601125127</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>15.9187589996166714</t>
+          <t>0.0000581594769755</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xC18360217D8F7Ab5e7c516566761Ea12Ce7F9D72</t>
+          <t>https://bscscan.com/token/0xfb5b838b6cfeedc2873ab27866079ac55363d37e</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
   </sheetData>

--- a/src/static/xlsx/request_api_xlsx.xlsx
+++ b/src/static/xlsx/request_api_xlsx.xlsx
@@ -533,27 +533,27 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1640248960295.1369090349726480</t>
+          <t>1641207194690.0496751118614856</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>5480192765.2022061629166276</t>
+          <t>5481135534.0580898928877092</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>82656.5658353419143880</t>
+          <t>82704.8538490923053636</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.3267271217607228</t>
+          <t>0.4735418379954891</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>82855.0591459532873009</t>
+          <t>82865.4301975738748998</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="3">
@@ -594,27 +594,27 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>219789619617.6456165204498446</t>
+          <t>220337252974.8080123838024198</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>4143727965.9638486223119721</t>
+          <t>4175180210.7943098475887076</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1821.6453115385049702</t>
+          <t>1826.1841689206343992</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.1441008874874965</t>
+          <t>0.4008498122672161</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1822.7562747306736832</t>
+          <t>1822.5464876923115440</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="4">
@@ -655,27 +655,27 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>144572826467.6962036678813043</t>
+          <t>144586473851.1634674818780778</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>16843129596.5090408349064438</t>
+          <t>16889414674.7189513373069233</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.0027082187888486</t>
+          <t>1.0028028724239883</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.0222109053592891</t>
+          <t>0.0384470409738277</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>1.0002888505983135</t>
+          <t>1.0002822876053214</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="5">
@@ -720,27 +720,27 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>125186112383.7745678039314930</t>
+          <t>125766898323.9507969950387880</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1117309220.3098423883560197</t>
+          <t>1135251352.9092981969984035</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2.1507535863850185</t>
+          <t>2.1607317494573460</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>1.4926033064057195</t>
+          <t>1.6874075688239753</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2.1572259774512235</t>
+          <t>2.1582413351714459</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="6">
@@ -785,27 +785,27 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>87021319706.7397742896223370</t>
+          <t>87094124885.8377206369660350</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>232256040.5357346756022673</t>
+          <t>229928302.6426411631625929</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>604.2860585622207939</t>
+          <t>604.7916261043849145</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.4175229073696857</t>
+          <t>0.1636104082446619</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>605.2224401109413875</t>
+          <t>605.3684300075688819</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="7">
@@ -846,27 +846,27 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>64516403178.5522130215043313</t>
+          <t>64667504451.9554172585768273</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>949037846.0353344543844363</t>
+          <t>953154026.3852152837637849</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>125.9364659533555578</t>
+          <t>126.2314166858194739</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0.8281400814038677</t>
+          <t>1.1080568048974445</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>124.8376673155124758</t>
+          <t>124.9012036470155358</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -875,7 +875,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="8">
@@ -907,27 +907,27 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>60276486109.2381032593167255</t>
+          <t>60234813484.9852638176274960</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2624630853.4774269215480480</t>
+          <t>2637758779.9406141599200162</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.0006637471081418</t>
+          <t>0.9999719303313459</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>-0.0252927451770612</t>
+          <t>-0.0169607808786054</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>1.0014652898001309</t>
+          <t>1.0014927744932953</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="9">
@@ -968,27 +968,27 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>25302161517.1315210857265727</t>
+          <t>25346141527.2654701328672700</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>408087512.9763207928742020</t>
+          <t>408594154.5396917389095039</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.1702171430793463</t>
+          <t>0.1705130131247783</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>1.0409643626036639</t>
+          <t>1.3074862421276879</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.1695262215959406</t>
+          <t>0.1695868704628094</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="10">
@@ -1033,27 +1033,27 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>23656821536.7250640811093821</t>
+          <t>23691787244.0958637037073023</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>225081866.7667561730817708</t>
+          <t>226038813.7367630240289191</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.6712658646912393</t>
+          <t>0.6722580218902258</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.3753428199927294</t>
+          <t>0.5486569237491160</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.6733334287048685</t>
+          <t>0.6732855680187255</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="11">
@@ -1094,27 +1094,27 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>22056184654.8066386735893122</t>
+          <t>22064228294.1331864591042335</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>208562739.1102299781984939</t>
+          <t>208148562.0900334259472639</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.2321842127481047</t>
+          <t>0.2322688876859461</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>-1.1452868660672391</t>
+          <t>-0.9697758923119343</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.2316784776949375</t>
+          <t>0.2315697321919429</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1123,7 +1123,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="12">
@@ -1155,27 +1155,27 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>16957421840.3914232582453571</t>
+          <t>16968716904.4478553023259903</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>5189605.3128159373182312</t>
+          <t>4986223.6021952405444151</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1809.7867358536607389</t>
+          <t>1810.9922054882756851</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>-0.4914263070772036</t>
+          <t>-0.3024847172370749</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>1822.7942491484253393</t>
+          <t>1821.6633295307420998</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1184,7 +1184,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="13">
@@ -1216,27 +1216,27 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10651186259.2910045703517397</t>
+          <t>10659986060.5154514315835009</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>14127275.7564902783925246</t>
+          <t>14141420.4807653262454303</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>82517.8211184659228843</t>
+          <t>82585.9957241520785385</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0.6155921832794222</t>
+          <t>0.7056720712428559</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>82969.4758358902328668</t>
+          <t>82965.3492143456395151</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="14">
@@ -1277,32 +1277,32 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>9529023335.0241017484849028</t>
+          <t>9643303953.7450280165809951</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>114504995.7210948054515139</t>
+          <t>120415195.6230400166611299</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>3.8353238124411245</t>
+          <t>3.8813204652848511</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2.2170388386016913</t>
+          <t>2.9488938028714850</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>3.7755013673543667</t>
+          <t>3.7812164708104158</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="15">
@@ -1334,27 +1334,27 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>8954351677.3079132027220047</t>
+          <t>8967880690.4364066445444603</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>127343000.2173266557021733</t>
+          <t>126540504.6246521854720086</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>13.6270766701416135</t>
+          <t>13.6476656425002198</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>0.8089673300476612</t>
+          <t>1.1223525323797777</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>13.6072242169819494</t>
+          <t>13.6122151709565612</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1363,7 +1363,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="16">
@@ -1395,27 +1395,27 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>8872243688.0512987094671505</t>
+          <t>8872512198.8648064386231368</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>4803401.8501467731925831</t>
+          <t>4810508.7339042312507542</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>9.6036975170578269</t>
+          <t>9.6039881646914644</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0.2485938492213905</t>
+          <t>0.2886441149277279</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>9.5399946069190810</t>
+          <t>9.5403695804025794</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="17">
@@ -1460,27 +1460,27 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>8290250469.9571153235708102</t>
+          <t>8296295563.3303270159417646</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>48056494.4226127537360642</t>
+          <t>48242342.1152208425165959</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0.2692760848567299</t>
+          <t>0.2694724358695287</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>1.3958855702636047</t>
+          <t>1.5006890110047166</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0.2682149341125536</t>
+          <t>0.2684348841122614</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1489,7 +1489,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="18">
@@ -1525,27 +1525,27 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>7973734405.4716769213739920</t>
+          <t>7992201792.6457126562201759</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>118493898.7587431327550139</t>
+          <t>118897745.6813084345326626</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>19.2207949751910327</t>
+          <t>19.2653108625469041</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>-3.1819056716832420</t>
+          <t>-2.9044540956503010</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>19.5221445153987295</t>
+          <t>19.4972809509271186</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1554,7 +1554,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="19">
@@ -1590,27 +1590,27 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>7505387941.3525617497911146</t>
+          <t>7517552122.1259767378015129</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>523267923.8588717698574329</t>
+          <t>524339592.9475637743247231</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2.3677460030136415</t>
+          <t>2.3715834715937131</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>3.8916846880729167</t>
+          <t>4.1868446800993669</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2.3634653447219478</t>
+          <t>2.3653152034463642</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1619,7 +1619,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="20">
@@ -1655,27 +1655,27 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>7398849788.8317374386178692</t>
+          <t>7412444842.7264710448046345</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>66746027.4177632005186307</t>
+          <t>66840713.9505673332621054</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.0000125563676911</t>
+          <t>0.0000125794394523</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>-0.3285391408749847</t>
+          <t>-0.2454300059626578</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0.0000126204515749</t>
+          <t>0.0000126198953745</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="21">
@@ -1720,27 +1720,27 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>7208477074.0156110196868859</t>
+          <t>7217873319.0679865555636077</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>72530990.1723071204237280</t>
+          <t>72366710.8891387591110981</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0.1707385030999834</t>
+          <t>0.1709610606247602</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>0.9004175680069230</t>
+          <t>0.7944873219921624</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.1714253891323879</t>
+          <t>0.1715412438448525</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1749,7 +1749,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="22">
@@ -1785,27 +1785,27 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>6522591761.0388751037396584</t>
+          <t>6527147267.3570225263640705</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>152449381.9062380666913037</t>
+          <t>151680343.9018264926741559</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>86.3250924408412675</t>
+          <t>86.3853835825279086</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>1.0692790344763196</t>
+          <t>1.1453841547302622</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>85.8598382874845881</t>
+          <t>85.8950465754468879</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1814,7 +1814,7 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="23">
@@ -1846,27 +1846,27 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>6228680426.7216008367928580</t>
+          <t>6242045410.1634044404447100</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>64995038.9283635314798835</t>
+          <t>65207913.0355031587340651</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>4.0917133336128293</t>
+          <t>4.1004929911335035</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>0.7655898433175277</t>
+          <t>1.0566782410823703</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>4.0852526394472472</t>
+          <t>4.0855383358222546</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1875,7 +1875,7 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="24">
@@ -1907,22 +1907,22 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>6141160834.4786551312441554</t>
+          <t>6140514860.9344141927812286</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>8088748.7562500001431572</t>
+          <t>8084525.0166666662752511</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1819.4319988901549775</t>
+          <t>1819.2406173307875905</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>-0.2459166363669385</t>
+          <t>-0.2476023654848287</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="25">
@@ -1968,27 +1968,27 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>6107873472.7340724096157919</t>
+          <t>6111778234.6691275847676367</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>33493719.1276047662143918</t>
+          <t>33448889.4983663504710140</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>6.2659100515826167</t>
+          <t>6.2699158462617503</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>0.2855341780067822</t>
+          <t>0.5536950603107917</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>6.2216746969693391</t>
+          <t>6.2208075321745470</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -1997,7 +1997,7 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="26">
@@ -2033,27 +2033,27 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>6021817337.0736931400883759</t>
+          <t>6032029266.7718930453094159</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>40198550.1483949965109614</t>
+          <t>40840706.4935694634805021</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>303.3784828228326383</t>
+          <t>303.8929586969943791</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0.1311852222278608</t>
+          <t>0.5132070457444577</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>304.6748856736965572</t>
+          <t>304.7139250436769518</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="27">
@@ -2094,22 +2094,22 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>5481735598.3273236000000000</t>
+          <t>5481899749.2262106400000000</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>67815971.9798920045292426</t>
+          <t>67146784.3022070729643934</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>4.5681129986061030</t>
+          <t>4.5682497910218422</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>-0.7814571333870057</t>
+          <t>-0.7622214144252912</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
@@ -2119,7 +2119,7 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="28">
@@ -2151,27 +2151,27 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>5363979615.6309226098688028</t>
+          <t>5364602397.9696044243195854</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>56060096.5772389049185444</t>
+          <t>56039650.7199412398852815</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0.9997384926459668</t>
+          <t>0.9998545668149860</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0.0684516764876065</t>
+          <t>0.0811486901188504</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0.9994441698062070</t>
+          <t>0.9994604056215556</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2180,7 +2180,7 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="29">
@@ -2212,22 +2212,22 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>5247412114.9872493760720054</t>
+          <t>5247501502.8275667023314166</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>28173942.8783287607303762</t>
+          <t>28905968.4831256010673851</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>1.0000223435263763</t>
+          <t>1.0000393785591883</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>0.0387886411593920</t>
+          <t>0.0284599143268554</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
@@ -2237,7 +2237,7 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="30">
@@ -2273,22 +2273,22 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>5229989792.7255213626504517</t>
+          <t>5237699589.2823942380839243</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>85140186.2176361111757082</t>
+          <t>85324025.1970592718276434</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0.7720886207575817</t>
+          <t>0.7732267962466041</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>-4.6202171898941902</t>
+          <t>-4.4744576246037692</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
@@ -2298,7 +2298,7 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="31">
@@ -2334,27 +2334,27 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>4233479417.2649526225101300</t>
+          <t>4237394546.0899766238032760</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>16381054.6406006159522365</t>
+          <t>16335899.8803100632374246</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>12.6778141852686785</t>
+          <t>12.6895386489692982</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>-0.9540186767550871</t>
+          <t>-1.2508622647390257</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>12.6667666383796467</t>
+          <t>12.6620661176525367</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2363,7 +2363,7 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="32">
@@ -2395,27 +2395,27 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>4001361012.7361642088676773</t>
+          <t>4005469081.4247078064784749</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>29483511.1379636265421097</t>
+          <t>29658756.0723905313132113</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>216.9142151453673896</t>
+          <t>217.1369139952093219</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>1.4190658954658581</t>
+          <t>1.7031686680475666</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>216.1829491143301462</t>
+          <t>216.3557465248735195</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2424,7 +2424,7 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="33">
@@ -2456,27 +2456,27 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>3744779234.8347098424508687</t>
+          <t>3752579971.8915311454245716</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>39387583.0790072951435306</t>
+          <t>39387509.1314725576344581</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>5.9583367682970804</t>
+          <t>5.9707485596232859</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>0.4524776360392461</t>
+          <t>0.6755184647686651</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>5.9726785269465495</t>
+          <t>5.9732306149136744</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2485,7 +2485,7 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="34">
@@ -2517,27 +2517,27 @@
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>3243768059.3870029965449108</t>
+          <t>3247459454.5931240530693347</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>39151839.3709379637696644</t>
+          <t>39045032.8963454030588848</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>5.3700113318458466</t>
+          <t>5.3761223834760108</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>3.5186237213487238</t>
+          <t>3.7191686200787432</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>5.2630178513897298</t>
+          <t>5.2710266541630569</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="35">
@@ -2578,27 +2578,27 @@
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>3159685052.9563588262964288</t>
+          <t>3170749559.1958473538077664</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>93769595.6065129388523226</t>
+          <t>94372482.6971327126599334</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2.6365941406364706</t>
+          <t>2.6458269001777343</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>3.9020762877010692</t>
+          <t>4.2943883162555014</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>2.6430199712880010</t>
+          <t>2.6446198956527197</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2607,7 +2607,7 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="36">
@@ -2643,27 +2643,27 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2970917462.3681817109846583</t>
+          <t>2973819546.1643635286852595</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>293124002.7892667422708149</t>
+          <t>293202495.8599503843554825</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>0.0000070620128147</t>
+          <t>0.0000070689112066</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>-1.7151985489490831</t>
+          <t>-1.6858940818562461</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0.0000071289588759</t>
+          <t>0.0000071220496552</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="37">
@@ -2704,27 +2704,27 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2907341998.8815879100000000</t>
+          <t>2905169116.5169184340000000</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>1892286.1632043386376873</t>
+          <t>1891567.5333188289658006</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>48.4556999813597985</t>
+          <t>48.4194852752819739</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>0.3954752162795330</t>
+          <t>0.3710225429166277</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>48.4177190707576101</t>
+          <t>48.4178125713827249</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2733,7 +2733,7 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="38">
@@ -2769,27 +2769,27 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2789594008.3855256475225048</t>
+          <t>2797454361.2166424025848240</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>42407317.7907458436023987</t>
+          <t>42558888.1524060532632192</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>0.1049841987191013</t>
+          <t>0.1052800169783690</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>4.8864392065793577</t>
+          <t>5.0175264521918871</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>0.1052868202110110</t>
+          <t>0.1053362722412948</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -2798,7 +2798,7 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="39">
@@ -2834,27 +2834,27 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2666121460.4147574419896050</t>
+          <t>2667981155.8194357292965915</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>59334727.5187505977239135</t>
+          <t>59451730.6134839602570197</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>0.7923814638305716</t>
+          <t>0.7929341723957728</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>-1.2799322962954254</t>
+          <t>-1.3165212515854354</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>0.8067489382076848</t>
+          <t>0.8062418143289097</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -2863,13 +2863,13 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>first-digital-usd</t>
+          <t>internet-computer</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2879,54 +2879,58 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>FDUSD</t>
+          <t>ICP</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>First Digital USD</t>
+          <t>Internet Computer</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2588088088.1678160000000000</t>
+          <t>482076964.6058819000000000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2583488274.1485271788557057</t>
+          <t>2584064946.9123296479551339</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>873485697.5631510120362890</t>
+          <t>29953830.6836900180575520</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>0.9982226980448161</t>
+          <t>5.3602746794278190</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>-0.0513171732011543</t>
+          <t>0.5558203395464523</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>0.9985858621714304</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr"/>
+          <t>5.3582383013889731</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>https://www.dfinityexplorer.org/#/</t>
+        </is>
+      </c>
       <c r="M40" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>internet-computer</t>
+          <t>first-digital-usd</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2936,52 +2940,48 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ICP</t>
+          <t>FDUSD</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Internet Computer</t>
+          <t>First Digital USD</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>482076964.6058819000000000</t>
+          <t>2588088088.1678160000000000</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2582013199.2360279157632581</t>
+          <t>2583280325.3536634597306508</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>29953887.8876887618785226</t>
+          <t>868389933.0918235573069692</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>5.3560186211073823</t>
+          <t>0.9981423496224365</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>0.3059181030360783</t>
+          <t>-0.0511699295400844</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>5.3577959542649658</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>https://www.dfinityexplorer.org/#/</t>
-        </is>
-      </c>
+          <t>0.9981270091527033</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="42">
@@ -3013,27 +3013,27 @@
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2532221474.7553823737799940</t>
+          <t>2536838011.8351593535535569</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>74422963.5435014039149676</t>
+          <t>74670341.4620100727813867</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>0.8015622929925860</t>
+          <t>0.8030236351714761</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>0.9019816769209038</t>
+          <t>1.1345682941149042</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>0.7992064206792425</t>
+          <t>0.7993976751103486</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="43">
@@ -3078,27 +3078,27 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2521872817.7973148218595475</t>
+          <t>2519332462.8535555526326694</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>22548585.6804606441936586</t>
+          <t>22675359.0339694392344875</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>16.6654186833011380</t>
+          <t>16.6486311282574543</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>0.4574952869183328</t>
+          <t>0.6334265588766031</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>16.6755819626368201</t>
+          <t>16.6735745115257237</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="44">
@@ -3139,27 +3139,27 @@
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2495770052.6066782708289652</t>
+          <t>2502723147.5483450756625085</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>121736746.8274383543940574</t>
+          <t>121158203.7110956398054205</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>165.3451761030172454</t>
+          <t>165.8058197854711423</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>-1.7725905166855250</t>
+          <t>-1.5121748719392549</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>166.5432984205594735</t>
+          <t>166.4288144080013377</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3168,7 +3168,7 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="45">
@@ -3200,27 +3200,27 @@
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2128549485.6387426687338750</t>
+          <t>2132526451.9658020452506153</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>29753865.7684062830469994</t>
+          <t>29699721.9408520332091511</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>0.2048238149194853</t>
+          <t>0.2052065062406928</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2.0138629420681554</t>
+          <t>2.3144038721154221</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>0.2032011224463736</t>
+          <t>0.2033455771216895</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3229,7 +3229,7 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="46">
@@ -3265,27 +3265,27 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2043021774.2744651994250689</t>
+          <t>2043751583.7729966744552976</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>63099908.4252861921509914</t>
+          <t>63012161.6371609577954762</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>10.2151380314606083</t>
+          <t>10.2187870893698504</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>1.7231984307823092</t>
+          <t>1.8075082998377992</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>10.1229342006681727</t>
+          <t>10.1318337346275653</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3294,7 +3294,7 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="47">
@@ -3326,32 +3326,32 @@
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1971238836.0240466259375000</t>
+          <t>1974168246.4874274039062500</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>67764752.3154173469315915</t>
+          <t>67914321.7716623383926855</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>0.3729213287187082</t>
+          <t>0.3734755181058095</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>1.1708623663664272</t>
+          <t>1.1859247625275085</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>0.3667955159450927</t>
+          <t>0.3668450345000519</t>
         </is>
       </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="48">
@@ -3387,27 +3387,27 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1957221777.6802743803596853</t>
+          <t>1960605547.5072636065451263</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>18599139.1132353650490500</t>
+          <t>18629481.1433605644855890</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>0.0227623520427389</t>
+          <t>0.0228017050485719</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>0.0607612811592081</t>
+          <t>0.5150139617779848</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>0.0229385402688767</t>
+          <t>0.0229428379613368</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3416,7 +3416,7 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="49">
@@ -3452,27 +3452,27 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1954152336.9872840131021680</t>
+          <t>1960187670.1666764025242768</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>47035804.0061671600730959</t>
+          <t>46406660.8190885746877611</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>228.9810104689460820</t>
+          <t>229.6882105493986732</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>0.4535633662372402</t>
+          <t>0.2282403527470067</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>229.1096893257285970</t>
+          <t>229.1538869533195157</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3481,7 +3481,7 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="50">
@@ -3513,32 +3513,32 @@
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>1915660703.8278574641191259</t>
+          <t>1917352673.0831533078970259</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>5779605.5943924387426562</t>
+          <t>5788947.7322156602417288</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>22.3201007138547657</t>
+          <t>22.3398144993427112</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>0.2999245260771432</t>
+          <t>0.4061115203931678</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>22.3944891978739027</t>
+          <t>22.3955813209491322</t>
         </is>
       </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="51">
@@ -3570,27 +3570,27 @@
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1909245121.7421487237403423</t>
+          <t>1911368024.4000523827148876</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>29441358.0594600908854448</t>
+          <t>29436573.1350510554548689</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>3.2878555132257994</t>
+          <t>3.2915113021699981</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>3.9417278124400859</t>
+          <t>3.9617395933837613</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>3.2591716937578748</t>
+          <t>3.2646917573646775</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3599,7 +3599,7 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="52">
@@ -3635,32 +3635,32 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>1823232881.2179842857605215</t>
+          <t>1829675548.5288383782389746</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>41610389.1068758081250314</t>
+          <t>41878757.4464811255003354</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>3.5216813913955795</t>
+          <t>3.5341257816944372</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>-0.4480737768579574</t>
+          <t>-0.0047057772223307</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>3.5195395914827009</t>
+          <t>3.5180997095937704</t>
         </is>
       </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="53">
@@ -3692,27 +3692,27 @@
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1792330192.6139380210552540</t>
+          <t>1794346876.4148975404160060</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>47172355.6734509989690824</t>
+          <t>47300983.9308438848192320</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2.7738304204229006</t>
+          <t>2.7769514630179134</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>1.5542248682448293</t>
+          <t>1.6424405580939327</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>2.7502121113940539</t>
+          <t>2.7510559967487288</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="54">
@@ -3753,27 +3753,27 @@
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1684291847.4368591959916100</t>
+          <t>1687107422.5141181281472516</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>42849736.1099549332144257</t>
+          <t>42938439.4111218408604520</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>4.3083767810627775</t>
+          <t>4.3155789522937679</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>0.2911445160773765</t>
+          <t>0.6140060868897444</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>4.2846138804206856</t>
+          <t>4.2848107899340939</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="55">
@@ -3818,27 +3818,27 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1668570286.4069002536231456</t>
+          <t>1672487758.0683583333113078</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>33219875.4178673293359377</t>
+          <t>33291440.4753274302483704</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>0.0643158512220787</t>
+          <t>0.0644668520678912</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>2.3546744773013661</t>
+          <t>2.2938456266575514</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>0.0647221696596319</t>
+          <t>0.0647827366234392</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="56">
@@ -3883,27 +3883,27 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>1550235234.2330097548484978</t>
+          <t>1552633403.3903020859105310</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>26187451.4052996308710397</t>
+          <t>26261152.0535042777599242</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>0.1817221541387811</t>
+          <t>0.1820032730655277</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>-0.1823212966458643</t>
+          <t>0.0012023716573866</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>0.1833944132702904</t>
+          <t>0.1833981648223011</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -3912,7 +3912,7 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="57">
@@ -3944,27 +3944,27 @@
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>1544694415.8722898297819344</t>
+          <t>1547508740.9621073660913224</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>52483961.4420920948304700</t>
+          <t>52649310.3198582177810556</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>0.3345005207937254</t>
+          <t>0.3351099573259959</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>1.2357980194365292</t>
+          <t>1.4089376116703826</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>0.3328186793963527</t>
+          <t>0.3329561775554554</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -3973,7 +3973,7 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="58">
@@ -4005,27 +4005,27 @@
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>1469087030.1278762223148295</t>
+          <t>1469108246.9620492698586157</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>6039360.5103362689241935</t>
+          <t>6024614.2243307587455224</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>17.5448250270189833</t>
+          <t>17.5450784127174201</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>-0.6719232006818787</t>
+          <t>-0.7301458205129890</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>17.6072648176085398</t>
+          <t>17.6072354503262925</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -4034,7 +4034,7 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="59">
@@ -4070,27 +4070,27 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>1441217320.2715824000000000</t>
+          <t>1444885033.7650688640000000</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>69507454.6160513006162223</t>
+          <t>69961352.4038071328457423</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>0.5004226806498550</t>
+          <t>0.5016961922795378</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>2.9765675915225626</t>
+          <t>2.7516662056286184</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>0.4910468776486858</t>
+          <t>0.4916392583513938</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -4099,7 +4099,7 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="60">
@@ -4131,27 +4131,27 @@
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>1365723645.1441229663969236</t>
+          <t>1367680428.0332902066306528</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>35754150.9048518233431641</t>
+          <t>35726625.2057730489789272</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>5.2780077835532974</t>
+          <t>5.2855700128201552</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>-0.8321805750442154</t>
+          <t>-0.8162029802605712</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>5.3202992200440066</t>
+          <t>5.3184843352990766</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -4160,7 +4160,7 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="61">
@@ -4196,27 +4196,27 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>1358814431.5054888280012678</t>
+          <t>1358888696.5070987524859802</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>428344.1711923759584146</t>
+          <t>428749.4086693298504737</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>11.0883873743447377</t>
+          <t>11.0889934019870073</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>0.5760677231937108</t>
+          <t>0.4835362915814315</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>11.0751549283705362</t>
+          <t>11.0754407970238027</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -4225,7 +4225,7 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="62">
@@ -4261,27 +4261,27 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>1308274238.4936730722929462</t>
+          <t>1311417512.5856234733158540</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>31195894.5899081827663922</t>
+          <t>31178267.6898823449769217</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>0.4861826290348447</t>
+          <t>0.4873507367731436</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>5.5870234299110543</t>
+          <t>5.5723764471883070</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>0.4788991699600357</t>
+          <t>0.4799571468436546</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -4290,7 +4290,7 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="63">
@@ -4322,27 +4322,27 @@
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>1224294268.2745694820273906</t>
+          <t>1226760960.9952483908518358</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>50579379.2002234010446696</t>
+          <t>50726490.3408559812011848</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>0.7554080657487611</t>
+          <t>0.7569300524354673</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>-1.5815992233355388</t>
+          <t>-1.3075779647283040</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>0.7613533311287086</t>
+          <t>0.7606401781332320</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4351,7 +4351,7 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="64">
@@ -4387,27 +4387,27 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>1199234070.5726901240000000</t>
+          <t>1202451897.8549062440000000</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>51776683.9788372120893112</t>
+          <t>51970838.5033055227028690</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>0.4758865359415437</t>
+          <t>0.4771634515297247</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>1.6657117545577080</t>
+          <t>2.0261258404279521</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>0.4728461072435460</t>
+          <t>0.4731253256999419</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -4416,7 +4416,7 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="65">
@@ -4452,27 +4452,27 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>1080840054.7898140441822524</t>
+          <t>1083740388.2342325489542163</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>24651266.2097998962140243</t>
+          <t>24821833.8165320025226099</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>1274.4636925391973473</t>
+          <t>1277.8835969503892071</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>-2.6432692389765054</t>
+          <t>-2.3563313609625416</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>1296.6654954362469886</t>
+          <t>1293.0421301947438959</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -4481,7 +4481,7 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="66">
@@ -4517,32 +4517,32 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>1061427306.7412964600000000</t>
+          <t>1065454198.6407229750000000</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>42214189.7376783664922737</t>
+          <t>42363835.1469279594119031</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>0.4332356354046108</t>
+          <t>0.4348792647513155</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>-2.5425459043061331</t>
+          <t>-2.5457742570267453</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>0.4472967803066455</t>
+          <t>0.4467783804775426</t>
         </is>
       </c>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="67">
@@ -4574,27 +4574,27 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>1048917900.2419877429568811</t>
+          <t>1049250389.0667149854776313</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>8174744.2614683774641083</t>
+          <t>8205801.1028391609102132</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>0.0668413305061664</t>
+          <t>0.0668625180513671</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>-1.8694887462597167</t>
+          <t>-1.8680239168657243</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>0.0676219798563000</t>
+          <t>0.0675333397869372</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4603,7 +4603,7 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="68">
@@ -4639,32 +4639,32 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>962710485.1178215880980754</t>
+          <t>962507580.9806229712757570</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>9113997.3973329651846695</t>
+          <t>9130288.7088932122511410</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>0.5444217237545650</t>
+          <t>0.5443069795798227</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>-0.2628126707429154</t>
+          <t>-0.1867011166812788</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>0.5499373486670961</t>
+          <t>0.5496917541088888</t>
         </is>
       </c>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="69">
@@ -4696,32 +4696,32 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>956603267.4592154758091895</t>
+          <t>958571455.1192458108830055</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>58106757.9307331695864272</t>
+          <t>58323126.3876530679473321</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>0.7875320359885018</t>
+          <t>0.7891523637542934</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>1.5592600444157856</t>
+          <t>1.6202273520265450</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>0.7850781184311289</t>
+          <t>0.7853673363071660</t>
         </is>
       </c>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="70">
@@ -4757,27 +4757,27 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>951106085.1923675402162997</t>
+          <t>953591446.1190479056549185</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>12830259.7133575488821977</t>
+          <t>12850981.4572102950465367</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>0.6260389461593980</t>
+          <t>0.6276748653902691</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>0.3520950395419311</t>
+          <t>0.8690354315065516</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>0.6187748747585722</t>
+          <t>0.6187259611593025</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="71">
@@ -4822,27 +4822,27 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>923870272.6281276354038847</t>
+          <t>924549006.9580034266694475</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>137794182.2510148546485712</t>
+          <t>137928056.3355700533892776</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>0.5938464843289947</t>
+          <t>0.5942827620267753</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>7.8356742863510676</t>
+          <t>7.9948121210871439</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>0.5905254766448291</t>
+          <t>0.5909263461151560</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -4851,7 +4851,7 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="72">
@@ -4898,7 +4898,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>-0.0412787913723392</t>
+          <t>-0.0437967857502329</t>
         </is>
       </c>
       <c r="K72" t="inlineStr"/>
@@ -4908,7 +4908,7 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="73">
@@ -4940,32 +4940,32 @@
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>889663158.2465115580246982</t>
+          <t>891548861.1944960000654884</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>39697530.0950368393578663</t>
+          <t>39877244.6856092719498257</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>0.0000114214337044</t>
+          <t>0.0000114456422276</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>1.6017145127065166</t>
+          <t>1.8658887951124598</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>0.0000113530216234</t>
+          <t>0.0000113577179360</t>
         </is>
       </c>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="74">
@@ -5001,28 +5001,28 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>880519521.9775759180935016</t>
+          <t>882787928.7271338279235106</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>3929166.6986101736853574</t>
+          <t>3940362.8191875655130852</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>2.3058262003748224</t>
+          <t>2.3117665021917433</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>4.7938621326913842</t>
+          <t>5.1389146807053702</t>
         </is>
       </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="75">
@@ -5054,27 +5054,27 @@
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>880303895.7792685277166468</t>
+          <t>881726841.4225415106382148</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>6880349.0705871056534606</t>
+          <t>6852152.3960048324125405</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>0.0900549160427776</t>
+          <t>0.0902004831032584</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>1.7945693397404667</t>
+          <t>2.2819502190419089</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>0.0894050417031447</t>
+          <t>0.0894596339003760</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -5083,7 +5083,7 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="76">
@@ -5115,32 +5115,32 @@
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>874659863.1400057228904559</t>
+          <t>876452745.4987871402788793</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>31105394.4142914264253163</t>
+          <t>31264594.4284945127554423</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>0.1791469011108969</t>
+          <t>0.1795141173650863</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>0.6821100066324752</t>
+          <t>0.7806243798684325</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>0.1789644019974375</t>
+          <t>0.1790127169461673</t>
         </is>
       </c>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="77">
@@ -5176,27 +5176,27 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>873766230.7869549691245926</t>
+          <t>875455769.9508351999554378</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>46127859.3840363062726192</t>
+          <t>46204096.0069090922282742</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>8.8285134132284844</t>
+          <t>8.8455844771411482</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>1.0539296652426328</t>
+          <t>1.3664865658034554</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>8.7864190615826733</t>
+          <t>8.7934507703710551</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -5205,7 +5205,7 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="78">
@@ -5241,27 +5241,27 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>842221118.0749572679558842</t>
+          <t>843164617.3574918256825774</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>8570183.6955206406358085</t>
+          <t>8580615.0454394374050595</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>69.7622294192880909</t>
+          <t>69.8403806458395623</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>1.5612559842257071</t>
+          <t>1.8361118606789153</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>69.5959777940008358</t>
+          <t>69.6649863589389351</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -5270,7 +5270,7 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="79">
@@ -5306,27 +5306,27 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>823678060.5475428000000000</t>
+          <t>825090255.4090631000000000</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>9118342.5562565025559040</t>
+          <t>9150545.1326098777901670</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>0.8236780605475428</t>
+          <t>0.8250902554090631</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>-0.5359946867989800</t>
+          <t>-0.3223483316953380</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>0.8302442045829244</t>
+          <t>0.8296908215157212</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -5335,7 +5335,7 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="80">
@@ -5367,27 +5367,27 @@
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>816859664.8609454881909348</t>
+          <t>815748307.4967140905742437</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>8899582.8361347553898263</t>
+          <t>8916528.8336567525839959</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>0.0133947292482760</t>
+          <t>0.0133765053946175</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>-0.5780801669154456</t>
+          <t>-0.4687596962762880</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>0.0134336878945874</t>
+          <t>0.0134568020841853</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="81">
@@ -5428,27 +5428,27 @@
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>801755064.9374721992919983</t>
+          <t>801762690.4410470682681000</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>7766737.7580430460935742</t>
+          <t>7767613.3753405751944598</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>0.9986096346698130</t>
+          <t>0.9986191324599388</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>0.0451139468396770</t>
+          <t>0.0457811745326145</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>0.9984528844538174</t>
+          <t>0.9984507325612567</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -5457,7 +5457,7 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="82">
@@ -5489,32 +5489,32 @@
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>788704900.7558732265760000</t>
+          <t>792133992.3010214393520000</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>87499169.8763218282185997</t>
+          <t>88079938.1624017367126109</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>7.3381550126151212</t>
+          <t>7.3700594743303074</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>-5.2269563987730112</t>
+          <t>-4.7034308815679998</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>7.4692173199799842</t>
+          <t>7.4568757377448312</t>
         </is>
       </c>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="83">
@@ -5546,27 +5546,27 @@
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>781379676.2433544329374375</t>
+          <t>781963907.7790665377340163</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>26765928.8534443244708133</t>
+          <t>26585468.3217983309878982</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>0.8702522327944304</t>
+          <t>0.8709029136527639</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>-0.0686874201098381</t>
+          <t>-0.0611823226060997</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>0.8686897768444410</t>
+          <t>0.8683877792521563</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -5575,7 +5575,7 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="84">
@@ -5607,27 +5607,27 @@
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>766850704.4662662907722900</t>
+          <t>767207208.6997688288921932</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>5671308.6126342522331065</t>
+          <t>5665416.5340699813928797</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>3110.6533419312776475</t>
+          <t>3112.0994657711574893</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>-0.1033796854324168</t>
+          <t>-0.0985896384745402</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>3102.1113052117993358</t>
+          <t>3101.3707950215277841</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -5636,7 +5636,7 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="85">
@@ -5668,27 +5668,27 @@
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>692650683.3817263871942253</t>
+          <t>692716043.1744293225867631</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>3008086.0254431060686238</t>
+          <t>3009027.2267621213127244</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>1.0719726739054031</t>
+          <t>1.0720738272189429</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>-0.4096824416545598</t>
+          <t>-0.3644110207939468</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>1.0754648283495225</t>
+          <t>1.0752977893246054</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -5697,7 +5697,7 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="86">
@@ -5729,27 +5729,27 @@
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>687649153.6546052887075396</t>
+          <t>689328171.0181693643410743</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>13430493.4120611782558072</t>
+          <t>13438681.4114001379053115</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2.2152160833975362</t>
+          <t>2.2206249263348156</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>2.9083403595487034</t>
+          <t>2.8823322321536347</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>2.1847028308031253</t>
+          <t>2.1895671607450513</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -5758,7 +5758,7 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="87">
@@ -5794,27 +5794,27 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>680045192.3683219439012783</t>
+          <t>682073294.9507409179461589</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>28174138.6535680303677203</t>
+          <t>28214455.6147880194954554</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>0.0155404070987683</t>
+          <t>0.0155867533418159</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>3.5662073476538781</t>
+          <t>3.7895790928314426</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>0.0154328503663102</t>
+          <t>0.0154614354430189</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -5823,7 +5823,7 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="88">
@@ -5855,27 +5855,27 @@
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>678733945.6015046215045084</t>
+          <t>679515144.1914802995852663</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>4625988.2994441442428015</t>
+          <t>4594132.2849918644839763</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>0.6545863331690414</t>
+          <t>0.6553397387174199</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>-0.0339107676627609</t>
+          <t>0.2383523717431396</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>0.6546292767800348</t>
+          <t>0.6547139980460938</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="89">
@@ -5916,27 +5916,27 @@
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>673817278.8508059835661567</t>
+          <t>674628377.5776187305721227</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>11669290.1879492782682715</t>
+          <t>11697732.2677569289089691</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>0.2715519147686613</t>
+          <t>0.2718787918305082</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>1.6203834604969798</t>
+          <t>1.7296246971538369</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>0.2709836052314141</t>
+          <t>0.2711383001115169</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -5945,7 +5945,7 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="90">
@@ -5977,27 +5977,27 @@
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>665111326.8744733552470000</t>
+          <t>664200063.8926383444105000</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>868495.9620615237787550</t>
+          <t>866759.9399415633490092</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>0.0000006745132710</t>
+          <t>0.0000006735891265</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>0.0731058347261706</t>
+          <t>-0.0312148993952195</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>0.0000006755091103</t>
+          <t>0.0000006754592101</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -6006,7 +6006,7 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="91">
@@ -6038,27 +6038,27 @@
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>657904697.3275755032443464</t>
+          <t>658079319.4493791258409206</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>43585587.8894359584595505</t>
+          <t>43580887.0316971563718593</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>3127.3512476068518462</t>
+          <t>3128.1813141996282849</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>0.5126829493593221</t>
+          <t>0.6020036812845043</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>3122.1847270160477491</t>
+          <t>3123.0488678173535974</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="92">
@@ -6099,27 +6099,27 @@
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>638583275.6180600772409038</t>
+          <t>639076930.0121098553281614</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>8402324.3017096057937614</t>
+          <t>8381385.3124557896662407</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>0.1731135996800493</t>
+          <t>0.1732474244957229</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>1.0508623849287444</t>
+          <t>1.2427770178238460</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>0.1733588274375190</t>
+          <t>0.1733952818441017</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -6128,7 +6128,7 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="93">
@@ -6160,27 +6160,27 @@
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>634732366.0605547092310184</t>
+          <t>635134845.9482837969501684</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>6289133.1045184221306940</t>
+          <t>6289934.9106722600451384</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>31.9848054000546281</t>
+          <t>32.0050867683521801</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>2.3130520485473293</t>
+          <t>2.4047543256910594</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>31.9120204550091855</t>
+          <t>31.9301772101136709</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -6189,7 +6189,7 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="94">
@@ -6225,27 +6225,27 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>626937381.9589419566087263</t>
+          <t>629929521.8492605763358876</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>36098765.4550325365123296</t>
+          <t>36269525.4801441155442230</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>0.4794280003176883</t>
+          <t>0.4817161325707116</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>-0.9122635749065849</t>
+          <t>-0.9146228402189618</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>0.4823501414497256</t>
+          <t>0.4823167015160085</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -6254,7 +6254,7 @@
         </is>
       </c>
       <c r="M94" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="95">
@@ -6286,27 +6286,27 @@
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>615602294.8735102176225042</t>
+          <t>618044828.8354813040505744</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>3905758.6575596325297607</t>
+          <t>3904182.0370301496324040</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>0.1031772229140968</t>
+          <t>0.1035866006457398</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>1.2404690343101225</t>
+          <t>1.6406117217702562</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>0.1031359067550185</t>
+          <t>0.1031842549244072</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -6315,7 +6315,7 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="96">
@@ -6347,27 +6347,27 @@
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>603982786.9653913847294747</t>
+          <t>604688115.9882250625751175</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>7322659.8909191019537538</t>
+          <t>7361446.8982467566311617</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>0.3840808886382666</t>
+          <t>0.3845294169799987</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>1.5962620526860769</t>
+          <t>1.8262768030850598</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>0.3824434500533655</t>
+          <t>0.3827218753583948</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -6376,7 +6376,7 @@
         </is>
       </c>
       <c r="M96" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="97">
@@ -6412,27 +6412,27 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>603256598.4201746924280772</t>
+          <t>604192008.2020432893830351</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>38814305.7279621063202662</t>
+          <t>38962922.1062806904586452</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>1.9986832673526854</t>
+          <t>2.0017824259595451</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>0.9145199297703079</t>
+          <t>0.8378996939706946</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>2.0078668556112535</t>
+          <t>2.0087839350450721</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -6441,7 +6441,7 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="98">
@@ -6477,27 +6477,27 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>580993082.2828975998660789</t>
+          <t>584083082.9055908344448669</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>4344333.3046030776490347</t>
+          <t>4369255.5231141701457097</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>3.2320321030784411</t>
+          <t>3.2492216041510443</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>4.2595674482531478</t>
+          <t>4.3736593599935697</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>3.2202984606747311</t>
+          <t>3.2219845269735515</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -6506,7 +6506,7 @@
         </is>
       </c>
       <c r="M98" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="99">
@@ -6542,27 +6542,27 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>577975481.8337583752467905</t>
+          <t>578906400.6221349658349037</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>7250480.9315876974521080</t>
+          <t>7281308.6520834133244572</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>36.3808141247237805</t>
+          <t>36.4394110453019497</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>1.6159434721833690</t>
+          <t>2.0131136871036532</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>36.0910180312829565</t>
+          <t>36.1072817616090704</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="M99" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="100">
@@ -6607,27 +6607,27 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>568828997.7816418592318523</t>
+          <t>569217007.7225569586693963</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>22229840.7220505726463294</t>
+          <t>22275579.4299545932147549</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>15.9786101234306466</t>
+          <t>15.9895094615341476</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>1.4849730655537068</t>
+          <t>1.6880833217139621</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>15.9097330924115601</t>
+          <t>15.9153295850566025</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -6636,7 +6636,7 @@
         </is>
       </c>
       <c r="M100" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="101">
@@ -6672,27 +6672,27 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>564432126.5460840580509535</t>
+          <t>566159850.6601782715478274</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>38723854.6758202467034459</t>
+          <t>38820718.3453382972285526</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>0.0000586323215316</t>
+          <t>0.0000588117947951</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>1.3611219601125127</t>
+          <t>1.8759618715185514</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>0.0000581594769755</t>
+          <t>0.0000581744515543</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -6701,7 +6701,7 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
   </sheetData>

--- a/src/static/xlsx/request_api_xlsx.xlsx
+++ b/src/static/xlsx/request_api_xlsx.xlsx
@@ -523,7 +523,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>19844146.0000000000000000</t>
+          <t>19847109.0000000000000000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -533,27 +533,27 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1641207194690.0496751118614856</t>
+          <t>1640947393817.6824119738084840</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>5481135534.0580898928877092</t>
+          <t>8513772398.2362256980061839</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>82704.8538490923053636</t>
+          <t>82679.4166252466498760</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.4735418379954891</t>
+          <t>-0.6894597954155940</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>82865.4301975738748998</t>
+          <t>83662.2339597589667757</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="3">
@@ -588,33 +588,33 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>120654453.5456346000000000</t>
+          <t>120669506.1018683600000000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>220337252974.8080123838024198</t>
+          <t>215249874413.7834861364681016</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>4175180210.7943098475887076</t>
+          <t>4763992153.6949347452918024</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1826.1841689206343992</t>
+          <t>1783.7967633021638067</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.4008498122672161</t>
+          <t>-0.8931995113489224</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1822.5464876923115440</t>
+          <t>1806.5639674656228154</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="4">
@@ -649,33 +649,33 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>144182349120.7869600000000000</t>
+          <t>144086679997.8651000000000000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>144586473851.1634674818780778</t>
+          <t>144158095118.3066533217801897</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>16889414674.7189513373069233</t>
+          <t>20656337512.6898570076240130</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.0028028724239883</t>
+          <t>1.0004956399886694</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.0384470409738277</t>
+          <t>0.0793197027716143</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>1.0002822876053214</t>
+          <t>0.9996071452478294</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="5">
@@ -710,7 +710,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>58205697378.0000000000000000</t>
+          <t>58274974538.0000000000000000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -720,27 +720,27 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>125766898323.9507969950387880</t>
+          <t>123856459652.5372904837393256</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1135251352.9092981969984035</t>
+          <t>1162300559.7878099685008242</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2.1607317494573460</t>
+          <t>2.1253799016552612</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>1.6874075688239753</t>
+          <t>-0.2080418480644683</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2.1582413351714459</t>
+          <t>2.1327802981248607</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="6">
@@ -785,27 +785,27 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>87094124885.8377206369660350</t>
+          <t>85330156862.0396640626496780</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>229928302.6426411631625929</t>
+          <t>229301763.6614661380635712</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>604.7916261043849145</t>
+          <t>592.5424291475596266</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.1636104082446619</t>
+          <t>-0.4396357085324256</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>605.3684300075688819</t>
+          <t>595.9240056839870449</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="7">
@@ -840,33 +840,33 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>512293263.8307307000000000</t>
+          <t>514580874.0812797500000000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>64667504451.9554172585768273</t>
+          <t>60631972808.4811223929766631</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>953154026.3852152837637849</t>
+          <t>1860231056.5606473097828897</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>126.2314166858194739</t>
+          <t>117.8278786920170334</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1.1080568048974445</t>
+          <t>-1.2323337423488552</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>124.9012036470155358</t>
+          <t>121.0473337320652560</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -875,7 +875,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="8">
@@ -901,33 +901,33 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>60236504303.7019500000000000</t>
+          <t>60542738459.4731000000000000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>60234813484.9852638176274960</t>
+          <t>60580848078.2786187345140772</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2637758779.9406141599200162</t>
+          <t>4122822778.0595696403923047</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.9999719303313459</t>
+          <t>1.0006294663864772</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>-0.0169607808786054</t>
+          <t>0.0679581576485007</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>1.0014927744932953</t>
+          <t>1.0000361824808921</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="9">
@@ -962,33 +962,33 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>148646376383.7052600000000000</t>
+          <t>148726896383.7052600000000000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>25346141527.2654701328672700</t>
+          <t>24928070555.0119570966035434</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>408594154.5396917389095039</t>
+          <t>623195572.9593829573788789</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.1705130131247783</t>
+          <t>0.1676097004720601</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>1.3074862421276879</t>
+          <t>-0.6455314304213677</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.1695868704628094</t>
+          <t>0.1696651603321594</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="10">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>35242104181.1897300000000000</t>
+          <t>35274323538.5824200000000000</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1033,27 +1033,27 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>23691787244.0958637037073023</t>
+          <t>22865065662.8744578773660784</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>226038813.7367630240289191</t>
+          <t>227927980.3011178974050801</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.6722580218902258</t>
+          <t>0.6482070630742234</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.5486569237491160</t>
+          <t>-1.5649538760188891</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.6732855680187255</t>
+          <t>0.6584493018692923</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="11">
@@ -1088,33 +1088,33 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94994333997.7867700000000000</t>
+          <t>94979760468.1197400000000000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>22064228294.1331864591042335</t>
+          <t>22589315819.8043634161614664</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>208148562.0900334259472639</t>
+          <t>176642643.8344767791868480</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.2322688876859461</t>
+          <t>0.2378329415495477</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>-0.9697758923119343</t>
+          <t>-0.8830793462752332</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.2315697321919429</t>
+          <t>0.2380715909542628</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1123,7 +1123,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="12">
@@ -1149,33 +1149,33 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>9369845.3549515900000000</t>
+          <t>9370151.3826897100000000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>16968716904.4478553023259903</t>
+          <t>16756059889.4514231568212833</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>4986223.6021952405444151</t>
+          <t>4216204.6050380796506072</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1810.9922054882756851</t>
+          <t>1788.2379062099615490</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>-0.3024847172370749</t>
+          <t>-0.9321105963508119</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>1821.6633295307420998</t>
+          <t>1801.2048968583579830</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1184,7 +1184,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="13">
@@ -1216,27 +1216,27 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10659986060.5154514315835009</t>
+          <t>10656411369.0573506869599235</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>14141420.4807653262454303</t>
+          <t>182777986.7465205508734214</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>82585.9957241520785385</t>
+          <t>82558.3015553419181943</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0.7056720712428559</t>
+          <t>-0.6268537507704208</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>82965.3492143456395151</t>
+          <t>83517.5575144928006460</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1245,13 +1245,13 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>toncoin</t>
+          <t>chainlink</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1261,54 +1261,58 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>TON</t>
+          <t>LINK</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Toncoin</t>
+          <t>Chainlink</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2484542062.4234138000000000</t>
+          <t>657099970.4527867000000000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>9643303953.7450280165809951</t>
+          <t>8301534641.6170590400360544</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>120415195.6230400166611299</t>
+          <t>151668202.0974177161776610</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>3.8813204652848511</t>
+          <t>12.6335946049377166</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2.9488938028714850</t>
+          <t>-1.1642963395301786</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>3.7812164708104158</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr"/>
+          <t>12.8758232953477405</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0x514910771af9ca656af840dff83e8264ecf986ca</t>
+        </is>
+      </c>
       <c r="M14" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>unus-sed-leo</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1318,58 +1322,58 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>LINK</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Chainlink</t>
+          <t>UNUS SED LEO</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>657099970.4527867000000000</t>
+          <t>923789528.9000000000000000</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>8967880690.4364066445444603</t>
+          <t>8287333804.1295789321631347</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>126540504.6246521854720086</t>
+          <t>3845428.6804465615551297</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>13.6476656425002198</t>
+          <t>8.9710194204059666</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>1.1223525323797777</t>
+          <t>-5.2916620412428099</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>13.6122151709565612</t>
+          <t>8.9346876588081552</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x514910771af9ca656af840dff83e8264ecf986ca</t>
+          <t>https://eospark.com/account/bitfinexleo1</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>unus-sed-leo</t>
+          <t>toncoin</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1379,52 +1383,48 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>TON</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>UNUS SED LEO</t>
+          <t>Toncoin</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>923836227.9000000000000000</t>
+          <t>2473132255.3164530000000000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>8872512198.8648064386231368</t>
+          <t>8008955118.0831404447621135</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>4810508.7339042312507542</t>
+          <t>83505107.1814736179075013</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>9.6039881646914644</t>
+          <t>3.2383852909064678</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0.2886441149277279</t>
+          <t>-5.0471288846660455</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>9.5403695804025794</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>https://eospark.com/account/bitfinexleo1</t>
-        </is>
-      </c>
+          <t>3.3415718095478397</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="17">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>30787176939.1180700000000000</t>
+          <t>30779409432.8285700000000000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1460,27 +1460,27 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>8296295563.3303270159417646</t>
+          <t>7740402090.2559605904320000</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>48242342.1152208425165959</t>
+          <t>66971367.1159570357421341</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0.2694724358695287</t>
+          <t>0.2514798767386432</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>1.5006890110047166</t>
+          <t>-2.7429977853747760</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0.2684348841122614</t>
+          <t>0.2576783574574168</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1489,7 +1489,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="18">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>414849355.3863750700000000</t>
+          <t>415273896.7471752000000000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1525,27 +1525,27 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>7992201792.6457126562201759</t>
+          <t>7421393045.9097340188513441</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>118897745.6813084345326626</t>
+          <t>96981960.0624973036218827</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>19.2653108625469041</t>
+          <t>17.8710800366727270</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>-2.9044540956503010</t>
+          <t>-1.0037454457170638</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>19.4972809509271186</t>
+          <t>18.0989385854654146</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1554,7 +1554,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="19">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3169845047.4838877000000000</t>
+          <t>3249982900.4588876000000000</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1590,27 +1590,27 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>7517552122.1259767378015129</t>
+          <t>7154162377.1515119130293022</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>524339592.9475637743247231</t>
+          <t>425654201.0593812944647326</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2.3715834715937131</t>
+          <t>2.2012923133045919</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>4.1868446800993669</t>
+          <t>-1.9112656389211816</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2.3653152034463642</t>
+          <t>2.2500401590298482</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1619,7 +1619,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="20">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>589250806511191.1000000000000000</t>
+          <t>589250627619579.1000000000000000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1655,27 +1655,27 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>7412444842.7264710448046345</t>
+          <t>7147241252.3266404843021184</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>66840713.9505673332621054</t>
+          <t>56112559.2866800257614546</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.0000125794394523</t>
+          <t>0.0000121293740173</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>-0.2454300059626578</t>
+          <t>-0.9313415359203170</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0.0000126198953745</t>
+          <t>0.0000122630618028</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="21">
@@ -1720,27 +1720,27 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>7217873319.0679865555636077</t>
+          <t>6773147434.8366351473931346</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>72366710.8891387591110981</t>
+          <t>67447014.0931620435040454</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0.1709610606247602</t>
+          <t>0.1604273749400004</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>0.7944873219921624</t>
+          <t>-3.2792116020538739</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.1715412438448525</t>
+          <t>0.1630219999438559</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1749,7 +1749,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="22">
@@ -1785,27 +1785,27 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>6527147267.3570225263640705</t>
+          <t>6214608667.2693448631743753</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>151680343.9018264926741559</t>
+          <t>142683014.0133622547442030</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>86.3853835825279086</t>
+          <t>82.2490027492128535</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>1.1453841547302622</t>
+          <t>-2.6561550034615070</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>85.8950465754468879</t>
+          <t>83.9784421256033139</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1814,13 +1814,13 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>polkadot</t>
+          <t>mantra-dao</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1830,52 +1830,56 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DOT</t>
+          <t>OM</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Polkadot</t>
+          <t>Mantra</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1522267060.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
+          <t>974778351.8199997000000000</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>888888888.0000000000000000</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>6242045410.1634044404447100</t>
+          <t>6090681214.8712444916850905</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>65207913.0355031587340651</t>
+          <t>21351668.0751213110497677</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>4.1004929911335035</t>
+          <t>6.2482729571285509</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>1.0566782410823703</t>
+          <t>-0.9263191135812111</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>4.0855383358222546</t>
+          <t>6.2449777445248738</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>https://polkascan.io/polkadot</t>
+          <t>https://etherscan.io/token/0x3593d125a4f7849a1b059e64f4517a86dd60c95d</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="24">
@@ -1907,22 +1911,22 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>6140514860.9344141927812286</t>
+          <t>6037505674.5741912083511275</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>8084525.0166666662752511</t>
+          <t>304266013.3694966039128787</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1819.2406173307875905</t>
+          <t>1788.7222487527824865</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>-0.2476023654848287</t>
+          <t>-1.0808308788707647</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -1932,13 +1936,13 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>mantra-dao</t>
+          <t>polkadot</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1948,56 +1952,52 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>OM</t>
+          <t>DOT</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mantra</t>
+          <t>Polkadot</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>974778351.8199997000000000</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>888888888.0000000000000000</t>
-        </is>
-      </c>
+          <t>1522267060.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>6111778234.6691275847676367</t>
+          <t>5957644230.7071518186087960</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>33448889.4983663504710140</t>
+          <t>74264410.7232599010915448</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>6.2699158462617503</t>
+          <t>3.9136656026092766</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>0.5536950603107917</t>
+          <t>-3.8540030885837536</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>6.2208075321745470</t>
+          <t>4.0129549735235107</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x3593d125a4f7849a1b059e64f4517a86dd60c95d</t>
+          <t>https://polkascan.io/polkadot</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="26">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>19849190.6250000000000000</t>
+          <t>19851893.7500000000000000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2033,27 +2033,27 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>6032029266.7718930453094159</t>
+          <t>5911180444.7640456262426650</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>40840706.4935694634805021</t>
+          <t>50326305.1462755569086613</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>303.8929586969943791</t>
+          <t>297.7640581399971288</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0.5132070457444577</t>
+          <t>-0.5181835646455871</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>304.7139250436769518</t>
+          <t>300.7245773738850196</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>bitget-token-new</t>
+          <t>bitcoin-bep2</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2078,48 +2078,48 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>BGB</t>
+          <t>BTCB</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Bitget Token</t>
+          <t>Bitcoin BEP2</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1200000000.0000000000000000</t>
+          <t>65207.7185638300000000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>5481899749.2262106400000000</t>
+          <t>5392816778.6914215340936755</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>67146784.3022070729643934</t>
+          <t>2488513.6264652270180566</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>4.5682497910218422</t>
+          <t>82702.1232680076823405</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>-0.7622214144252912</t>
+          <t>-0.7354378380572122</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x54D2252757e1672EEaD234D27B1270728fF90581</t>
+          <t>https://explorer.binance.org/asset/BTCB-1DE</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="28">
@@ -2151,27 +2151,27 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>5364602397.9696044243195854</t>
+          <t>5364356996.4713515371258321</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>56039650.7199412398852815</t>
+          <t>48910932.9986060288580001</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0.9998545668149860</t>
+          <t>0.9998088288850279</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0.0811486901188504</t>
+          <t>0.0120848213613963</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0.9994604056215556</t>
+          <t>1.0000866090013973</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2180,13 +2180,13 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ethena-usde</t>
+          <t>bitget-token-new</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2196,54 +2196,58 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>USDE</t>
+          <t>BGB</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Ethena USDe</t>
+          <t>Bitget Token</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>5247294871.9158745000000000</t>
+          <t>1200000000.0000000000000000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>5247501502.8275667023314166</t>
+          <t>5313756912.5594170800000000</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>28905968.4831256010673851</t>
+          <t>34391266.2739030963861910</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>1.0000393785591883</t>
+          <t>4.4281307604661809</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>0.0284599143268554</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr"/>
+          <t>-2.6092298816981547</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>4.4579887731529854</t>
+        </is>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>etherscan.io</t>
+          <t>https://etherscan.io/token/0x54D2252757e1672EEaD234D27B1270728fF90581</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>pi</t>
+          <t>ethena-usde</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2253,58 +2257,54 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PI</t>
+          <t>USDE</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Pi</t>
+          <t>Ethena USDe</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>6773820584.9916540000000000</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>100000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>5235230043.6859240000000000</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>5237699589.2823942380839243</t>
+          <t>5230008555.2081676308424175</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>85324025.1970592718276434</t>
+          <t>38483826.8086545870000039</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0.7732267962466041</t>
+          <t>0.9990026248256170</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>-4.4744576246037692</t>
+          <t>-0.0447060327997902</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
-          <t>https://blockexplorer.minepi.com/</t>
+          <t>etherscan.io</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>hyperliquid</t>
+          <t>pi</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2314,56 +2314,52 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>HYPE</t>
+          <t>PI</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Hyperliquid</t>
+          <t>Pi</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>333928180.0000000000000000</t>
+          <t>6817635541.7240010000000000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1000000000.0000000000000000</t>
+          <t>100000000000.0000000000000000</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>4237394546.0899766238032760</t>
+          <t>4263408751.3117554365209968</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>16335899.8803100632374246</t>
+          <t>616324361.6737209107417884</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>12.6895386489692982</t>
+          <t>0.6253500535808418</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>-1.2508622647390257</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>12.6620661176525367</t>
-        </is>
-      </c>
+          <t>19.3654518868140613</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
-          <t>https://app.hyperliquid.xyz/explorer/token/0x0d01dc56dcaaca66ad901c959b4011ec</t>
+          <t>https://blockexplorer.minepi.com/</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="32">
@@ -2395,27 +2391,27 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>4005469081.4247078064784749</t>
+          <t>3989850292.4939515478230369</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>29658756.0723905313132113</t>
+          <t>35545814.2764526740875391</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>217.1369139952093219</t>
+          <t>216.2902177506933976</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>1.7031686680475666</t>
+          <t>0.0806077881745245</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>216.3557465248735195</t>
+          <t>216.4991796694003989</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2424,13 +2420,13 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>uniswap</t>
+          <t>hyperliquid</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2440,58 +2436,62 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>UNI</t>
+          <t>HYPE</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Uniswap</t>
+          <t>Hyperliquid</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>628494054.7100000000000000</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr"/>
+          <t>333928180.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>3752579971.8915311454245716</t>
+          <t>3866680214.1601546337318820</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>39387509.1314725576344581</t>
+          <t>19449675.5633898698230748</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>5.9707485596232859</t>
+          <t>11.5793767814389149</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>0.6755184647686651</t>
+          <t>0.3249085780824038</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>5.9732306149136744</t>
+          <t>11.8771045558450088</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x1f9840a85d5af5bf1d1762f925bdaddc4201f984</t>
+          <t>https://app.hyperliquid.xyz/explorer/token/0x0d01dc56dcaaca66ad901c959b4011ec</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>aptos</t>
+          <t>uniswap</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2501,58 +2501,58 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>APT</t>
+          <t>UNI</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Aptos</t>
+          <t>Uniswap</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>604052367.6645604000000000</t>
+          <t>628494054.7100000000000000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>3247459454.5931240530693347</t>
+          <t>3645016473.7623243907900626</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>39045032.8963454030588848</t>
+          <t>51979416.8548957890451487</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>5.3761223834760108</t>
+          <t>5.7996037455663912</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>3.7191686200787432</t>
+          <t>-0.9393903887736709</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>5.2710266541630569</t>
+          <t>5.8790131625235924</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>https://explorer.aptoslabs.com/</t>
+          <t>https://etherscan.io/token/0x1f9840a85d5af5bf1d1762f925bdaddc4201f984</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>near-protocol</t>
+          <t>okb</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2562,52 +2562,52 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>NEAR</t>
+          <t>OKB</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Near Protocol</t>
+          <t>OKB</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1198396448.0000000000000000</t>
+          <t>60000000.0000000000000000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>3170749559.1958473538077664</t>
+          <t>3045191332.4095755240000000</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>94372482.6971327126599334</t>
+          <t>9930430.7324586600436322</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2.6458269001777343</t>
+          <t>50.7531888734929254</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>4.2943883162555014</t>
+          <t>4.9092499868615300</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>2.6446198956527197</t>
+          <t>50.4504018302410376</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>https://explorer.nearprotocol.com/</t>
+          <t>https://etherscan.io/token/0x75231f58b43240c9718dd58b4967c5114342a86c</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="36">
@@ -2643,27 +2643,27 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2973819546.1643635286852595</t>
+          <t>2942353997.0769901976803849</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>293202495.8599503843554825</t>
+          <t>397979808.5868431217432803</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>0.0000070689112066</t>
+          <t>0.0000069941160924</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>-1.6858940818562461</t>
+          <t>-1.6174805383238296</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0.0000071220496552</t>
+          <t>0.0000071667775663</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2672,13 +2672,13 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>okb</t>
+          <t>near-protocol</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2688,58 +2688,58 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>OKB</t>
+          <t>NEAR</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>OKB</t>
+          <t>Near Protocol</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>60000000.0000000000000000</t>
+          <t>1199614769.0000000000000000</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2905169116.5169184340000000</t>
+          <t>2918659484.3476316135894687</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>1891567.5333188289658006</t>
+          <t>66838487.1917548368088475</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>48.4194852752819739</t>
+          <t>2.4329972919395023</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>0.3710225429166277</t>
+          <t>-1.6984201561886573</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>48.4178125713827249</t>
+          <t>2.4785149075263058</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x75231f58b43240c9718dd58b4967c5114342a86c</t>
+          <t>https://explorer.nearprotocol.com/</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>crypto-com-coin</t>
+          <t>aptos</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2749,62 +2749,58 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CRO</t>
+          <t>APT</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Cronos</t>
+          <t>Aptos</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>26571560696.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>30263013692.0000000000000000</t>
-        </is>
-      </c>
+          <t>604650885.7836708000000000</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2797454361.2166424025848240</t>
+          <t>2906826188.5603053753944556</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>42558888.1524060532632192</t>
+          <t>52222148.0681732637715204</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>0.1052800169783690</t>
+          <t>4.8074455142703557</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>5.0175264521918871</t>
+          <t>-0.9270776434674883</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>0.1053362722412948</t>
+          <t>4.8654872609370834</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xa0b73e1ff0b80914ab6fe0444e65848c4c34450b</t>
+          <t>https://explorer.aptoslabs.com/</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>mantle</t>
+          <t>ondo-finance</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2814,62 +2810,58 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>MNT</t>
+          <t>ONDO</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Mantle</t>
+          <t>Ondo</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3364694382.8368406000000000</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>6219316795.0000000000000000</t>
-        </is>
-      </c>
+          <t>3159107529.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2667981155.8194357292965915</t>
+          <t>2537686913.8284782549010255</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>59451730.6134839602570197</t>
+          <t>86411993.9951881624986051</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>0.7929341723957728</t>
+          <t>0.8032923509355095</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>-1.3165212515854354</t>
+          <t>-2.1448411906732961</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>0.8062418143289097</t>
+          <t>0.8145565800157639</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>https://mantlescan.xyz/</t>
+          <t>https://etherscan.io/token/0xfAbA6f8e4a5E8Ab82F62fe7C39859FA577269BE3</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>internet-computer</t>
+          <t>mantle</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2879,58 +2871,62 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ICP</t>
+          <t>MNT</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Internet Computer</t>
+          <t>Mantle</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>482076964.6058819000000000</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr"/>
+          <t>3364694382.8368406000000000</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6219316795.0000000000000000</t>
+        </is>
+      </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2584064946.9123296479551339</t>
+          <t>2472288237.1511251710410917</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>29953830.6836900180575520</t>
+          <t>185994015.8437337800912271</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>5.3602746794278190</t>
+          <t>0.7347734907996874</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>0.5558203395464523</t>
+          <t>0.7844154502088870</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>5.3582383013889731</t>
+          <t>0.7360143862500346</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>https://www.dfinityexplorer.org/#/</t>
+          <t>https://mantlescan.xyz/</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>first-digital-usd</t>
+          <t>crypto-com-coin</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2940,54 +2936,62 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>FDUSD</t>
+          <t>CRO</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>First Digital USD</t>
+          <t>Cronos</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2588088088.1678160000000000</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr"/>
+          <t>26571560696.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>30263013692.0000000000000000</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2583280325.3536634597306508</t>
+          <t>2438706652.0469408786703368</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>868389933.0918235573069692</t>
+          <t>15791638.1174897976581714</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>0.9981423496224365</t>
+          <t>0.0917788262401183</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>-0.0511699295400844</t>
+          <t>-3.3963979110792899</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0.9981270091527033</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr"/>
+          <t>0.0939707193687422</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0xa0b73e1ff0b80914ab6fe0444e65848c4c34450b</t>
+        </is>
+      </c>
       <c r="M41" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ondo-finance</t>
+          <t>ethereum-classic</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2997,58 +3001,62 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ONDO</t>
+          <t>ETC</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Ondo</t>
+          <t>Ethereum Classic</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3159107529.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr"/>
+          <t>151402073.8391831200000000</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>210700000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2536838011.8351593535535569</t>
+          <t>2410455043.4839092350723783</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>74670341.4620100727813867</t>
+          <t>27487333.7796232798921862</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>0.8030236351714761</t>
+          <t>15.9208852452328779</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>1.1345682941149042</t>
+          <t>-1.2542076868915623</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>0.7993976751103486</t>
+          <t>16.1416036492391285</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xfAbA6f8e4a5E8Ab82F62fe7C39859FA577269BE3</t>
+          <t>http://gastracker.io/</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ethereum-classic</t>
+          <t>internet-computer</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3058,56 +3066,52 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ETC</t>
+          <t>ICP</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Ethereum Classic</t>
+          <t>Internet Computer</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>151323700.0354661600000000</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>210700000.0000000000000000</t>
-        </is>
-      </c>
+          <t>482992475.5035915400000000</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2519332462.8535555526326694</t>
+          <t>2409718460.6551102003601001</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>22675359.0339694392344875</t>
+          <t>33376880.4110255228463859</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>16.6486311282574543</t>
+          <t>4.9891428601296947</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>0.6334265588766031</t>
+          <t>-2.7713924255618754</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>16.6735745115257237</t>
+          <t>5.0613140970119066</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>http://gastracker.io/</t>
+          <t>https://www.dfinityexplorer.org/#/</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="44">
@@ -3133,33 +3137,33 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>15094302.1830386200000000</t>
+          <t>15097419.5458131100000000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2502723147.5483450756625085</t>
+          <t>2276313816.1773606594775371</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>121158203.7110956398054205</t>
+          <t>87608470.7264716814627904</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>165.8058197854711423</t>
+          <t>150.7750254452350505</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>-1.5121748719392549</t>
+          <t>0.6097255077297172</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>166.4288144080013377</t>
+          <t>152.2652398563810986</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3168,13 +3172,13 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>polygon-ecosystem-token</t>
+          <t>first-digital-usd</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3184,58 +3188,54 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>POL</t>
+          <t>FDUSD</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>POL (prev. MATIC)</t>
+          <t>First Digital USD</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10392099602.6534290000000000</t>
+          <t>2188129088.9713880000000000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2132526451.9658020452506153</t>
+          <t>2167216976.1606852091817845</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>29699721.9408520332091511</t>
+          <t>949369520.8173615605252740</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>0.2052065062406928</t>
+          <t>0.9904429254580527</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2.3144038721154221</t>
+          <t>-0.2692460873594036</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>0.2033455771216895</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>https://etherscan.io/token/0x455e53CBB86018Ac2B8092FdCd39d8444aFFC3F6</t>
-        </is>
-      </c>
+          <t>0.9954563020431530</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>official-trump</t>
+          <t>polygon-ecosystem-token</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3245,62 +3245,58 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>TRUMP</t>
+          <t>POL</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Trump Official</t>
+          <t>POL (prev. MATIC)</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>199999429.0808760000000000</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>999999993.4500000000000000</t>
-        </is>
-      </c>
+          <t>10398846835.3077500000000000</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2043751583.7729966744552976</t>
+          <t>1960010209.9592890963797052</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>63012161.6371609577954762</t>
+          <t>21209548.9791381240436262</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>10.2187870893698504</t>
+          <t>0.1884834194599697</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>1.8075082998377992</t>
+          <t>-1.3052718757090020</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>10.1318337346275653</t>
+          <t>0.1898955972870207</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/6p6xgHyF7AeE6TZkSmFsko444wqoP15icUSqi2jfGiPN</t>
+          <t>https://etherscan.io/token/0x455e53CBB86018Ac2B8092FdCd39d8444aFFC3F6</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ethena</t>
+          <t>cosmos</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3310,54 +3306,58 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ENA</t>
+          <t>ATOM</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Ethena</t>
+          <t>Cosmos</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>5285937500.0000000000000000</t>
+          <t>390934204.0000000000000000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1974168246.4874274039062500</t>
+          <t>1909108997.3702751555458948</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>67914321.7716623383926855</t>
+          <t>86858515.9997160022875943</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>0.3734755181058095</t>
+          <t>4.8834534758955887</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>1.1859247625275085</t>
+          <t>-3.5032918079654008</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>0.3668450345000519</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr"/>
+          <t>4.9735338879311616</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>https://www.mintscan.io/</t>
+        </is>
+      </c>
       <c r="M47" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>vechain</t>
+          <t>gatetoken</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3367,62 +3367,54 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>VET</t>
+          <t>GT</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>VeChain</t>
+          <t>GateToken</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>85985041177.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>86712634466.0000000000000000</t>
-        </is>
-      </c>
+          <t>85826595.3959600300000000</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1960605547.5072636065451263</t>
+          <t>1902954098.7096944536091161</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>18629481.1433605644855890</t>
+          <t>7142654.3739779831888568</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>0.0228017050485719</t>
+          <t>22.1720795276852959</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>0.5150139617779848</t>
+          <t>0.6385761171853716</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>0.0229428379613368</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>https://explore.veforge.com/</t>
-        </is>
-      </c>
+          <t>22.3917012665938521</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>bittensor</t>
+          <t>vechain</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3432,62 +3424,62 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>TAO</t>
+          <t>VET</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Bittensor</t>
+          <t>VeChain</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>8534124.0000000000000000</t>
+          <t>85985041177.0000000000000000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>21000000.0000000000000000</t>
+          <t>86712634466.0000000000000000</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1960187670.1666764025242768</t>
+          <t>1852770939.7797657384643680</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>46406660.8190885746877611</t>
+          <t>14190817.5536799267394800</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>229.6882105493986732</t>
+          <t>0.0215475961215840</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>0.2282403527470067</t>
+          <t>-2.3447397230509501</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>229.1538869533195157</t>
+          <t>0.0220171524324217</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>https://bittensor.com/scan</t>
+          <t>https://explore.veforge.com/</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>gatetoken</t>
+          <t>bittensor</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3497,54 +3489,62 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>TAO</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>GateToken</t>
+          <t>Bittensor</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>85826705.1921835000000000</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr"/>
+          <t>8561026.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>21000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>1917352673.0831533078970259</t>
+          <t>1837178611.9568203149177144</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>5788947.7322156602417288</t>
+          <t>43102750.3251179288981700</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>22.3398144993427112</t>
+          <t>214.5979479511942044</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>0.4061115203931678</t>
+          <t>-0.8396937393148506</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>22.3955813209491322</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr"/>
+          <t>218.1506880415140995</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>https://bittensor.com/scan</t>
+        </is>
+      </c>
       <c r="M50" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>celestia</t>
+          <t>official-trump</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3554,58 +3554,62 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>TIA</t>
+          <t>TRUMP</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Celestia</t>
+          <t>Trump Official</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>580696175.3830050000000000</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr"/>
+          <t>199999426.5724160000000000</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>999999993.4500000000000000</t>
+        </is>
+      </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1911368024.4000523827148876</t>
+          <t>1834176331.8839032563438319</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>29436573.1350510554548689</t>
+          <t>50139210.6667041987723419</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>3.2915113021699981</t>
+          <t>9.1709079536774711</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>3.9617395933837613</t>
+          <t>-1.9862469509071202</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>3.2646917573646775</t>
+          <t>9.3216786132834478</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>https://www.mintscan.io/celestia</t>
+          <t>https://solscan.io/token/6p6xgHyF7AeE6TZkSmFsko444wqoP15icUSqi2jfGiPN</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>render</t>
+          <t>ethena</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3615,52 +3619,48 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>RENDER</t>
+          <t>ENA</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Render</t>
+          <t>Ethena</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>517716590.0562826400000000</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>644168762.0000000000000000</t>
-        </is>
-      </c>
+          <t>5553125000.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>1829675548.5288383782389746</t>
+          <t>1762693781.1825192071875000</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>41878757.4464811255003354</t>
+          <t>111696706.9693745113356642</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>3.5341257816944372</t>
+          <t>0.3174237535050119</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>-0.0047057772223307</t>
+          <t>3.2954718847748286</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>3.5180997095937704</t>
+          <t>0.3181119040936916</t>
         </is>
       </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="53">
@@ -3686,33 +3686,33 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>646157090.0000000000000000</t>
+          <t>647198730.0000000000000000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1794346876.4148975404160060</t>
+          <t>1733507718.7465903318198380</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>47300983.9308438848192320</t>
+          <t>90962677.6242098482646151</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2.7769514630179134</t>
+          <t>2.6784782453862206</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>1.6424405580939327</t>
+          <t>-3.1476891998765759</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>2.7510559967487288</t>
+          <t>2.7425349560381062</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -3721,13 +3721,13 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>cosmos</t>
+          <t>kaspa</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3737,58 +3737,62 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ATOM</t>
+          <t>KAS</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>Kaspa</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>390934204.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr"/>
+          <t>25974676335.9357300000000000</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>28704026601.0000000000000000</t>
+        </is>
+      </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1687107422.5141181281472516</t>
+          <t>1662632166.5187108892094154</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>42938439.4111218408604520</t>
+          <t>32772280.6601589891239306</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>4.3155789522937679</t>
+          <t>0.0640097356754538</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>0.6140060868897444</t>
+          <t>-1.8522840525275210</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>4.2848107899340939</t>
+          <t>0.0649191412563727</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>https://www.mintscan.io/</t>
+          <t>https://explorer.kaspa.org/</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>kaspa</t>
+          <t>render</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3798,62 +3802,58 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>KAS</t>
+          <t>RENDER</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Kaspa</t>
+          <t>Render</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>25943375617.3953000000000000</t>
+          <t>517716590.0562826400000000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>28704026601.0000000000000000</t>
+          <t>644168762.0000000000000000</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1672487758.0683583333113078</t>
+          <t>1614687515.5182314223618189</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>33291440.4753274302483704</t>
+          <t>36736600.6212317727373361</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>0.0644668520678912</t>
+          <t>3.1188637693505119</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>2.2938456266575514</t>
+          <t>-2.8490902604970884</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>0.0647827366234392</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>https://explorer.kaspa.org/</t>
-        </is>
-      </c>
+          <t>3.2090048125533031</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>algorand</t>
+          <t>celestia</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3863,62 +3863,58 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ALGO</t>
+          <t>TIA</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Algorand</t>
+          <t>Celestia</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>8530799349.0386210000000000</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>10000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>587939919.1432680000000000</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>1552633403.3903020859105310</t>
+          <t>1564890099.0905303544709598</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>26261152.0535042777599242</t>
+          <t>39761277.4355192622326645</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>0.1820032730655277</t>
+          <t>2.6616496824553958</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>0.0012023716573866</t>
+          <t>-3.1988989020804103</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>0.1833981648223011</t>
+          <t>2.7396610651181797</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>https://algoexplorer.io/</t>
+          <t>https://www.mintscan.io/celestia</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>arbitrum</t>
+          <t>algorand</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3928,58 +3924,62 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>ARB</t>
+          <t>ALGO</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Arbitrum</t>
+          <t>Algorand</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4617913336.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr"/>
+          <t>8558582711.3113960000000000</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>10000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>1547508740.9621073660913224</t>
+          <t>1554675043.2467060545544992</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>52649310.3198582177810556</t>
+          <t>48727674.2076234337120622</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>0.3351099573259959</t>
+          <t>0.1816509924233109</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>1.4089376116703826</t>
+          <t>-3.6308442085070679</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>0.3329561775554554</t>
+          <t>0.1875315667876620</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>https://arbiscan.io/token/0x912CE59144191C1204E64559FE8253a0e49E6548</t>
+          <t>https://algoexplorer.io/</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>dexe</t>
+          <t>fantom</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3989,58 +3989,62 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>DEXE</t>
+          <t>S</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>DeXe</t>
+          <t>Sonic (prev. FTM)</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>83733353.1605750500000000</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr"/>
+          <t>2880000000.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3175000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>1469108246.9620492698586157</t>
+          <t>1430862496.3599528960000000</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>6024614.2243307587455224</t>
+          <t>72630151.6937008967041485</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>17.5450784127174201</t>
+          <t>0.4968272556805392</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>-0.7301458205129890</t>
+          <t>-1.9369471753234923</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>17.6072354503262925</t>
+          <t>0.5032590663798378</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xde4EE8057785A7e8e800Db58F9784845A5C2Cbd6</t>
+          <t>sonicscan.org</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>fantom</t>
+          <t>arbitrum</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4050,62 +4054,58 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Sonic (prev. FTM)</t>
+          <t>Arbitrum</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2880000000.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>3175000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>4617913336.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>1444885033.7650688640000000</t>
+          <t>1420139889.8379239308798264</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>69961352.4038071328457423</t>
+          <t>37589887.6550753228170990</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>0.5016961922795378</t>
+          <t>0.3075284845141849</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>2.7516662056286184</t>
+          <t>-1.6129071906172173</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>0.4916392583513938</t>
+          <t>0.3123092857678486</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>sonicscan.org</t>
+          <t>https://arbiscan.io/token/0x912CE59144191C1204E64559FE8253a0e49E6548</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>story-protocol</t>
+          <t>kucoin-token</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4115,58 +4115,62 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>KCS</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Story</t>
+          <t>KuCoin Token</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>258757414.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr"/>
+          <t>125043917.8513356400000000</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>200000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>1367680428.0332902066306528</t>
+          <t>1250314144.4984254247287218</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>35726625.2057730489789272</t>
+          <t>763044.3467247504279478</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>5.2855700128201552</t>
+          <t>9.9990000791955381</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>-0.8162029802605712</t>
+          <t>-1.8665714453661823</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>5.3184843352990766</t>
+          <t>10.1276829647414556</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>www.storyscan.xyz</t>
+          <t>https://etherscan.io/token/0xf34960d9d60be18cc1d5afc1a6f012a723a28811</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>kucoin-token</t>
+          <t>dexe</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4176,62 +4180,58 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>KCS</t>
+          <t>DEXE</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>KuCoin Token</t>
+          <t>DeXe</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>122543917.8513356400000000</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>200000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>83733353.1605750500000000</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>1358888696.5070987524859802</t>
+          <t>1218685268.6669135210688053</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>428749.4086693298504737</t>
+          <t>6843756.8424008348042578</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>11.0889934019870073</t>
+          <t>14.5543588387036958</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>0.4835362915814315</t>
+          <t>-1.6925436529937545</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>11.0754407970238027</t>
+          <t>14.5841132338178158</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xf34960d9d60be18cc1d5afc1a6f012a723a28811</t>
+          <t>https://etherscan.io/token/0xde4EE8057785A7e8e800Db58F9784845A5C2Cbd6</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>jupiter</t>
+          <t>eos</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4241,56 +4241,56 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>JUP</t>
+          <t>EOS</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Jupiter</t>
+          <t>EOS</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2690911111.1000000000000000</t>
+          <t>1556969728.9434000000000000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>3000000000.0000000000000000</t>
+          <t>2100000000.0000000000000000</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>1311417512.5856234733158540</t>
+          <t>1205158133.1493574195237865</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>31178267.6898823449769217</t>
+          <t>204665237.8992802913408615</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>0.4873507367731436</t>
+          <t>0.7740408247803308</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>5.5723764471883070</t>
+          <t>-3.9891612086373781</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>0.4799571468436546</t>
+          <t>0.7876789689792838</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/JUPyiwrYJFskUPiHa7hkeR8VUtAeFoSYbKedZNsDvCN</t>
+          <t>https://bloks.io/</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="63">
@@ -4322,27 +4322,27 @@
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>1226760960.9952483908518358</t>
+          <t>1119318979.0682605827260808</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>50726490.3408559812011848</t>
+          <t>41436927.4064229574658857</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>0.7569300524354673</t>
+          <t>0.6906367258628748</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>-1.3075779647283040</t>
+          <t>-2.5364684123140047</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>0.7606401781332320</t>
+          <t>0.7047939009795185</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4351,13 +4351,13 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>fetch</t>
+          <t>maker</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4367,62 +4367,62 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>FET</t>
+          <t>MKR</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Artificial Superintelligence Alliance</t>
+          <t>Maker</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2520000000.0000000000000000</t>
+          <t>848074.4183746700000000</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2630547141.0000000000000000</t>
+          <t>1000000.0000000000000000</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>1202451897.8549062440000000</t>
+          <t>1119230092.4318602183540863</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>51970838.5033055227028690</t>
+          <t>24798009.1274394453745674</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>0.4771634515297247</t>
+          <t>1319.7309907977870499</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>2.0261258404279521</t>
+          <t>-1.6612133152507702</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>0.4731253256999419</t>
+          <t>1339.9408180815890482</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x1d287cc25dad7ccaf76a26bc660c5f7c8e2a05bd</t>
+          <t>https://etherscan.io/token/Maker</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>maker</t>
+          <t>story-protocol</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4432,62 +4432,58 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>MKR</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Maker</t>
+          <t>Story</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>848074.4183746700000000</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>1000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>259183351.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>1083740388.2342325489542163</t>
+          <t>1091841682.1153487002599354</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>24821833.8165320025226099</t>
+          <t>41565645.4437532178263581</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>1277.8835969503892071</t>
+          <t>4.2126227549058454</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>-2.3563313609625416</t>
+          <t>1.6040452120392490</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>1293.0421301947438959</t>
+          <t>4.2111513762671794</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/Maker</t>
+          <t>www.storyscan.xyz</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>movement</t>
+          <t>fetch</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4497,52 +4493,56 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>MOVE</t>
+          <t>FET</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Movement</t>
+          <t>Artificial Superintelligence Alliance</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2450000000.0000000000000000</t>
+          <t>2520000000.0000000000000000</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>10000000000.0000000000000000</t>
+          <t>2630547141.0000000000000000</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>1065454198.6407229750000000</t>
+          <t>1081287431.2032319800000000</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>42363835.1469279594119031</t>
+          <t>51391389.2318108432836973</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>0.4348792647513155</t>
+          <t>0.4290823139695365</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>-2.5457742570267453</t>
+          <t>-1.7649682350615044</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>0.4467783804775426</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr"/>
+          <t>0.4404426166690381</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0x1d287cc25dad7ccaf76a26bc660c5f7c8e2a05bd</t>
+        </is>
+      </c>
       <c r="M66" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="67">
@@ -4574,27 +4574,27 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>1049250389.0667149854776313</t>
+          <t>1070137974.7464171265768436</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>8205801.1028391609102132</t>
+          <t>17348824.9869093127102012</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>0.0668625180513671</t>
+          <t>0.0681935602783810</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>-1.8680239168657243</t>
+          <t>1.4813410007435233</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>0.0675333397869372</t>
+          <t>0.0678749716024603</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4603,13 +4603,13 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>immutable-x</t>
+          <t>jupiter</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4619,58 +4619,62 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>IMX</t>
+          <t>JUP</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Immutable X</t>
+          <t>Jupiter</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1768317543.3900000000000000</t>
+          <t>2690911111.1000000000000000</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2000000000.0000000000000000</t>
+          <t>3000000000.0000000000000000</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>962507580.9806229712757570</t>
+          <t>1048220976.6854134920230352</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>9130288.7088932122511410</t>
+          <t>30525484.1562683224406201</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>0.5443069795798227</t>
+          <t>0.3895412867268284</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>-0.1867011166812788</t>
+          <t>-0.4668523896222753</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>0.5496917541088888</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr"/>
+          <t>0.3993753520693362</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>https://solscan.io/token/JUPyiwrYJFskUPiHa7hkeR8VUtAeFoSYbKedZNsDvCN</t>
+        </is>
+      </c>
       <c r="M68" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>worldcoin-org</t>
+          <t>wbnb</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -4680,54 +4684,54 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>WLD</t>
+          <t>WBNB</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Worldcoin</t>
+          <t>Wrapped BNB</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1214684893.7497473000000000</t>
+          <t>1582884.5398480400000000</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>958571455.1192458108830055</t>
+          <t>962080899.7877512692773793</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>58323126.3876530679473321</t>
+          <t>6967505.9247991146786683</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>0.7891523637542934</t>
+          <t>607.8023226382089184</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>1.6202273520265450</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>0.7853673363071660</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr"/>
+          <t>-0.1297761319785972</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>https://bscscan.com/token/0xbb4CdB9CBd36B01bD1cBaEBF2De08d9173bc095c</t>
+        </is>
+      </c>
       <c r="M69" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>stacks</t>
+          <t>movement</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -4737,62 +4741,58 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>STX</t>
+          <t>MOVE</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Stacks</t>
+          <t>Movement</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1519244275.4994400000000000</t>
+          <t>2450000000.0000000000000000</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>1818000000.0000000000000000</t>
+          <t>10000000000.0000000000000000</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>953591446.1190479056549185</t>
+          <t>910384172.1294545400000000</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>12850981.4572102950465367</t>
+          <t>29073474.0473363275485684</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>0.6276748653902691</t>
+          <t>0.3715853763793692</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>0.8690354315065516</t>
+          <t>-2.2157259101166024</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>0.6187259611593025</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>https://explorer.stacks.co/</t>
-        </is>
-      </c>
+          <t>0.3780588968185881</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>eos</t>
+          <t>worldcoin-org</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -4802,62 +4802,54 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>EOS</t>
+          <t>WLD</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>EOS</t>
+          <t>Worldcoin</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1555739230.6061000000000000</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>2100000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>1231343181.0240097000000000</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>924549006.9580034266694475</t>
+          <t>909904018.3320902983290284</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>137928056.3355700533892776</t>
+          <t>42066369.0172604552586835</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>0.5942827620267753</t>
+          <t>0.7389524158288641</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>7.9948121210871439</t>
+          <t>-2.3376154828160741</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>0.5909263461151560</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>https://bloks.io/</t>
-        </is>
-      </c>
+          <t>0.7547596852693190</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>usual-usd</t>
+          <t>stacks</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -4867,48 +4859,56 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>USD0</t>
+          <t>STX</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Usual USD</t>
+          <t>Stacks</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>898876668.3664447000000000</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr"/>
+          <t>1520164889.8252900000000000</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1818000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>896443286.3304420507741820</t>
+          <t>904876589.9150746740346727</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>1348705.9199999998561367</t>
+          <t>14874209.7713264782453204</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>0.9972928632796478</t>
+          <t>0.5952489732999100</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>-0.0437967857502329</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr"/>
+          <t>-0.3470764063997309</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>0.6030549256912509</t>
+        </is>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>https://etherscan.io/address/0x73A15FeD60Bf67631dC6cd7Bc5B6e8da8190aCF5</t>
+          <t>https://explorer.stacks.co/</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="73">
@@ -4940,38 +4940,38 @@
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>891548861.1944960000654884</t>
+          <t>858000195.3501078620580558</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>39877244.6856092719498257</t>
+          <t>46957592.4075025552634865</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>0.0000114456422276</t>
+          <t>0.0000110149467905</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>1.8658887951124598</t>
+          <t>-1.1324396899563101</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>0.0000113577179360</t>
+          <t>0.0000112403882285</t>
         </is>
       </c>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>binaryx-new</t>
+          <t>usual-usd</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4981,54 +4981,54 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>FORM</t>
+          <t>USD0</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Four</t>
+          <t>Usual USD</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>381867255.1445740000000000</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>580000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>824686961.8233138000000000</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>882787928.7271338279235106</t>
+          <t>822680424.6990433782294775</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>3940362.8191875655130852</t>
+          <t>11013306.9774372448548667</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>2.3117665021917433</t>
+          <t>0.9975669105767913</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>5.1389146807053702</t>
+          <t>0.0223089258851270</t>
         </is>
       </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/address/0x73A15FeD60Bf67631dC6cd7Bc5B6e8da8190aCF5</t>
+        </is>
+      </c>
       <c r="M74" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>the-graph</t>
+          <t>quant</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -5038,58 +5038,62 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>GRT</t>
+          <t>QNT</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>The Graph</t>
+          <t>Quant</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>9775189789.3182130000000000</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr"/>
+          <t>12072738.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>14881364.0000000000000000</t>
+        </is>
+      </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>881726841.4225415106382148</t>
+          <t>818843419.3602854177004138</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>6852152.3960048324125405</t>
+          <t>10327661.1193536913987490</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>0.0902004831032584</t>
+          <t>67.8258253728595301</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>2.2819502190419089</t>
+          <t>-0.9662436487499352</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>0.0894596339003760</t>
+          <t>68.2135470360713095</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xc944e90c64b2c07662a292be6244bdf05cda44a7</t>
+          <t>https://etherscan.io/token/0x4a220e6096b25eadb88358cb44068a3248254675</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>sei</t>
+          <t>binaryx-new</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -5099,48 +5103,48 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SEI</t>
+          <t>FORM</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Sei</t>
+          <t>Four</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>4882361111.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr"/>
+          <t>381867255.1445740000000000</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>580000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>876452745.4987871402788793</t>
+          <t>803880666.8217183247126867</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>31264594.4284945127554423</t>
+          <t>12402619.9745368446891992</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>0.1795141173650863</t>
+          <t>2.1051311836553545</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>0.7806243798684325</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>0.1790127169461673</t>
-        </is>
-      </c>
+          <t>-1.7866280526293252</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="77">
@@ -5176,27 +5180,27 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>875455769.9508351999554378</t>
+          <t>802426773.4879464383555385</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>46204096.0069090922282742</t>
+          <t>31509008.7627104435824633</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>8.8455844771411482</t>
+          <t>8.1077012171683428</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>1.3664865658034554</t>
+          <t>-2.3977328427229082</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>8.7934507703710551</t>
+          <t>8.2808803340092076</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -5205,13 +5209,13 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>quant</t>
+          <t>sei</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -5221,62 +5225,54 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>QNT</t>
+          <t>SEI</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Quant</t>
+          <t>Sei</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>12072738.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>14881364.0000000000000000</t>
-        </is>
-      </c>
+          <t>4882361111.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>843164617.3574918256825774</t>
+          <t>794629792.2037612387901557</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>8580615.0454394374050595</t>
+          <t>27470693.5516342637879698</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>69.8403806458395623</t>
+          <t>0.1627552272635987</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>1.8361118606789153</t>
+          <t>-0.5594457141081137</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>69.6649863589389351</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>https://etherscan.io/token/0x4a220e6096b25eadb88358cb44068a3248254675</t>
-        </is>
-      </c>
+          <t>0.1645961904243627</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>theta</t>
+          <t>flare</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -5286,62 +5282,58 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>THETA</t>
+          <t>FLR</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Theta Network</t>
+          <t>Flare</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1000000000.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>1000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>60983663777.0100000000000000</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>825090255.4090631000000000</t>
+          <t>793870937.8793804185824875</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>9150545.1326098777901670</t>
+          <t>13230599.4345027181844558</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>0.8250902554090631</t>
+          <t>0.0130177639175995</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>-0.3223483316953380</t>
+          <t>-2.2199441123710958</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>0.8296908215157212</t>
+          <t>0.0133626581849649</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>https://explorer.thetatoken.org/</t>
+          <t>https://flare-explorer.flare.network/</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>flare</t>
+          <t>the-graph</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -5351,58 +5343,58 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>FLR</t>
+          <t>GRT</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Flare</t>
+          <t>The Graph</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>60983663777.0100000000000000</t>
+          <t>9775189789.3182130000000000</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>815748307.4967140905742437</t>
+          <t>788212152.4479778899377274</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>8916528.8336567525839959</t>
+          <t>11994035.9947983401048192</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>0.0133765053946175</t>
+          <t>0.0806339487453525</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>-0.4687596962762880</t>
+          <t>-2.5139604981606193</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>0.0134568020841853</t>
+          <t>0.0830353936765643</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>https://flare-explorer.flare.network/</t>
+          <t>https://etherscan.io/token/0xc944e90c64b2c07662a292be6244bdf05cda44a7</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>paypal-usd</t>
+          <t>theta</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -5412,58 +5404,62 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>PYUSD</t>
+          <t>THETA</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>PayPal USD</t>
+          <t>Theta Network</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>802871349.4263150000000000</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr"/>
+          <t>1000000000.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>801762690.4410470682681000</t>
+          <t>768564979.5110045000000000</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>7767613.3753405751944598</t>
+          <t>10606949.1279642988465575</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>0.9986191324599388</t>
+          <t>0.7685649795110045</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>0.0457811745326145</t>
+          <t>-1.5164951302919544</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>0.9984507325612567</t>
+          <t>0.7848743773049209</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x6c3ea9036406852006290770bedfcaba0e23a0e8</t>
+          <t>https://explorer.thetatoken.org/</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>berachain</t>
+          <t>immutable-x</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -5473,54 +5469,58 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>BERA</t>
+          <t>IMX</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Berachain</t>
+          <t>Immutable X</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>107480000.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr"/>
+          <t>1768317543.3900000000000000</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>792133992.3010214393520000</t>
+          <t>756586661.2396060890663307</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>88079938.1624017367126109</t>
+          <t>24715617.5790351113854995</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>7.3700594743303074</t>
+          <t>0.4278567862812533</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>-4.7034308815679998</t>
+          <t>-6.6258070852395068</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>7.4568757377448312</t>
+          <t>0.4418055321295572</t>
         </is>
       </c>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>lido-dao</t>
+          <t>tether-gold</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -5530,58 +5530,58 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>LDO</t>
+          <t>XAUT</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Lido DAO</t>
+          <t>Tether Gold</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>897877243.8587132000000000</t>
+          <t>246524.0000000000000000</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>781963907.7790665377340163</t>
+          <t>751792096.1931798647792984</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>26585468.3217983309878982</t>
+          <t>11438551.2966462462617412</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>0.8709029136527639</t>
+          <t>3049.5696004980442666</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>-0.0611823226060997</t>
+          <t>0.0705825650204422</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>0.8683877792521563</t>
+          <t>3045.8896645516445585</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x5a98fcbea516cf06857215779fd812ca3bef1b32</t>
+          <t>https://etherscan.io/token/0x4922a015c4407f87432b179bb209e125432e4a2a</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>tether-gold</t>
+          <t>lido-dao</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -5591,58 +5591,58 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>XAUT</t>
+          <t>LDO</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Tether Gold</t>
+          <t>Lido DAO</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>246524.0000000000000000</t>
+          <t>897877243.8587132000000000</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>767207208.6997688288921932</t>
+          <t>739977781.4038349789355534</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>5665416.5340699813928797</t>
+          <t>23403223.0184237992617936</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>3112.0994657711574893</t>
+          <t>0.8241413695080519</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>-0.0985896384745402</t>
+          <t>-1.1350431807929440</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>3101.3707950215277841</t>
+          <t>0.8354282412157075</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x4922a015c4407f87432b179bb209e125432e4a2a</t>
+          <t>https://etherscan.io/token/0x5a98fcbea516cf06857215779fd812ca3bef1b32</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>nexo</t>
+          <t>paypal-usd</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -5652,58 +5652,58 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>NEXO</t>
+          <t>PYUSD</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Nexo</t>
+          <t>PayPal USD</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>646145839.5746847000000000</t>
+          <t>733086867.3976470000000000</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>692716043.1744293225867631</t>
+          <t>732126248.4774196029118622</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>3009027.2267621213127244</t>
+          <t>8176622.3559834154847578</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>1.0720738272189429</t>
+          <t>0.9986896247048628</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>-0.3644110207939468</t>
+          <t>-0.0423668897249277</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>1.0752977893246054</t>
+          <t>0.9988854998180445</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xb62132e35a6c13ee1ee0f84dc5d40bad8d815206</t>
+          <t>https://etherscan.io/token/0x6c3ea9036406852006290770bedfcaba0e23a0e8</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>jito</t>
+          <t>tezos</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -5713,58 +5713,58 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>JTO</t>
+          <t>XTZ</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Jito</t>
+          <t>Tezos</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>310420802.2000000000000000</t>
+          <t>1037953209.9107300000000000</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>689328171.0181693643410743</t>
+          <t>677264286.4946782053271022</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>13438681.4114001379053115</t>
+          <t>5356275.5352932198487497</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2.2206249263348156</t>
+          <t>0.6524998237183802</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>2.8823322321536347</t>
+          <t>0.1310480396504593</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>2.1895671607450513</t>
+          <t>0.6564722672672684</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/jtojtomepa8beP8AuQc6eXt5FriJwfFMwQx2v2f9mCL</t>
+          <t>https://tzkt.io/</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>gala</t>
+          <t>nexo</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -5774,62 +5774,58 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>GALA</t>
+          <t>NEXO</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Gala</t>
+          <t>Nexo</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>43759805521.5825650000000000</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>50000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>646145839.5746847000000000</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>682073294.9507409179461589</t>
+          <t>673046854.8252559808944393</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>28214455.6147880194954554</t>
+          <t>3417671.6891369910816602</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>0.0155867533418159</t>
+          <t>1.0416330394826630</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>3.7895790928314426</t>
+          <t>-4.1259446541079839</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>0.0154614354430189</t>
+          <t>1.0681829357503693</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>https://ethplorer.io/es/address/0x15d4c048f83bd7e37d49ea4c83a07267ec4203da#chart=candlestick</t>
+          <t>https://etherscan.io/token/0xb62132e35a6c13ee1ee0f84dc5d40bad8d815206</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>tezos</t>
+          <t>the-sandbox</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -5839,58 +5835,58 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>XTZ</t>
+          <t>SAND</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Tezos</t>
+          <t>The Sandbox</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1036889881.7602220000000000</t>
+          <t>2481357126.2233224000000000</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>679515144.1914802995852663</t>
+          <t>646634535.3639997583141780</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>4594132.2849918644839763</t>
+          <t>11757671.0229060141395455</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>0.6553397387174199</t>
+          <t>0.2605971258753032</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>0.2383523717431396</t>
+          <t>-1.3215709907068394</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>0.6547139980460938</t>
+          <t>0.2634073534361371</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>https://tzkt.io/</t>
+          <t>https://etherscan.io/token/0x3845badAde8e6dFF049820680d1F14bD3903a5d0</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>the-sandbox</t>
+          <t>gala</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -5900,58 +5896,62 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>SAND</t>
+          <t>GALA</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>The Sandbox</t>
+          <t>Gala</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2481357126.2233224000000000</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr"/>
+          <t>43851266304.4428200000000000</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>50000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>674628377.5776187305721227</t>
+          <t>643745590.7862872811604599</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>11697732.2677569289089691</t>
+          <t>14944661.6855145448439725</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>0.2718787918305082</t>
+          <t>0.0146802052719984</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>1.7296246971538369</t>
+          <t>-2.9956725861710946</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>0.2711383001115169</t>
+          <t>0.0150056690665242</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x3845badAde8e6dFF049820680d1F14bD3903a5d0</t>
+          <t>https://ethplorer.io/es/address/0x15d4c048f83bd7e37d49ea4c83a07267ec4203da#chart=candlestick</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>bittorrent</t>
+          <t>pax-gold</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -5961,58 +5961,58 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>BTTOLD</t>
+          <t>PAXG</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>BitTorrent [New]</t>
+          <t>PAX Gold</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>986061142857000.0000000000000000</t>
+          <t>210371.2200000000000000</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>664200063.8926383444105000</t>
+          <t>643367637.3628503994889545</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>866759.9399415633490092</t>
+          <t>23951888.6660725602864886</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>0.0000006735891265</t>
+          <t>3058.2493050277999029</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>-0.0312148993952195</t>
+          <t>0.1688879733228264</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>0.0000006754592101</t>
+          <t>3051.1902961742908838</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>https://tronscan.org/#/token/1002000</t>
+          <t>https://etherscan.io/token/0x45804880de22913dafe09f4980848ece6ecbaf78</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>pax-gold</t>
+          <t>kaia</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -6022,58 +6022,58 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>PAXG</t>
+          <t>KAIA</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>PAX Gold</t>
+          <t>Kaia</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>210371.2200000000000000</t>
+          <t>5966455361.8200000000000000</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>658079319.4493791258409206</t>
+          <t>636422358.7523524971223351</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>43580887.0316971563718593</t>
+          <t>10639757.0526403514984570</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>3128.1813141996282849</t>
+          <t>0.1066667426735292</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>0.6020036812845043</t>
+          <t>-4.7902326792715918</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>3123.0488678173535974</t>
+          <t>0.1096319499769478</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x45804880de22913dafe09f4980848ece6ecbaf78</t>
+          <t>https://www.kaiascan.io/</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>iota</t>
+          <t>curve-dao-token</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -6083,58 +6083,62 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>IOTA</t>
+          <t>CRV</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>IOTA</t>
+          <t>Curve DAO Token</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>3688810566.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr"/>
+          <t>1310978944.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3030303030.2990000000000000</t>
+        </is>
+      </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>639076930.0121098553281614</t>
+          <t>628612699.3910687576028288</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>8381385.3124557896662407</t>
+          <t>68658084.1102877416436332</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>0.1732474244957229</t>
+          <t>0.4794987000119727</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>1.2427770178238460</t>
+          <t>-4.1688352341494520</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>0.1733952818441017</t>
+          <t>0.4937295605262237</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>https://thetangle.org/</t>
+          <t>https://etherscan.io/token/0xD533a949740bb3306d119CC777fa900bA034cd52</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>bitcoin-sv</t>
+          <t>bittorrent</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -6144,58 +6148,58 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>BSV</t>
+          <t>BTTOLD</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Bitcoin SV</t>
+          <t>BitTorrent [New]</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>19844809.3750000000000000</t>
+          <t>986061142857000.0000000000000000</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>635134845.9482837969501684</t>
+          <t>621665728.3100299352100000</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>6289934.9106722600451384</t>
+          <t>1594695.5449998793700430</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>32.0050867683521801</t>
+          <t>0.0000006304535300</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>2.4047543256910594</t>
+          <t>-0.3783721186680034</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>31.9301772101136709</t>
+          <t>0.0000006335649573</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>https://bsvexplorer.io/</t>
+          <t>https://tronscan.org/#/token/1002000</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>curve-dao-token</t>
+          <t>iota</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -6205,62 +6209,58 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>CRV</t>
+          <t>IOTA</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Curve DAO Token</t>
+          <t>IOTA</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1307677861.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>3030303030.2990000000000000</t>
-        </is>
-      </c>
+          <t>3707948285.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>629929521.8492605763358876</t>
+          <t>608386041.1970593870216845</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>36269525.4801441155442230</t>
+          <t>8486162.0596022974926571</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>0.4817161325707116</t>
+          <t>0.1640761937425617</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>-0.9146228402189618</t>
+          <t>-1.6770321174922852</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>0.4823167015160085</t>
+          <t>0.1665593724007480</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xD533a949740bb3306d119CC777fa900bA034cd52</t>
+          <t>https://thetangle.org/</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>kaia</t>
+          <t>zcash</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -6270,58 +6270,62 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>KAIA</t>
+          <t>ZEC</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Kaia</t>
+          <t>Zcash</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>5966455361.8200000000000000</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr"/>
+          <t>15886821.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>21000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>618044828.8354813040505744</t>
+          <t>603962021.5764952732327353</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>3904182.0370301496324040</t>
+          <t>13761649.7016257340637841</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>0.1035866006457398</t>
+          <t>38.0165434970593093</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>1.6406117217702562</t>
+          <t>-5.4944607393023489</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>0.1031842549244072</t>
+          <t>39.6728505958842219</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>https://www.kaiascan.io/</t>
+          <t>https://explorer.zcha.in/</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>flow</t>
+          <t>berachain</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -6331,58 +6335,54 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>FLOW</t>
+          <t>BERA</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Flow</t>
+          <t>Berachain</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>1572540589.3190167000000000</t>
+          <t>107480000.0000000000000000</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>604688115.9882250625751175</t>
+          <t>601823911.1512187821200000</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>7361446.8982467566311617</t>
+          <t>83624277.1110917705711340</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>0.3845294169799987</t>
+          <t>5.5994037137255190</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>1.8262768030850598</t>
+          <t>-2.8006945059544110</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>0.3827218753583948</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>https://flowscan.org/</t>
-        </is>
-      </c>
+          <t>5.7727815650475102</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>pancakeswap</t>
+          <t>bitcoin-sv</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -6392,62 +6392,58 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>CAKE</t>
+          <t>BSV</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>PancakeSwap</t>
+          <t>Bitcoin SV</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>301827011.9503255500000000</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>450000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>19847437.5000000000000000</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>604192008.2020432893830351</t>
+          <t>599408070.5143515129279750</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>38962922.1062806904586452</t>
+          <t>9337576.1275926633598297</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2.0017824259595451</t>
+          <t>30.2007788418203364</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>0.8378996939706946</t>
+          <t>-1.6237297934225148</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>2.0087839350450721</t>
+          <t>30.7408362727394145</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>https://bscscan.com/token/0x0e09fabb73bd3ade0a17ecc321fd13a19e81ce82</t>
+          <t>https://bsvexplorer.io/</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>helium</t>
+          <t>flow</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -6457,62 +6453,58 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>HNT</t>
+          <t>FLOW</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Helium</t>
+          <t>Flow</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>179760925.5581076000000000</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>223000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>1574016688.1911110000000000</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>584083082.9055908344448669</t>
+          <t>576745506.6377685298954694</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>4369255.5231141701457097</t>
+          <t>4827969.6338725943268724</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>3.2492216041510443</t>
+          <t>0.3664163861569823</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>4.3736593599935697</t>
+          <t>-1.6068938914989110</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>3.2219845269735515</t>
+          <t>0.3728635525243774</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>https://explorer.helium.com/</t>
+          <t>https://flowscan.org/</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>zcash</t>
+          <t>jito</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -6522,62 +6514,58 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>ZEC</t>
+          <t>JTO</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Zcash</t>
+          <t>Jito</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>15886821.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>21000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>313001722.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>578906400.6221349658349037</t>
+          <t>538878999.9349090940691448</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>7281308.6520834133244572</t>
+          <t>24009970.1312234433092002</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>36.4394110453019497</t>
+          <t>1.7216486749389484</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>2.0131136871036532</t>
+          <t>-8.8856885061471409</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>36.1072817616090704</t>
+          <t>1.8241348979249726</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>https://explorer.zcha.in/</t>
+          <t>https://solscan.io/token/jtojtomepa8beP8AuQc6eXt5FriJwfFMwQx2v2f9mCL</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ethereum-name-service</t>
+          <t>pancakeswap</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -6587,56 +6575,56 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>ENS</t>
+          <t>CAKE</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Ethereum Name Service</t>
+          <t>PancakeSwap</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>35599404.0400000000000000</t>
+          <t>295586537.9426779000000000</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>100000000.0000000000000000</t>
+          <t>450000000.0000000000000000</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>569217007.7225569586693963</t>
+          <t>532855478.9560041510025287</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>22275579.4299545932147549</t>
+          <t>18432518.8929509870979006</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>15.9895094615341476</t>
+          <t>1.8027055043330120</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>1.6880833217139621</t>
+          <t>-0.8349233935220821</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>15.9153295850566025</t>
+          <t>1.8225532568576123</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xC18360217D8F7Ab5e7c516566761Ea12Ce7F9D72</t>
+          <t>https://bscscan.com/token/0x0e09fabb73bd3ade0a17ecc321fd13a19e81ce82</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="101">
@@ -6672,27 +6660,27 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>566159850.6601782715478274</t>
+          <t>529624400.1400360115680102</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>38820718.3453382972285526</t>
+          <t>32122758.0520502817274049</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>0.0000588117947951</t>
+          <t>0.0000550165496603</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>1.8759618715185514</t>
+          <t>-1.4199445965134872</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>0.0000581744515543</t>
+          <t>0.0000562182980995</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -6701,7 +6689,7 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
   </sheetData>
